--- a/hans/df_expense_table_cells.xlsx
+++ b/hans/df_expense_table_cells.xlsx
@@ -43,7 +43,7 @@
     <t>是否自己已关闭</t>
   </si>
   <si>
-    <t>receiptRate</t>
+    <t>单据汇率</t>
   </si>
   <si>
     <t>银行账号</t>

--- a/hans/df_expense_table_cells.xlsx
+++ b/hans/df_expense_table_cells.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="163">
   <si>
     <t>资金类别</t>
   </si>
@@ -25,6 +25,9 @@
     <t>单据单号</t>
   </si>
   <si>
+    <t>贷方金额</t>
+  </si>
+  <si>
     <t>单据时间</t>
   </si>
   <si>
@@ -50,9 +53,6 @@
   </si>
   <si>
     <t>银行日期</t>
-  </si>
-  <si>
-    <t>贷方金额</t>
   </si>
   <si>
     <t>5501.13-招待费</t>
@@ -473,6 +473,12 @@
     <t>2次机场大巴车费</t>
   </si>
   <si>
+    <t>FIONA 公司行政年检-王燕RMB</t>
+  </si>
+  <si>
+    <t>TOUCHSTONE 2023年行政年检-王燕RMB</t>
+  </si>
+  <si>
     <t>RMB</t>
   </si>
   <si>
@@ -483,6 +489,9 @@
   </si>
   <si>
     <t>出纳完成中</t>
+  </si>
+  <si>
+    <t>出纳审核中</t>
   </si>
   <si>
     <t>吴总股东往来/RMB</t>
@@ -856,7 +865,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M144"/>
+  <dimension ref="A1:M146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -913,35 +922,35 @@
       <c r="C2">
         <v>18</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
+        <v>2782</v>
+      </c>
+      <c r="E2" s="2">
         <v>44998.34665780092</v>
       </c>
-      <c r="E2" t="s">
-        <v>152</v>
-      </c>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>156</v>
-      </c>
-      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M2" s="2">
         <v>44995.10725694444</v>
-      </c>
-      <c r="M2">
-        <v>2782</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -954,35 +963,35 @@
       <c r="C3">
         <v>19</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
+        <v>486.68</v>
+      </c>
+      <c r="E3" s="2">
         <v>44998.35004600694</v>
       </c>
-      <c r="E3" t="s">
-        <v>152</v>
-      </c>
       <c r="F3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>156</v>
-      </c>
-      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>159</v>
+      </c>
+      <c r="M3" s="2">
         <v>44995.10702546296</v>
-      </c>
-      <c r="M3">
-        <v>486.68</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -995,35 +1004,35 @@
       <c r="C4">
         <v>20</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
+        <v>1813</v>
+      </c>
+      <c r="E4" s="2">
         <v>44998.35328634259</v>
       </c>
-      <c r="E4" t="s">
-        <v>152</v>
-      </c>
       <c r="F4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>156</v>
-      </c>
-      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>159</v>
+      </c>
+      <c r="M4" s="2">
         <v>44995.10678240741</v>
-      </c>
-      <c r="M4">
-        <v>1813</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1036,35 +1045,35 @@
       <c r="C5">
         <v>20</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
+        <v>3167</v>
+      </c>
+      <c r="E5" s="2">
         <v>44998.35328634259</v>
       </c>
-      <c r="E5" t="s">
-        <v>152</v>
-      </c>
       <c r="F5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G5" t="s">
-        <v>154</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>156</v>
-      </c>
-      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>159</v>
+      </c>
+      <c r="M5" s="2">
         <v>44995.10678240741</v>
-      </c>
-      <c r="M5">
-        <v>3167</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1077,35 +1086,35 @@
       <c r="C6">
         <v>21</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
+        <v>1399</v>
+      </c>
+      <c r="E6" s="2">
         <v>44998.35491502315</v>
       </c>
-      <c r="E6" t="s">
-        <v>152</v>
-      </c>
       <c r="F6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>156</v>
-      </c>
-      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>159</v>
+      </c>
+      <c r="M6" s="2">
         <v>45000.1064699074</v>
-      </c>
-      <c r="M6">
-        <v>1399</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1118,35 +1127,35 @@
       <c r="C7">
         <v>22</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
+        <v>494.9</v>
+      </c>
+      <c r="E7" s="2">
         <v>44998.35697050926</v>
       </c>
-      <c r="E7" t="s">
-        <v>152</v>
-      </c>
       <c r="F7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M7" s="2">
         <v>44995.33467592593</v>
-      </c>
-      <c r="M7">
-        <v>494.9</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1159,35 +1168,35 @@
       <c r="C8">
         <v>22</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
+        <v>238</v>
+      </c>
+      <c r="E8" s="2">
         <v>44998.35697050926</v>
       </c>
-      <c r="E8" t="s">
-        <v>152</v>
-      </c>
       <c r="F8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G8" t="s">
-        <v>154</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>159</v>
+      </c>
+      <c r="M8" s="2">
         <v>44995.33467592593</v>
-      </c>
-      <c r="M8">
-        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1200,35 +1209,35 @@
       <c r="C9">
         <v>22</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
+        <v>3829</v>
+      </c>
+      <c r="E9" s="2">
         <v>44998.35697050926</v>
       </c>
-      <c r="E9" t="s">
-        <v>152</v>
-      </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G9" t="s">
-        <v>154</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H9" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>159</v>
+      </c>
+      <c r="M9" s="2">
         <v>44995.33467592593</v>
-      </c>
-      <c r="M9">
-        <v>3829</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1241,35 +1250,35 @@
       <c r="C10">
         <v>23</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
+        <v>15000</v>
+      </c>
+      <c r="E10" s="2">
         <v>44998.35608846065</v>
       </c>
-      <c r="E10" t="s">
-        <v>152</v>
-      </c>
       <c r="F10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>156</v>
-      </c>
-      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>159</v>
+      </c>
+      <c r="M10" s="2">
         <v>44995.10621527778</v>
-      </c>
-      <c r="M10">
-        <v>15000</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1282,35 +1291,35 @@
       <c r="C11">
         <v>24</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
+        <v>610</v>
+      </c>
+      <c r="E11" s="2">
         <v>44998.35801635417</v>
       </c>
-      <c r="E11" t="s">
-        <v>152</v>
-      </c>
       <c r="F11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G11" t="s">
-        <v>154</v>
-      </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>156</v>
-      </c>
-      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>159</v>
+      </c>
+      <c r="M11" s="2">
         <v>44995.10587962963</v>
-      </c>
-      <c r="M11">
-        <v>610</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1323,35 +1332,35 @@
       <c r="C12">
         <v>25</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
+        <v>1067</v>
+      </c>
+      <c r="E12" s="2">
         <v>44998.35955101852</v>
       </c>
-      <c r="E12" t="s">
-        <v>152</v>
-      </c>
       <c r="F12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H12" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
-        <v>156</v>
-      </c>
-      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>159</v>
+      </c>
+      <c r="M12" s="2">
         <v>44995.34130787037</v>
-      </c>
-      <c r="M12">
-        <v>1067</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1364,35 +1373,35 @@
       <c r="C13">
         <v>26</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="2">
         <v>44998.35966047454</v>
       </c>
-      <c r="E13" t="s">
-        <v>152</v>
-      </c>
       <c r="F13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G13" t="s">
-        <v>154</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>156</v>
-      </c>
-      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>159</v>
+      </c>
+      <c r="M13" s="2">
         <v>45002.28056712963</v>
-      </c>
-      <c r="M13">
-        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1405,35 +1414,35 @@
       <c r="C14">
         <v>27</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
+        <v>405.01</v>
+      </c>
+      <c r="E14" s="2">
         <v>44998.36113280093</v>
       </c>
-      <c r="E14" t="s">
-        <v>152</v>
-      </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G14" t="s">
-        <v>154</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>159</v>
+      </c>
+      <c r="M14" s="2">
         <v>45002.28086805555</v>
-      </c>
-      <c r="M14">
-        <v>405.01</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1446,35 +1455,35 @@
       <c r="C15">
         <v>28</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
+        <v>869</v>
+      </c>
+      <c r="E15" s="2">
         <v>44998.36198395833</v>
       </c>
-      <c r="E15" t="s">
-        <v>152</v>
-      </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>156</v>
-      </c>
-      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>159</v>
+      </c>
+      <c r="M15" s="2">
         <v>45002.28135416667</v>
-      </c>
-      <c r="M15">
-        <v>869</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1487,35 +1496,35 @@
       <c r="C16">
         <v>29</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
+        <v>1572</v>
+      </c>
+      <c r="E16" s="2">
         <v>44999.1429327662</v>
       </c>
-      <c r="E16" t="s">
-        <v>152</v>
-      </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H16" t="s">
+        <v>156</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
-        <v>156</v>
-      </c>
-      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>159</v>
+      </c>
+      <c r="M16" s="2">
         <v>45001.28188657408</v>
-      </c>
-      <c r="M16">
-        <v>1572</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1528,35 +1537,35 @@
       <c r="C17">
         <v>29</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
+        <v>17.13</v>
+      </c>
+      <c r="E17" s="2">
         <v>44999.1429327662</v>
       </c>
-      <c r="E17" t="s">
-        <v>152</v>
-      </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
-        <v>154</v>
-      </c>
-      <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H17" t="s">
+        <v>156</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
-        <v>156</v>
-      </c>
-      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>159</v>
+      </c>
+      <c r="M17" s="2">
         <v>45001.28188657408</v>
-      </c>
-      <c r="M17">
-        <v>17.13</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1569,35 +1578,35 @@
       <c r="C18">
         <v>30</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
+        <v>156</v>
+      </c>
+      <c r="E18" s="2">
         <v>44999.14498083333</v>
       </c>
-      <c r="E18" t="s">
-        <v>152</v>
-      </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G18" t="s">
-        <v>154</v>
-      </c>
-      <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H18" t="s">
+        <v>156</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
-        <v>156</v>
-      </c>
-      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>159</v>
+      </c>
+      <c r="M18" s="2">
         <v>45002.28223379629</v>
-      </c>
-      <c r="M18">
-        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1610,35 +1619,35 @@
       <c r="C19">
         <v>31</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
+        <v>3337</v>
+      </c>
+      <c r="E19" s="2">
         <v>44999.14929166667</v>
       </c>
-      <c r="E19" t="s">
-        <v>152</v>
-      </c>
       <c r="F19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G19" t="s">
-        <v>154</v>
-      </c>
-      <c r="H19" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H19" t="s">
+        <v>156</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19" t="s">
-        <v>156</v>
-      </c>
-      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>159</v>
+      </c>
+      <c r="M19" s="2">
         <v>45002.2827662037</v>
-      </c>
-      <c r="M19">
-        <v>3337</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1651,35 +1660,35 @@
       <c r="C20">
         <v>32</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="2">
         <v>44999.35608475695</v>
       </c>
-      <c r="E20" t="s">
-        <v>152</v>
-      </c>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G20" t="s">
-        <v>154</v>
-      </c>
-      <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H20" t="s">
+        <v>156</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20" t="s">
-        <v>156</v>
-      </c>
-      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>159</v>
+      </c>
+      <c r="M20" s="2">
         <v>45002.28305555556</v>
-      </c>
-      <c r="M20">
-        <v>3000</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1692,35 +1701,35 @@
       <c r="C21">
         <v>33</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
+        <v>1465</v>
+      </c>
+      <c r="E21" s="2">
         <v>44999.37286482639</v>
       </c>
-      <c r="E21" t="s">
-        <v>152</v>
-      </c>
       <c r="F21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G21" t="s">
-        <v>154</v>
-      </c>
-      <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H21" t="s">
+        <v>156</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21" t="s">
-        <v>156</v>
-      </c>
-      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>159</v>
+      </c>
+      <c r="M21" s="2">
         <v>45002.28333333333</v>
-      </c>
-      <c r="M21">
-        <v>1465</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1733,35 +1742,35 @@
       <c r="C22">
         <v>34</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22">
+        <v>2114</v>
+      </c>
+      <c r="E22" s="2">
         <v>45000.30218704861</v>
       </c>
-      <c r="E22" t="s">
-        <v>152</v>
-      </c>
       <c r="F22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G22" t="s">
-        <v>154</v>
-      </c>
-      <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H22" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>159</v>
+      </c>
+      <c r="M22" s="2">
         <v>45002.28361111111</v>
-      </c>
-      <c r="M22">
-        <v>2114</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1774,35 +1783,35 @@
       <c r="C23">
         <v>35</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23">
+        <v>2460</v>
+      </c>
+      <c r="E23" s="2">
         <v>45001.29345269676</v>
       </c>
-      <c r="E23" t="s">
-        <v>152</v>
-      </c>
       <c r="F23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G23" t="s">
-        <v>154</v>
-      </c>
-      <c r="H23" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H23" t="s">
+        <v>156</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23" t="s">
-        <v>156</v>
-      </c>
-      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>159</v>
+      </c>
+      <c r="M23" s="2">
         <v>45002.37799768519</v>
-      </c>
-      <c r="M23">
-        <v>2460</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1815,35 +1824,35 @@
       <c r="C24">
         <v>35</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24">
+        <v>500</v>
+      </c>
+      <c r="E24" s="2">
         <v>45001.29345269676</v>
       </c>
-      <c r="E24" t="s">
-        <v>152</v>
-      </c>
       <c r="F24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G24" t="s">
-        <v>154</v>
-      </c>
-      <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H24" t="s">
+        <v>156</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24" t="s">
-        <v>156</v>
-      </c>
-      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>159</v>
+      </c>
+      <c r="M24" s="2">
         <v>45002.37799768519</v>
-      </c>
-      <c r="M24">
-        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1856,35 +1865,35 @@
       <c r="C25">
         <v>35</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25">
+        <v>60.99</v>
+      </c>
+      <c r="E25" s="2">
         <v>45001.29345269676</v>
       </c>
-      <c r="E25" t="s">
-        <v>152</v>
-      </c>
       <c r="F25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G25" t="s">
-        <v>154</v>
-      </c>
-      <c r="H25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H25" t="s">
+        <v>156</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25" t="s">
-        <v>156</v>
-      </c>
-      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>159</v>
+      </c>
+      <c r="M25" s="2">
         <v>45002.37799768519</v>
-      </c>
-      <c r="M25">
-        <v>60.99</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1897,35 +1906,35 @@
       <c r="C26">
         <v>35</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26">
+        <v>124.48</v>
+      </c>
+      <c r="E26" s="2">
         <v>45001.29345269676</v>
       </c>
-      <c r="E26" t="s">
-        <v>152</v>
-      </c>
       <c r="F26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G26" t="s">
-        <v>154</v>
-      </c>
-      <c r="H26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H26" t="s">
+        <v>156</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26" t="s">
-        <v>156</v>
-      </c>
-      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="2">
         <v>45002.37799768519</v>
-      </c>
-      <c r="M26">
-        <v>124.48</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1938,35 +1947,35 @@
       <c r="C27">
         <v>36</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27">
+        <v>153.2</v>
+      </c>
+      <c r="E27" s="2">
         <v>45002.16524336806</v>
       </c>
-      <c r="E27" t="s">
-        <v>152</v>
-      </c>
       <c r="F27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G27" t="s">
-        <v>154</v>
-      </c>
-      <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H27" t="s">
+        <v>156</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27" t="s">
-        <v>156</v>
-      </c>
-      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>159</v>
+      </c>
+      <c r="M27" s="2">
         <v>45013.11997685185</v>
-      </c>
-      <c r="M27">
-        <v>153.2</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1979,35 +1988,35 @@
       <c r="C28">
         <v>37</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28">
+        <v>550</v>
+      </c>
+      <c r="E28" s="2">
         <v>45002.33841078704</v>
       </c>
-      <c r="E28" t="s">
-        <v>152</v>
-      </c>
       <c r="F28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G28" t="s">
-        <v>154</v>
-      </c>
-      <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H28" t="s">
+        <v>156</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28" t="s">
-        <v>156</v>
-      </c>
-      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>159</v>
+      </c>
+      <c r="M28" s="2">
         <v>45013.11972222223</v>
-      </c>
-      <c r="M28">
-        <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2020,35 +2029,35 @@
       <c r="C29">
         <v>38</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29">
+        <v>0.65</v>
+      </c>
+      <c r="E29" s="2">
         <v>45005.24194612268</v>
       </c>
-      <c r="E29" t="s">
-        <v>152</v>
-      </c>
       <c r="F29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G29" t="s">
-        <v>154</v>
-      </c>
-      <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H29" t="s">
+        <v>156</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29" t="s">
-        <v>157</v>
-      </c>
-      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>160</v>
+      </c>
+      <c r="M29" s="2">
         <v>45006.08386574074</v>
-      </c>
-      <c r="M29">
-        <v>0.65</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2061,35 +2070,35 @@
       <c r="C30">
         <v>39</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30">
+        <v>776</v>
+      </c>
+      <c r="E30" s="2">
         <v>45005.34290649305</v>
       </c>
-      <c r="E30" t="s">
-        <v>152</v>
-      </c>
       <c r="F30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G30" t="s">
-        <v>154</v>
-      </c>
-      <c r="H30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H30" t="s">
+        <v>156</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30" t="s">
-        <v>156</v>
-      </c>
-      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>159</v>
+      </c>
+      <c r="M30" s="2">
         <v>45013.11949074074</v>
-      </c>
-      <c r="M30">
-        <v>776</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2102,35 +2111,35 @@
       <c r="C31">
         <v>40</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31">
+        <v>581.92</v>
+      </c>
+      <c r="E31" s="2">
         <v>45007.37341414352</v>
       </c>
-      <c r="E31" t="s">
-        <v>152</v>
-      </c>
       <c r="F31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G31" t="s">
-        <v>154</v>
-      </c>
-      <c r="H31" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H31" t="s">
+        <v>156</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31" t="s">
-        <v>156</v>
-      </c>
-      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>159</v>
+      </c>
+      <c r="M31" s="2">
         <v>45013.1190162037</v>
-      </c>
-      <c r="M31">
-        <v>581.92</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2143,35 +2152,35 @@
       <c r="C32">
         <v>41</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32">
+        <v>483</v>
+      </c>
+      <c r="E32" s="2">
         <v>45008.30710563657</v>
       </c>
-      <c r="E32" t="s">
-        <v>152</v>
-      </c>
       <c r="F32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G32" t="s">
-        <v>154</v>
-      </c>
-      <c r="H32" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H32" t="s">
+        <v>156</v>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32" t="s">
-        <v>156</v>
-      </c>
-      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>159</v>
+      </c>
+      <c r="M32" s="2">
         <v>45013.39726519676</v>
-      </c>
-      <c r="M32">
-        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2184,35 +2193,35 @@
       <c r="C33">
         <v>42</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33">
+        <v>1790</v>
+      </c>
+      <c r="E33" s="2">
         <v>45013.37752958333</v>
       </c>
-      <c r="E33" t="s">
-        <v>152</v>
-      </c>
       <c r="F33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G33" t="s">
-        <v>154</v>
-      </c>
-      <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H33" t="s">
+        <v>156</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33" t="s">
-        <v>156</v>
-      </c>
-      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>159</v>
+      </c>
+      <c r="M33" s="2">
         <v>45023.08234953704</v>
-      </c>
-      <c r="M33">
-        <v>1790</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2225,35 +2234,35 @@
       <c r="C34">
         <v>43</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34">
+        <v>1200</v>
+      </c>
+      <c r="E34" s="2">
         <v>45020.08620959491</v>
       </c>
-      <c r="E34" t="s">
-        <v>152</v>
-      </c>
       <c r="F34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G34" t="s">
-        <v>154</v>
-      </c>
-      <c r="H34" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H34" t="s">
+        <v>156</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34" t="s">
-        <v>156</v>
-      </c>
-      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>159</v>
+      </c>
+      <c r="M34" s="2">
         <v>45023.10739583334</v>
-      </c>
-      <c r="M34">
-        <v>1200</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2266,35 +2275,35 @@
       <c r="C35">
         <v>44</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35">
+        <v>300</v>
+      </c>
+      <c r="E35" s="2">
         <v>45020.3557540625</v>
       </c>
-      <c r="E35" t="s">
-        <v>152</v>
-      </c>
       <c r="F35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G35" t="s">
-        <v>154</v>
-      </c>
-      <c r="H35" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H35" t="s">
+        <v>156</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35" t="s">
-        <v>157</v>
-      </c>
-      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>160</v>
+      </c>
+      <c r="M35" s="2">
         <v>45023.08731481482</v>
-      </c>
-      <c r="M35">
-        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2307,35 +2316,35 @@
       <c r="C36">
         <v>45</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36">
+        <v>20.24</v>
+      </c>
+      <c r="E36" s="2">
         <v>45020.36067335648</v>
       </c>
-      <c r="E36" t="s">
-        <v>152</v>
-      </c>
       <c r="F36" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G36" t="s">
-        <v>154</v>
-      </c>
-      <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H36" t="s">
+        <v>156</v>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36" t="s">
-        <v>156</v>
-      </c>
-      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>159</v>
+      </c>
+      <c r="M36" s="2">
         <v>45023.08780092592</v>
-      </c>
-      <c r="M36">
-        <v>20.24</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2348,35 +2357,35 @@
       <c r="C37">
         <v>45</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37">
+        <v>19</v>
+      </c>
+      <c r="E37" s="2">
         <v>45020.36067335648</v>
       </c>
-      <c r="E37" t="s">
-        <v>152</v>
-      </c>
       <c r="F37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G37" t="s">
-        <v>154</v>
-      </c>
-      <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H37" t="s">
+        <v>156</v>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37" t="s">
-        <v>156</v>
-      </c>
-      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
+        <v>159</v>
+      </c>
+      <c r="M37" s="2">
         <v>45023.08780092592</v>
-      </c>
-      <c r="M37">
-        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2389,35 +2398,35 @@
       <c r="C38">
         <v>46</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38">
+        <v>1037</v>
+      </c>
+      <c r="E38" s="2">
         <v>45022.16013651621</v>
       </c>
-      <c r="E38" t="s">
-        <v>152</v>
-      </c>
       <c r="F38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G38" t="s">
-        <v>154</v>
-      </c>
-      <c r="H38" t="b">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H38" t="s">
+        <v>156</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38" t="s">
-        <v>156</v>
-      </c>
-      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>159</v>
+      </c>
+      <c r="M38" s="2">
         <v>45023.08810185185</v>
-      </c>
-      <c r="M38">
-        <v>1037</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2430,35 +2439,35 @@
       <c r="C39">
         <v>47</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39">
+        <v>1320</v>
+      </c>
+      <c r="E39" s="2">
         <v>45023.31049271991</v>
       </c>
-      <c r="E39" t="s">
-        <v>152</v>
-      </c>
       <c r="F39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G39" t="s">
-        <v>154</v>
-      </c>
-      <c r="H39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H39" t="s">
+        <v>156</v>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39" t="s">
-        <v>156</v>
-      </c>
-      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>159</v>
+      </c>
+      <c r="M39" s="2">
         <v>45030.12488425926</v>
-      </c>
-      <c r="M39">
-        <v>1320</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2471,35 +2480,35 @@
       <c r="C40">
         <v>48</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40">
+        <v>30000</v>
+      </c>
+      <c r="E40" s="2">
         <v>45026.10782059028</v>
       </c>
-      <c r="E40" t="s">
-        <v>152</v>
-      </c>
       <c r="F40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G40" t="s">
-        <v>154</v>
-      </c>
-      <c r="H40" t="b">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H40" t="s">
+        <v>156</v>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40" t="s">
-        <v>157</v>
-      </c>
-      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>160</v>
+      </c>
+      <c r="M40" s="2">
         <v>45026.27826388889</v>
-      </c>
-      <c r="M40">
-        <v>30000</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2512,35 +2521,35 @@
       <c r="C41">
         <v>49</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41">
+        <v>20000</v>
+      </c>
+      <c r="E41" s="2">
         <v>45026.10749625</v>
       </c>
-      <c r="E41" t="s">
-        <v>152</v>
-      </c>
       <c r="F41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G41" t="s">
-        <v>154</v>
-      </c>
-      <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H41" t="s">
+        <v>156</v>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41" t="s">
-        <v>157</v>
-      </c>
-      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>160</v>
+      </c>
+      <c r="M41" s="2">
         <v>45026.2780324074</v>
-      </c>
-      <c r="M41">
-        <v>20000</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2553,35 +2562,35 @@
       <c r="C42">
         <v>50</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42">
+        <v>1031.7</v>
+      </c>
+      <c r="E42" s="2">
         <v>45026.10379756944</v>
       </c>
-      <c r="E42" t="s">
-        <v>152</v>
-      </c>
       <c r="F42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G42" t="s">
-        <v>154</v>
-      </c>
-      <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H42" t="s">
+        <v>156</v>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42" t="s">
-        <v>157</v>
-      </c>
-      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
+        <v>160</v>
+      </c>
+      <c r="M42" s="2">
         <v>45026.2777199074</v>
-      </c>
-      <c r="M42">
-        <v>1031.7</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2594,35 +2603,35 @@
       <c r="C43">
         <v>51</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43">
+        <v>3667</v>
+      </c>
+      <c r="E43" s="2">
         <v>45028.09191259259</v>
       </c>
-      <c r="E43" t="s">
-        <v>152</v>
-      </c>
       <c r="F43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G43" t="s">
-        <v>154</v>
-      </c>
-      <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H43" t="s">
+        <v>156</v>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43" t="s">
-        <v>156</v>
-      </c>
-      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>159</v>
+      </c>
+      <c r="M43" s="2">
         <v>45030.12530092592</v>
-      </c>
-      <c r="M43">
-        <v>3667</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2635,35 +2644,35 @@
       <c r="C44">
         <v>51</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44">
+        <v>29080</v>
+      </c>
+      <c r="E44" s="2">
         <v>45028.09191259259</v>
       </c>
-      <c r="E44" t="s">
-        <v>152</v>
-      </c>
       <c r="F44" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G44" t="s">
-        <v>154</v>
-      </c>
-      <c r="H44" t="b">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H44" t="s">
+        <v>156</v>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44" t="s">
-        <v>156</v>
-      </c>
-      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>159</v>
+      </c>
+      <c r="M44" s="2">
         <v>45030.12530092592</v>
-      </c>
-      <c r="M44">
-        <v>29080</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2676,35 +2685,35 @@
       <c r="C45">
         <v>52</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45">
+        <v>683</v>
+      </c>
+      <c r="E45" s="2">
         <v>45028.36057641204</v>
       </c>
-      <c r="E45" t="s">
-        <v>152</v>
-      </c>
       <c r="F45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G45" t="s">
-        <v>154</v>
-      </c>
-      <c r="H45" t="b">
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H45" t="s">
+        <v>156</v>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45" t="s">
-        <v>156</v>
-      </c>
-      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>159</v>
+      </c>
+      <c r="M45" s="2">
         <v>45030.12891203703</v>
-      </c>
-      <c r="M45">
-        <v>683</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2717,35 +2726,35 @@
       <c r="C46">
         <v>52</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46">
+        <v>785.73</v>
+      </c>
+      <c r="E46" s="2">
         <v>45028.36057641204</v>
       </c>
-      <c r="E46" t="s">
-        <v>152</v>
-      </c>
       <c r="F46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G46" t="s">
-        <v>154</v>
-      </c>
-      <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H46" t="s">
+        <v>156</v>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
       </c>
       <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46" t="s">
-        <v>156</v>
-      </c>
-      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
+        <v>159</v>
+      </c>
+      <c r="M46" s="2">
         <v>45030.12891203703</v>
-      </c>
-      <c r="M46">
-        <v>785.73</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2758,35 +2767,35 @@
       <c r="C47">
         <v>52</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47">
+        <v>3139.8</v>
+      </c>
+      <c r="E47" s="2">
         <v>45028.36057641204</v>
       </c>
-      <c r="E47" t="s">
-        <v>152</v>
-      </c>
       <c r="F47" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G47" t="s">
-        <v>154</v>
-      </c>
-      <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H47" t="s">
+        <v>156</v>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="K47" t="s">
-        <v>156</v>
-      </c>
-      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47" t="s">
+        <v>159</v>
+      </c>
+      <c r="M47" s="2">
         <v>45030.12891203703</v>
-      </c>
-      <c r="M47">
-        <v>3139.8</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2799,35 +2808,35 @@
       <c r="C48">
         <v>52</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48">
+        <v>13720</v>
+      </c>
+      <c r="E48" s="2">
         <v>45028.36057641204</v>
       </c>
-      <c r="E48" t="s">
-        <v>152</v>
-      </c>
       <c r="F48" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G48" t="s">
-        <v>154</v>
-      </c>
-      <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H48" t="s">
+        <v>156</v>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48" t="s">
-        <v>156</v>
-      </c>
-      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
+        <v>159</v>
+      </c>
+      <c r="M48" s="2">
         <v>45030.12891203703</v>
-      </c>
-      <c r="M48">
-        <v>13720</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2840,35 +2849,35 @@
       <c r="C49">
         <v>52</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49">
+        <v>256</v>
+      </c>
+      <c r="E49" s="2">
         <v>45028.36057641204</v>
       </c>
-      <c r="E49" t="s">
-        <v>152</v>
-      </c>
       <c r="F49" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G49" t="s">
-        <v>154</v>
-      </c>
-      <c r="H49" t="b">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H49" t="s">
+        <v>156</v>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
       </c>
       <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="K49" t="s">
-        <v>156</v>
-      </c>
-      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49" t="s">
+        <v>159</v>
+      </c>
+      <c r="M49" s="2">
         <v>45030.12891203703</v>
-      </c>
-      <c r="M49">
-        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2881,35 +2890,35 @@
       <c r="C50">
         <v>52</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50">
+        <v>396</v>
+      </c>
+      <c r="E50" s="2">
         <v>45028.36057641204</v>
       </c>
-      <c r="E50" t="s">
-        <v>152</v>
-      </c>
       <c r="F50" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G50" t="s">
-        <v>154</v>
-      </c>
-      <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H50" t="s">
+        <v>156</v>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
       </c>
       <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50" t="s">
-        <v>156</v>
-      </c>
-      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50" t="s">
+        <v>159</v>
+      </c>
+      <c r="M50" s="2">
         <v>45030.12891203703</v>
-      </c>
-      <c r="M50">
-        <v>396</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2922,35 +2931,35 @@
       <c r="C51">
         <v>52</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51">
+        <v>514</v>
+      </c>
+      <c r="E51" s="2">
         <v>45028.36057641204</v>
       </c>
-      <c r="E51" t="s">
-        <v>152</v>
-      </c>
       <c r="F51" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G51" t="s">
-        <v>154</v>
-      </c>
-      <c r="H51" t="b">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H51" t="s">
+        <v>156</v>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
       </c>
       <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="K51" t="s">
-        <v>156</v>
-      </c>
-      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51" t="s">
+        <v>159</v>
+      </c>
+      <c r="M51" s="2">
         <v>45030.12891203703</v>
-      </c>
-      <c r="M51">
-        <v>514</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2963,35 +2972,35 @@
       <c r="C52">
         <v>52</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52">
+        <v>578</v>
+      </c>
+      <c r="E52" s="2">
         <v>45028.36057641204</v>
       </c>
-      <c r="E52" t="s">
-        <v>152</v>
-      </c>
       <c r="F52" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G52" t="s">
-        <v>154</v>
-      </c>
-      <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H52" t="s">
+        <v>156</v>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
       </c>
       <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52" t="s">
-        <v>156</v>
-      </c>
-      <c r="L52" s="2">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52" t="s">
+        <v>159</v>
+      </c>
+      <c r="M52" s="2">
         <v>45030.12891203703</v>
-      </c>
-      <c r="M52">
-        <v>578</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3004,35 +3013,35 @@
       <c r="C53">
         <v>52</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53">
+        <v>616</v>
+      </c>
+      <c r="E53" s="2">
         <v>45028.36057641204</v>
       </c>
-      <c r="E53" t="s">
-        <v>152</v>
-      </c>
       <c r="F53" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G53" t="s">
-        <v>154</v>
-      </c>
-      <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H53" t="s">
+        <v>156</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53" t="s">
-        <v>156</v>
-      </c>
-      <c r="L53" s="2">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53" t="s">
+        <v>159</v>
+      </c>
+      <c r="M53" s="2">
         <v>45030.12891203703</v>
-      </c>
-      <c r="M53">
-        <v>616</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3045,35 +3054,35 @@
       <c r="C54">
         <v>52</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54">
+        <v>1756</v>
+      </c>
+      <c r="E54" s="2">
         <v>45028.36057641204</v>
       </c>
-      <c r="E54" t="s">
-        <v>152</v>
-      </c>
       <c r="F54" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G54" t="s">
-        <v>154</v>
-      </c>
-      <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H54" t="s">
+        <v>156</v>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
       </c>
       <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="K54" t="s">
-        <v>156</v>
-      </c>
-      <c r="L54" s="2">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54" t="s">
+        <v>159</v>
+      </c>
+      <c r="M54" s="2">
         <v>45030.12891203703</v>
-      </c>
-      <c r="M54">
-        <v>1756</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3086,35 +3095,35 @@
       <c r="C55">
         <v>52</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55">
+        <v>1714</v>
+      </c>
+      <c r="E55" s="2">
         <v>45028.36057641204</v>
       </c>
-      <c r="E55" t="s">
-        <v>152</v>
-      </c>
       <c r="F55" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G55" t="s">
-        <v>154</v>
-      </c>
-      <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H55" t="s">
+        <v>156</v>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55" t="s">
-        <v>156</v>
-      </c>
-      <c r="L55" s="2">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55" t="s">
+        <v>159</v>
+      </c>
+      <c r="M55" s="2">
         <v>45030.12891203703</v>
-      </c>
-      <c r="M55">
-        <v>1714</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3127,35 +3136,35 @@
       <c r="C56">
         <v>52</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56">
+        <v>275.9</v>
+      </c>
+      <c r="E56" s="2">
         <v>45028.36057641204</v>
       </c>
-      <c r="E56" t="s">
-        <v>152</v>
-      </c>
       <c r="F56" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G56" t="s">
-        <v>154</v>
-      </c>
-      <c r="H56" t="b">
-        <v>1</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H56" t="s">
+        <v>156</v>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
       </c>
       <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56" t="s">
-        <v>156</v>
-      </c>
-      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56" t="s">
+        <v>159</v>
+      </c>
+      <c r="M56" s="2">
         <v>45030.12891203703</v>
-      </c>
-      <c r="M56">
-        <v>275.9</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3168,35 +3177,35 @@
       <c r="C57">
         <v>53</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57">
+        <v>16240</v>
+      </c>
+      <c r="E57" s="2">
         <v>45029.08377679398</v>
       </c>
-      <c r="E57" t="s">
-        <v>152</v>
-      </c>
       <c r="F57" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G57" t="s">
-        <v>154</v>
-      </c>
-      <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H57" t="s">
+        <v>156</v>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
       </c>
       <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57" t="s">
-        <v>158</v>
-      </c>
-      <c r="L57" s="2">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57" t="s">
+        <v>161</v>
+      </c>
+      <c r="M57" s="2">
         <v>45029.30706018519</v>
-      </c>
-      <c r="M57">
-        <v>16240</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3209,35 +3218,35 @@
       <c r="C58">
         <v>54</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="2">
         <v>45029.13268450231</v>
       </c>
-      <c r="E58" t="s">
-        <v>152</v>
-      </c>
       <c r="F58" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G58" t="s">
-        <v>154</v>
-      </c>
-      <c r="H58" t="b">
-        <v>1</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H58" t="s">
+        <v>156</v>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58" t="s">
-        <v>156</v>
-      </c>
-      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58" t="s">
+        <v>159</v>
+      </c>
+      <c r="M58" s="2">
         <v>45030.12561342592</v>
-      </c>
-      <c r="M58">
-        <v>1000</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3250,35 +3259,35 @@
       <c r="C59">
         <v>55</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59">
+        <v>61.24</v>
+      </c>
+      <c r="E59" s="2">
         <v>45029.30678756945</v>
       </c>
-      <c r="E59" t="s">
-        <v>152</v>
-      </c>
       <c r="F59" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G59" t="s">
-        <v>154</v>
-      </c>
-      <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H59" t="s">
+        <v>156</v>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
       </c>
       <c r="J59">
-        <v>1</v>
-      </c>
-      <c r="K59" t="s">
-        <v>157</v>
-      </c>
-      <c r="L59" s="2">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59" t="s">
+        <v>160</v>
+      </c>
+      <c r="M59" s="2">
         <v>45030.12925925926</v>
-      </c>
-      <c r="M59">
-        <v>61.24</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3291,35 +3300,35 @@
       <c r="C60">
         <v>56</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60">
+        <v>1560.4</v>
+      </c>
+      <c r="E60" s="2">
         <v>45030.1025212963</v>
       </c>
-      <c r="E60" t="s">
-        <v>152</v>
-      </c>
       <c r="F60" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G60" t="s">
-        <v>154</v>
-      </c>
-      <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H60" t="s">
+        <v>156</v>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
       </c>
       <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="K60" t="s">
-        <v>156</v>
-      </c>
-      <c r="L60" s="2">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60" t="s">
+        <v>159</v>
+      </c>
+      <c r="M60" s="2">
         <v>45041.17334490741</v>
-      </c>
-      <c r="M60">
-        <v>1560.4</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3332,35 +3341,35 @@
       <c r="C61">
         <v>57</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61">
+        <v>1327.68</v>
+      </c>
+      <c r="E61" s="2">
         <v>45030.12364082176</v>
       </c>
-      <c r="E61" t="s">
-        <v>152</v>
-      </c>
       <c r="F61" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G61" t="s">
-        <v>154</v>
-      </c>
-      <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H61" t="s">
+        <v>156</v>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="K61" t="s">
-        <v>156</v>
-      </c>
-      <c r="L61" s="2">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61" t="s">
+        <v>159</v>
+      </c>
+      <c r="M61" s="2">
         <v>45041.24361111111</v>
-      </c>
-      <c r="M61">
-        <v>1327.68</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3373,35 +3382,35 @@
       <c r="C62">
         <v>58</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62">
+        <v>2909</v>
+      </c>
+      <c r="E62" s="2">
         <v>45030.12616524305</v>
       </c>
-      <c r="E62" t="s">
-        <v>152</v>
-      </c>
       <c r="F62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G62" t="s">
-        <v>154</v>
-      </c>
-      <c r="H62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H62" t="s">
+        <v>156</v>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
       </c>
       <c r="J62">
-        <v>1</v>
-      </c>
-      <c r="K62" t="s">
-        <v>156</v>
-      </c>
-      <c r="L62" s="2">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62" t="s">
+        <v>159</v>
+      </c>
+      <c r="M62" s="2">
         <v>45041.24334490741</v>
-      </c>
-      <c r="M62">
-        <v>2909</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3414,35 +3423,35 @@
       <c r="C63">
         <v>59</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63">
+        <v>50000</v>
+      </c>
+      <c r="E63" s="2">
         <v>45033.31081506945</v>
       </c>
-      <c r="E63" t="s">
-        <v>152</v>
-      </c>
       <c r="F63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G63" t="s">
-        <v>154</v>
-      </c>
-      <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H63" t="s">
+        <v>156</v>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
       </c>
       <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="K63" t="s">
-        <v>156</v>
-      </c>
-      <c r="L63" s="2">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63" t="s">
+        <v>159</v>
+      </c>
+      <c r="M63" s="2">
         <v>45041.10722222222</v>
-      </c>
-      <c r="M63">
-        <v>50000</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3455,35 +3464,35 @@
       <c r="C64">
         <v>61</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64">
+        <v>550</v>
+      </c>
+      <c r="E64" s="2">
         <v>45034.09190111111</v>
       </c>
-      <c r="E64" t="s">
-        <v>152</v>
-      </c>
       <c r="F64" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G64" t="s">
-        <v>154</v>
-      </c>
-      <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H64" t="s">
+        <v>156</v>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
       </c>
       <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="K64" t="s">
-        <v>156</v>
-      </c>
-      <c r="L64" s="2">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64" t="s">
+        <v>159</v>
+      </c>
+      <c r="M64" s="2">
         <v>45041.24263888889</v>
-      </c>
-      <c r="M64">
-        <v>550</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3496,35 +3505,35 @@
       <c r="C65">
         <v>63</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65">
+        <v>1000</v>
+      </c>
+      <c r="E65" s="2">
         <v>45034.09657179398</v>
       </c>
-      <c r="E65" t="s">
-        <v>152</v>
-      </c>
       <c r="F65" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G65" t="s">
-        <v>154</v>
-      </c>
-      <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H65" t="s">
+        <v>156</v>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
       </c>
       <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65" t="s">
-        <v>156</v>
-      </c>
-      <c r="L65" s="2">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65" t="s">
+        <v>159</v>
+      </c>
+      <c r="M65" s="2">
         <v>45041.24222222222</v>
-      </c>
-      <c r="M65">
-        <v>1000</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3537,35 +3546,35 @@
       <c r="C66">
         <v>64</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66">
+        <v>195</v>
+      </c>
+      <c r="E66" s="2">
         <v>45037.41429341435</v>
       </c>
-      <c r="E66" t="s">
-        <v>152</v>
-      </c>
       <c r="F66" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G66" t="s">
-        <v>154</v>
-      </c>
-      <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H66" t="s">
+        <v>156</v>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
       </c>
       <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66" t="s">
-        <v>156</v>
-      </c>
-      <c r="L66" s="2">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66" t="s">
+        <v>159</v>
+      </c>
+      <c r="M66" s="2">
         <v>45041.24193287037</v>
-      </c>
-      <c r="M66">
-        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3578,35 +3587,35 @@
       <c r="C67">
         <v>64</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67">
+        <v>2166</v>
+      </c>
+      <c r="E67" s="2">
         <v>45037.41429341435</v>
       </c>
-      <c r="E67" t="s">
-        <v>152</v>
-      </c>
       <c r="F67" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G67" t="s">
-        <v>154</v>
-      </c>
-      <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H67" t="s">
+        <v>156</v>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
       </c>
       <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67" t="s">
-        <v>156</v>
-      </c>
-      <c r="L67" s="2">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67" t="s">
+        <v>159</v>
+      </c>
+      <c r="M67" s="2">
         <v>45041.24193287037</v>
-      </c>
-      <c r="M67">
-        <v>2166</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3619,35 +3628,35 @@
       <c r="C68">
         <v>65</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68">
+        <v>381</v>
+      </c>
+      <c r="E68" s="2">
         <v>45041.25260020833</v>
       </c>
-      <c r="E68" t="s">
-        <v>152</v>
-      </c>
       <c r="F68" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G68" t="s">
-        <v>154</v>
-      </c>
-      <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H68" t="s">
+        <v>156</v>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
       </c>
       <c r="J68">
-        <v>1</v>
-      </c>
-      <c r="K68" t="s">
-        <v>156</v>
-      </c>
-      <c r="L68" s="2">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68" t="s">
+        <v>159</v>
+      </c>
+      <c r="M68" s="2">
         <v>45044.27577425926</v>
-      </c>
-      <c r="M68">
-        <v>381</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3660,35 +3669,35 @@
       <c r="C69">
         <v>65</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69">
+        <v>9393</v>
+      </c>
+      <c r="E69" s="2">
         <v>45041.25260020833</v>
       </c>
-      <c r="E69" t="s">
-        <v>152</v>
-      </c>
       <c r="F69" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G69" t="s">
-        <v>154</v>
-      </c>
-      <c r="H69" t="b">
-        <v>1</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H69" t="s">
+        <v>156</v>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
       </c>
       <c r="J69">
-        <v>1</v>
-      </c>
-      <c r="K69" t="s">
-        <v>156</v>
-      </c>
-      <c r="L69" s="2">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69" t="s">
+        <v>159</v>
+      </c>
+      <c r="M69" s="2">
         <v>45044.27577425926</v>
-      </c>
-      <c r="M69">
-        <v>9393</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3701,35 +3710,35 @@
       <c r="C70">
         <v>66</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70">
+        <v>104143.94</v>
+      </c>
+      <c r="E70" s="2">
         <v>45041.08589238426</v>
       </c>
-      <c r="E70" t="s">
-        <v>152</v>
-      </c>
       <c r="F70" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G70" t="s">
-        <v>154</v>
-      </c>
-      <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H70" t="s">
+        <v>156</v>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
       </c>
       <c r="J70">
-        <v>1</v>
-      </c>
-      <c r="K70" t="s">
-        <v>157</v>
-      </c>
-      <c r="L70" s="2">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70" t="s">
+        <v>160</v>
+      </c>
+      <c r="M70" s="2">
         <v>45041.25344907407</v>
-      </c>
-      <c r="M70">
-        <v>104143.94</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3742,35 +3751,35 @@
       <c r="C71">
         <v>67</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71">
+        <v>3713</v>
+      </c>
+      <c r="E71" s="2">
         <v>45041.14769905093</v>
       </c>
-      <c r="E71" t="s">
-        <v>152</v>
-      </c>
       <c r="F71" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G71" t="s">
-        <v>154</v>
-      </c>
-      <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H71" t="s">
+        <v>156</v>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
       </c>
       <c r="J71">
-        <v>1</v>
-      </c>
-      <c r="K71" t="s">
-        <v>156</v>
-      </c>
-      <c r="L71" s="2">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71" t="s">
+        <v>159</v>
+      </c>
+      <c r="M71" s="2">
         <v>45041.17435185185</v>
-      </c>
-      <c r="M71">
-        <v>3713</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3783,35 +3792,35 @@
       <c r="C72">
         <v>69</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72">
+        <v>2264</v>
+      </c>
+      <c r="E72" s="2">
         <v>45041.15481517361</v>
       </c>
-      <c r="E72" t="s">
-        <v>152</v>
-      </c>
       <c r="F72" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G72" t="s">
-        <v>154</v>
-      </c>
-      <c r="H72" t="b">
-        <v>1</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H72" t="s">
+        <v>156</v>
+      </c>
+      <c r="I72" t="b">
+        <v>1</v>
       </c>
       <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="K72" t="s">
-        <v>156</v>
-      </c>
-      <c r="L72" s="2">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72" t="s">
+        <v>159</v>
+      </c>
+      <c r="M72" s="2">
         <v>45041.17418981482</v>
-      </c>
-      <c r="M72">
-        <v>2264</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3824,35 +3833,35 @@
       <c r="C73">
         <v>71</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73">
+        <v>434</v>
+      </c>
+      <c r="E73" s="2">
         <v>45041.15605380787</v>
       </c>
-      <c r="E73" t="s">
-        <v>152</v>
-      </c>
       <c r="F73" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G73" t="s">
-        <v>154</v>
-      </c>
-      <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H73" t="s">
+        <v>156</v>
+      </c>
+      <c r="I73" t="b">
+        <v>1</v>
       </c>
       <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="K73" t="s">
-        <v>156</v>
-      </c>
-      <c r="L73" s="2">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73" t="s">
+        <v>159</v>
+      </c>
+      <c r="M73" s="2">
         <v>45041.17395833333</v>
-      </c>
-      <c r="M73">
-        <v>434</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3865,35 +3874,35 @@
       <c r="C74">
         <v>73</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74">
+        <v>1867</v>
+      </c>
+      <c r="E74" s="2">
         <v>45041.15853665509</v>
       </c>
-      <c r="E74" t="s">
-        <v>152</v>
-      </c>
       <c r="F74" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G74" t="s">
-        <v>154</v>
-      </c>
-      <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H74" t="s">
+        <v>156</v>
+      </c>
+      <c r="I74" t="b">
+        <v>1</v>
       </c>
       <c r="J74">
-        <v>1</v>
-      </c>
-      <c r="K74" t="s">
-        <v>156</v>
-      </c>
-      <c r="L74" s="2">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74" t="s">
+        <v>159</v>
+      </c>
+      <c r="M74" s="2">
         <v>45041.17366898148</v>
-      </c>
-      <c r="M74">
-        <v>1867</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3906,35 +3915,35 @@
       <c r="C75">
         <v>74</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75">
+        <v>75863.66</v>
+      </c>
+      <c r="E75" s="2">
         <v>45041.26894695602</v>
       </c>
-      <c r="E75" t="s">
-        <v>152</v>
-      </c>
       <c r="F75" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G75" t="s">
-        <v>154</v>
-      </c>
-      <c r="H75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H75" t="s">
+        <v>156</v>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
       </c>
       <c r="J75">
-        <v>1</v>
-      </c>
-      <c r="K75" t="s">
-        <v>158</v>
-      </c>
-      <c r="L75" s="2">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75" t="s">
+        <v>161</v>
+      </c>
+      <c r="M75" s="2">
         <v>45041.33967592593</v>
-      </c>
-      <c r="M75">
-        <v>75863.66</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3947,35 +3956,35 @@
       <c r="C76">
         <v>76</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76">
+        <v>75863.66</v>
+      </c>
+      <c r="E76" s="2">
         <v>45041.32862275463</v>
       </c>
-      <c r="E76" t="s">
-        <v>152</v>
-      </c>
       <c r="F76" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G76" t="s">
-        <v>154</v>
-      </c>
-      <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H76" t="s">
+        <v>156</v>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
       </c>
       <c r="J76">
-        <v>1</v>
-      </c>
-      <c r="K76" t="s">
-        <v>158</v>
-      </c>
-      <c r="L76" s="2">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76" t="s">
+        <v>161</v>
+      </c>
+      <c r="M76" s="2">
         <v>45009.2529050926</v>
-      </c>
-      <c r="M76">
-        <v>75863.66</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3988,35 +3997,35 @@
       <c r="C77">
         <v>75</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77">
+        <v>1000</v>
+      </c>
+      <c r="E77" s="2">
         <v>45041.33003309028</v>
       </c>
-      <c r="E77" t="s">
-        <v>152</v>
-      </c>
       <c r="F77" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G77" t="s">
-        <v>154</v>
-      </c>
-      <c r="H77" t="b">
-        <v>1</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H77" t="s">
+        <v>156</v>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
       </c>
       <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="K77" t="s">
-        <v>157</v>
-      </c>
-      <c r="L77" s="2">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77" t="s">
+        <v>160</v>
+      </c>
+      <c r="M77" s="2">
         <v>45005.25146990741</v>
-      </c>
-      <c r="M77">
-        <v>1000</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4029,35 +4038,35 @@
       <c r="C78">
         <v>78</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78">
+        <v>105074.92</v>
+      </c>
+      <c r="E78" s="2">
         <v>45041.33270197917</v>
       </c>
-      <c r="E78" t="s">
-        <v>152</v>
-      </c>
       <c r="F78" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G78" t="s">
-        <v>154</v>
-      </c>
-      <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H78" t="s">
+        <v>156</v>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
       </c>
       <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="K78" t="s">
-        <v>157</v>
-      </c>
-      <c r="L78" s="2">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78" t="s">
+        <v>160</v>
+      </c>
+      <c r="M78" s="2">
         <v>45009.25109953704</v>
-      </c>
-      <c r="M78">
-        <v>105074.92</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4070,35 +4079,35 @@
       <c r="C79">
         <v>77</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79">
+        <v>44007</v>
+      </c>
+      <c r="E79" s="2">
         <v>45041.33632064815</v>
       </c>
-      <c r="E79" t="s">
-        <v>152</v>
-      </c>
       <c r="F79" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G79" t="s">
-        <v>154</v>
-      </c>
-      <c r="H79" t="b">
-        <v>1</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H79" t="s">
+        <v>156</v>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
       </c>
       <c r="J79">
-        <v>1</v>
-      </c>
-      <c r="K79" t="s">
-        <v>159</v>
-      </c>
-      <c r="L79" s="2">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79" t="s">
+        <v>162</v>
+      </c>
+      <c r="M79" s="2">
         <v>45036.25174768519</v>
-      </c>
-      <c r="M79">
-        <v>44007</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4111,35 +4120,35 @@
       <c r="C80">
         <v>80</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80">
+        <v>48.98</v>
+      </c>
+      <c r="E80" s="2">
         <v>45041.35235954861</v>
       </c>
-      <c r="E80" t="s">
-        <v>152</v>
-      </c>
       <c r="F80" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G80" t="s">
-        <v>154</v>
-      </c>
-      <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H80" t="s">
+        <v>156</v>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
       </c>
       <c r="J80">
-        <v>1</v>
-      </c>
-      <c r="K80" t="s">
-        <v>156</v>
-      </c>
-      <c r="L80" s="2">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80" t="s">
+        <v>159</v>
+      </c>
+      <c r="M80" s="2">
         <v>45044.08099537037</v>
-      </c>
-      <c r="M80">
-        <v>48.98</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4152,35 +4161,35 @@
       <c r="C81">
         <v>80</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81">
+        <v>123.8</v>
+      </c>
+      <c r="E81" s="2">
         <v>45041.35235954861</v>
       </c>
-      <c r="E81" t="s">
-        <v>152</v>
-      </c>
       <c r="F81" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G81" t="s">
-        <v>154</v>
-      </c>
-      <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H81" t="s">
+        <v>156</v>
+      </c>
+      <c r="I81" t="b">
+        <v>1</v>
       </c>
       <c r="J81">
-        <v>1</v>
-      </c>
-      <c r="K81" t="s">
-        <v>156</v>
-      </c>
-      <c r="L81" s="2">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81" t="s">
+        <v>159</v>
+      </c>
+      <c r="M81" s="2">
         <v>45044.08099537037</v>
-      </c>
-      <c r="M81">
-        <v>123.8</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4193,35 +4202,35 @@
       <c r="C82">
         <v>80</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82">
+        <v>120.62</v>
+      </c>
+      <c r="E82" s="2">
         <v>45041.35235954861</v>
       </c>
-      <c r="E82" t="s">
-        <v>152</v>
-      </c>
       <c r="F82" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G82" t="s">
-        <v>154</v>
-      </c>
-      <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H82" t="s">
+        <v>156</v>
+      </c>
+      <c r="I82" t="b">
+        <v>1</v>
       </c>
       <c r="J82">
-        <v>1</v>
-      </c>
-      <c r="K82" t="s">
-        <v>156</v>
-      </c>
-      <c r="L82" s="2">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82" t="s">
+        <v>159</v>
+      </c>
+      <c r="M82" s="2">
         <v>45044.08099537037</v>
-      </c>
-      <c r="M82">
-        <v>120.62</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4234,35 +4243,35 @@
       <c r="C83">
         <v>80</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83">
+        <v>122.28</v>
+      </c>
+      <c r="E83" s="2">
         <v>45041.35235954861</v>
       </c>
-      <c r="E83" t="s">
-        <v>152</v>
-      </c>
       <c r="F83" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G83" t="s">
-        <v>154</v>
-      </c>
-      <c r="H83" t="b">
-        <v>1</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H83" t="s">
+        <v>156</v>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
       </c>
       <c r="J83">
-        <v>1</v>
-      </c>
-      <c r="K83" t="s">
-        <v>156</v>
-      </c>
-      <c r="L83" s="2">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83" t="s">
+        <v>159</v>
+      </c>
+      <c r="M83" s="2">
         <v>45044.08099537037</v>
-      </c>
-      <c r="M83">
-        <v>122.28</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4275,35 +4284,35 @@
       <c r="C84">
         <v>80</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84">
+        <v>500</v>
+      </c>
+      <c r="E84" s="2">
         <v>45041.35235954861</v>
       </c>
-      <c r="E84" t="s">
-        <v>152</v>
-      </c>
       <c r="F84" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G84" t="s">
-        <v>154</v>
-      </c>
-      <c r="H84" t="b">
-        <v>1</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H84" t="s">
+        <v>156</v>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
       </c>
       <c r="J84">
-        <v>1</v>
-      </c>
-      <c r="K84" t="s">
-        <v>156</v>
-      </c>
-      <c r="L84" s="2">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84" t="s">
+        <v>159</v>
+      </c>
+      <c r="M84" s="2">
         <v>45044.08099537037</v>
-      </c>
-      <c r="M84">
-        <v>500</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4316,35 +4325,35 @@
       <c r="C85">
         <v>81</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85">
+        <v>99908.99000000001</v>
+      </c>
+      <c r="E85" s="2">
         <v>45041.40291591435</v>
       </c>
-      <c r="E85" t="s">
-        <v>152</v>
-      </c>
       <c r="F85" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G85" t="s">
-        <v>154</v>
-      </c>
-      <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H85" t="s">
+        <v>156</v>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
       </c>
       <c r="J85">
-        <v>1</v>
-      </c>
-      <c r="K85" t="s">
-        <v>156</v>
-      </c>
-      <c r="L85" s="2">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85" t="s">
+        <v>159</v>
+      </c>
+      <c r="M85" s="2">
         <v>45044.0803125</v>
-      </c>
-      <c r="M85">
-        <v>99908.99000000001</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4357,35 +4366,35 @@
       <c r="C86">
         <v>81</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86">
+        <v>13839.06</v>
+      </c>
+      <c r="E86" s="2">
         <v>45041.40291591435</v>
       </c>
-      <c r="E86" t="s">
-        <v>152</v>
-      </c>
       <c r="F86" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G86" t="s">
-        <v>154</v>
-      </c>
-      <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H86" t="s">
+        <v>156</v>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
       </c>
       <c r="J86">
-        <v>1</v>
-      </c>
-      <c r="K86" t="s">
-        <v>156</v>
-      </c>
-      <c r="L86" s="2">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86" t="s">
+        <v>159</v>
+      </c>
+      <c r="M86" s="2">
         <v>45044.0803125</v>
-      </c>
-      <c r="M86">
-        <v>13839.06</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4398,35 +4407,35 @@
       <c r="C87">
         <v>81</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87">
+        <v>28161.71</v>
+      </c>
+      <c r="E87" s="2">
         <v>45041.40291591435</v>
       </c>
-      <c r="E87" t="s">
-        <v>152</v>
-      </c>
       <c r="F87" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G87" t="s">
-        <v>154</v>
-      </c>
-      <c r="H87" t="b">
-        <v>1</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H87" t="s">
+        <v>156</v>
+      </c>
+      <c r="I87" t="b">
+        <v>1</v>
       </c>
       <c r="J87">
-        <v>1</v>
-      </c>
-      <c r="K87" t="s">
-        <v>156</v>
-      </c>
-      <c r="L87" s="2">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87" t="s">
+        <v>159</v>
+      </c>
+      <c r="M87" s="2">
         <v>45044.0803125</v>
-      </c>
-      <c r="M87">
-        <v>28161.71</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4439,35 +4448,35 @@
       <c r="C88">
         <v>82</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88">
+        <v>12</v>
+      </c>
+      <c r="E88" s="2">
         <v>45042.31861638889</v>
       </c>
-      <c r="E88" t="s">
-        <v>152</v>
-      </c>
       <c r="F88" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G88" t="s">
-        <v>154</v>
-      </c>
-      <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H88" t="s">
+        <v>156</v>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
       </c>
       <c r="J88">
-        <v>1</v>
-      </c>
-      <c r="K88" t="s">
-        <v>156</v>
-      </c>
-      <c r="L88" s="2">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88" t="s">
+        <v>159</v>
+      </c>
+      <c r="M88" s="2">
         <v>45044.07798611111</v>
-      </c>
-      <c r="M88">
-        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4480,35 +4489,35 @@
       <c r="C89">
         <v>82</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89">
+        <v>81</v>
+      </c>
+      <c r="E89" s="2">
         <v>45042.31861638889</v>
       </c>
-      <c r="E89" t="s">
-        <v>152</v>
-      </c>
       <c r="F89" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G89" t="s">
-        <v>154</v>
-      </c>
-      <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H89" t="s">
+        <v>156</v>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
       </c>
       <c r="J89">
-        <v>1</v>
-      </c>
-      <c r="K89" t="s">
-        <v>156</v>
-      </c>
-      <c r="L89" s="2">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89" t="s">
+        <v>159</v>
+      </c>
+      <c r="M89" s="2">
         <v>45044.07798611111</v>
-      </c>
-      <c r="M89">
-        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4521,35 +4530,35 @@
       <c r="C90">
         <v>84</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90">
+        <v>660</v>
+      </c>
+      <c r="E90" s="2">
         <v>45050.0959418287</v>
       </c>
-      <c r="E90" t="s">
-        <v>152</v>
-      </c>
       <c r="F90" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G90" t="s">
-        <v>154</v>
-      </c>
-      <c r="H90" t="b">
-        <v>1</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H90" t="s">
+        <v>156</v>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
       </c>
       <c r="J90">
-        <v>1</v>
-      </c>
-      <c r="K90" t="s">
-        <v>156</v>
-      </c>
-      <c r="L90" s="2">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90" t="s">
+        <v>159</v>
+      </c>
+      <c r="M90" s="2">
         <v>45079.39201362269</v>
-      </c>
-      <c r="M90">
-        <v>660</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4562,35 +4571,35 @@
       <c r="C91">
         <v>85</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91">
+        <v>4500</v>
+      </c>
+      <c r="E91" s="2">
         <v>45050.27470650463</v>
       </c>
-      <c r="E91" t="s">
-        <v>152</v>
-      </c>
       <c r="F91" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G91" t="s">
-        <v>154</v>
-      </c>
-      <c r="H91" t="b">
-        <v>1</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H91" t="s">
+        <v>156</v>
+      </c>
+      <c r="I91" t="b">
+        <v>1</v>
       </c>
       <c r="J91">
-        <v>1</v>
-      </c>
-      <c r="K91" t="s">
-        <v>156</v>
-      </c>
-      <c r="L91" s="2">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91" t="s">
+        <v>159</v>
+      </c>
+      <c r="M91" s="2">
         <v>45054.12731481482</v>
-      </c>
-      <c r="M91">
-        <v>4500</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4603,35 +4612,35 @@
       <c r="C92">
         <v>85</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92">
+        <v>3900</v>
+      </c>
+      <c r="E92" s="2">
         <v>45050.27470650463</v>
       </c>
-      <c r="E92" t="s">
-        <v>152</v>
-      </c>
       <c r="F92" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G92" t="s">
-        <v>154</v>
-      </c>
-      <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H92" t="s">
+        <v>156</v>
+      </c>
+      <c r="I92" t="b">
+        <v>1</v>
       </c>
       <c r="J92">
-        <v>1</v>
-      </c>
-      <c r="K92" t="s">
-        <v>156</v>
-      </c>
-      <c r="L92" s="2">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92" t="s">
+        <v>159</v>
+      </c>
+      <c r="M92" s="2">
         <v>45054.12731481482</v>
-      </c>
-      <c r="M92">
-        <v>3900</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4644,35 +4653,35 @@
       <c r="C93">
         <v>87</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93">
+        <v>299</v>
+      </c>
+      <c r="E93" s="2">
         <v>45051.29129493055</v>
       </c>
-      <c r="E93" t="s">
-        <v>152</v>
-      </c>
       <c r="F93" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G93" t="s">
-        <v>154</v>
-      </c>
-      <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H93" t="s">
+        <v>156</v>
+      </c>
+      <c r="I93" t="b">
+        <v>1</v>
       </c>
       <c r="J93">
-        <v>1</v>
-      </c>
-      <c r="K93" t="s">
-        <v>156</v>
-      </c>
-      <c r="L93" s="2">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93" t="s">
+        <v>159</v>
+      </c>
+      <c r="M93" s="2">
         <v>45079.3917784375</v>
-      </c>
-      <c r="M93">
-        <v>299</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4685,35 +4694,35 @@
       <c r="C94">
         <v>87</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94">
+        <v>179</v>
+      </c>
+      <c r="E94" s="2">
         <v>45051.29129493055</v>
       </c>
-      <c r="E94" t="s">
-        <v>152</v>
-      </c>
       <c r="F94" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G94" t="s">
-        <v>154</v>
-      </c>
-      <c r="H94" t="b">
-        <v>1</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H94" t="s">
+        <v>156</v>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
       </c>
       <c r="J94">
-        <v>1</v>
-      </c>
-      <c r="K94" t="s">
-        <v>156</v>
-      </c>
-      <c r="L94" s="2">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94" t="s">
+        <v>159</v>
+      </c>
+      <c r="M94" s="2">
         <v>45079.3917784375</v>
-      </c>
-      <c r="M94">
-        <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4726,35 +4735,35 @@
       <c r="C95">
         <v>88</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95">
+        <v>80</v>
+      </c>
+      <c r="E95" s="2">
         <v>45052.09060202546</v>
       </c>
-      <c r="E95" t="s">
-        <v>152</v>
-      </c>
       <c r="F95" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G95" t="s">
-        <v>154</v>
-      </c>
-      <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H95" t="s">
+        <v>156</v>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
       </c>
       <c r="J95">
-        <v>1</v>
-      </c>
-      <c r="K95" t="s">
-        <v>156</v>
-      </c>
-      <c r="L95" s="2">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95" t="s">
+        <v>159</v>
+      </c>
+      <c r="M95" s="2">
         <v>45065.39373842593</v>
-      </c>
-      <c r="M95">
-        <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4767,26 +4776,26 @@
       <c r="C96">
         <v>90</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96">
+        <v>894</v>
+      </c>
+      <c r="E96" s="2">
         <v>45052.30855538195</v>
       </c>
-      <c r="F96" t="s">
-        <v>153</v>
-      </c>
       <c r="G96" t="s">
-        <v>154</v>
-      </c>
-      <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>1</v>
+        <v>155</v>
+      </c>
+      <c r="H96" t="s">
+        <v>156</v>
+      </c>
+      <c r="I96" t="b">
+        <v>0</v>
       </c>
       <c r="J96">
         <v>1</v>
       </c>
-      <c r="M96">
-        <v>894</v>
+      <c r="K96">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4799,26 +4808,26 @@
       <c r="C97">
         <v>90</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97">
+        <v>2357.5</v>
+      </c>
+      <c r="E97" s="2">
         <v>45052.30855538195</v>
       </c>
-      <c r="F97" t="s">
-        <v>153</v>
-      </c>
       <c r="G97" t="s">
-        <v>154</v>
-      </c>
-      <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <v>1</v>
+        <v>155</v>
+      </c>
+      <c r="H97" t="s">
+        <v>156</v>
+      </c>
+      <c r="I97" t="b">
+        <v>0</v>
       </c>
       <c r="J97">
         <v>1</v>
       </c>
-      <c r="M97">
-        <v>2357.5</v>
+      <c r="K97">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4831,26 +4840,26 @@
       <c r="C98">
         <v>90</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98">
+        <v>1220</v>
+      </c>
+      <c r="E98" s="2">
         <v>45052.30855538195</v>
       </c>
-      <c r="F98" t="s">
-        <v>153</v>
-      </c>
       <c r="G98" t="s">
-        <v>154</v>
-      </c>
-      <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98">
-        <v>1</v>
+        <v>155</v>
+      </c>
+      <c r="H98" t="s">
+        <v>156</v>
+      </c>
+      <c r="I98" t="b">
+        <v>0</v>
       </c>
       <c r="J98">
         <v>1</v>
       </c>
-      <c r="M98">
-        <v>1220</v>
+      <c r="K98">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4863,26 +4872,26 @@
       <c r="C99">
         <v>89</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99">
+        <v>894</v>
+      </c>
+      <c r="E99" s="2">
         <v>45052.31146744213</v>
       </c>
-      <c r="F99" t="s">
-        <v>153</v>
-      </c>
       <c r="G99" t="s">
-        <v>154</v>
-      </c>
-      <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>1</v>
+        <v>155</v>
+      </c>
+      <c r="H99" t="s">
+        <v>156</v>
+      </c>
+      <c r="I99" t="b">
+        <v>0</v>
       </c>
       <c r="J99">
         <v>1</v>
       </c>
-      <c r="M99">
-        <v>894</v>
+      <c r="K99">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -4895,26 +4904,26 @@
       <c r="C100">
         <v>89</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100">
+        <v>2357.5</v>
+      </c>
+      <c r="E100" s="2">
         <v>45052.31146744213</v>
       </c>
-      <c r="F100" t="s">
-        <v>153</v>
-      </c>
       <c r="G100" t="s">
-        <v>154</v>
-      </c>
-      <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <v>1</v>
+        <v>155</v>
+      </c>
+      <c r="H100" t="s">
+        <v>156</v>
+      </c>
+      <c r="I100" t="b">
+        <v>0</v>
       </c>
       <c r="J100">
         <v>1</v>
       </c>
-      <c r="M100">
-        <v>2357.5</v>
+      <c r="K100">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4927,26 +4936,26 @@
       <c r="C101">
         <v>89</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101">
+        <v>1220</v>
+      </c>
+      <c r="E101" s="2">
         <v>45052.31146744213</v>
       </c>
-      <c r="F101" t="s">
-        <v>153</v>
-      </c>
       <c r="G101" t="s">
-        <v>154</v>
-      </c>
-      <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101">
-        <v>1</v>
+        <v>155</v>
+      </c>
+      <c r="H101" t="s">
+        <v>156</v>
+      </c>
+      <c r="I101" t="b">
+        <v>0</v>
       </c>
       <c r="J101">
         <v>1</v>
       </c>
-      <c r="M101">
-        <v>1220</v>
+      <c r="K101">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4959,35 +4968,35 @@
       <c r="C102">
         <v>92</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102">
+        <v>894</v>
+      </c>
+      <c r="E102" s="2">
         <v>45062.12186709491</v>
       </c>
-      <c r="E102" t="s">
-        <v>152</v>
-      </c>
       <c r="F102" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G102" t="s">
-        <v>154</v>
-      </c>
-      <c r="H102" t="b">
-        <v>1</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H102" t="s">
+        <v>156</v>
+      </c>
+      <c r="I102" t="b">
+        <v>1</v>
       </c>
       <c r="J102">
-        <v>1</v>
-      </c>
-      <c r="K102" t="s">
-        <v>156</v>
-      </c>
-      <c r="L102" s="2">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102" t="s">
+        <v>159</v>
+      </c>
+      <c r="M102" s="2">
         <v>45065.39484953704</v>
-      </c>
-      <c r="M102">
-        <v>894</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -5000,35 +5009,35 @@
       <c r="C103">
         <v>92</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103">
+        <v>2357.5</v>
+      </c>
+      <c r="E103" s="2">
         <v>45062.12186709491</v>
       </c>
-      <c r="E103" t="s">
-        <v>152</v>
-      </c>
       <c r="F103" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G103" t="s">
-        <v>154</v>
-      </c>
-      <c r="H103" t="b">
-        <v>1</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H103" t="s">
+        <v>156</v>
+      </c>
+      <c r="I103" t="b">
+        <v>1</v>
       </c>
       <c r="J103">
-        <v>1</v>
-      </c>
-      <c r="K103" t="s">
-        <v>156</v>
-      </c>
-      <c r="L103" s="2">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103" t="s">
+        <v>159</v>
+      </c>
+      <c r="M103" s="2">
         <v>45065.39484953704</v>
-      </c>
-      <c r="M103">
-        <v>2357.5</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5041,35 +5050,35 @@
       <c r="C104">
         <v>92</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104">
+        <v>1220</v>
+      </c>
+      <c r="E104" s="2">
         <v>45062.12186709491</v>
       </c>
-      <c r="E104" t="s">
-        <v>152</v>
-      </c>
       <c r="F104" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G104" t="s">
-        <v>154</v>
-      </c>
-      <c r="H104" t="b">
-        <v>1</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H104" t="s">
+        <v>156</v>
+      </c>
+      <c r="I104" t="b">
+        <v>1</v>
       </c>
       <c r="J104">
-        <v>1</v>
-      </c>
-      <c r="K104" t="s">
-        <v>156</v>
-      </c>
-      <c r="L104" s="2">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104" t="s">
+        <v>159</v>
+      </c>
+      <c r="M104" s="2">
         <v>45065.39484953704</v>
-      </c>
-      <c r="M104">
-        <v>1220</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5082,35 +5091,35 @@
       <c r="C105">
         <v>93</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105">
+        <v>365.18</v>
+      </c>
+      <c r="E105" s="2">
         <v>45055.16018915509</v>
       </c>
-      <c r="E105" t="s">
-        <v>152</v>
-      </c>
       <c r="F105" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G105" t="s">
-        <v>154</v>
-      </c>
-      <c r="H105" t="b">
-        <v>1</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H105" t="s">
+        <v>156</v>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
       </c>
       <c r="J105">
-        <v>1</v>
-      </c>
-      <c r="K105" t="s">
-        <v>156</v>
-      </c>
-      <c r="L105" s="2">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105" t="s">
+        <v>159</v>
+      </c>
+      <c r="M105" s="2">
         <v>45065.39570601852</v>
-      </c>
-      <c r="M105">
-        <v>365.18</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5123,35 +5132,35 @@
       <c r="C106">
         <v>94</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106">
+        <v>127125</v>
+      </c>
+      <c r="E106" s="2">
         <v>45055.36672283565</v>
       </c>
-      <c r="E106" t="s">
-        <v>152</v>
-      </c>
       <c r="F106" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G106" t="s">
-        <v>154</v>
-      </c>
-      <c r="H106" t="b">
-        <v>1</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H106" t="s">
+        <v>156</v>
+      </c>
+      <c r="I106" t="b">
+        <v>1</v>
       </c>
       <c r="J106">
-        <v>1</v>
-      </c>
-      <c r="K106" t="s">
-        <v>156</v>
-      </c>
-      <c r="L106" s="2">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106" t="s">
+        <v>159</v>
+      </c>
+      <c r="M106" s="2">
         <v>45056.33758101852</v>
-      </c>
-      <c r="M106">
-        <v>127125</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5164,35 +5173,35 @@
       <c r="C107">
         <v>96</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107">
+        <v>45000</v>
+      </c>
+      <c r="E107" s="2">
         <v>45056.37656032408</v>
       </c>
-      <c r="E107" t="s">
-        <v>152</v>
-      </c>
       <c r="F107" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G107" t="s">
-        <v>154</v>
-      </c>
-      <c r="H107" t="b">
-        <v>1</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H107" t="s">
+        <v>156</v>
+      </c>
+      <c r="I107" t="b">
+        <v>1</v>
       </c>
       <c r="J107">
-        <v>1</v>
-      </c>
-      <c r="K107" t="s">
-        <v>157</v>
-      </c>
-      <c r="L107" s="2">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107" t="s">
+        <v>160</v>
+      </c>
+      <c r="M107" s="2">
         <v>45057.11587962963</v>
-      </c>
-      <c r="M107">
-        <v>45000</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5205,35 +5214,35 @@
       <c r="C108">
         <v>98</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108">
+        <v>16000</v>
+      </c>
+      <c r="E108" s="2">
         <v>45056.34481953704</v>
       </c>
-      <c r="E108" t="s">
-        <v>152</v>
-      </c>
       <c r="F108" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G108" t="s">
-        <v>154</v>
-      </c>
-      <c r="H108" t="b">
-        <v>1</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H108" t="s">
+        <v>156</v>
+      </c>
+      <c r="I108" t="b">
+        <v>1</v>
       </c>
       <c r="J108">
-        <v>1</v>
-      </c>
-      <c r="K108" t="s">
-        <v>157</v>
-      </c>
-      <c r="L108" s="2">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108" t="s">
+        <v>160</v>
+      </c>
+      <c r="M108" s="2">
         <v>45057.11559027778</v>
-      </c>
-      <c r="M108">
-        <v>16000</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5246,35 +5255,35 @@
       <c r="C109">
         <v>100</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109">
+        <v>1826.11</v>
+      </c>
+      <c r="E109" s="2">
         <v>45056.39550530093</v>
       </c>
-      <c r="E109" t="s">
-        <v>152</v>
-      </c>
       <c r="F109" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G109" t="s">
-        <v>154</v>
-      </c>
-      <c r="H109" t="b">
-        <v>1</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H109" t="s">
+        <v>156</v>
+      </c>
+      <c r="I109" t="b">
+        <v>1</v>
       </c>
       <c r="J109">
-        <v>1</v>
-      </c>
-      <c r="K109" t="s">
-        <v>157</v>
-      </c>
-      <c r="L109" s="2">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109" t="s">
+        <v>160</v>
+      </c>
+      <c r="M109" s="2">
         <v>45057.11523148148</v>
-      </c>
-      <c r="M109">
-        <v>1826.11</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5287,35 +5296,35 @@
       <c r="C110">
         <v>101</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110">
+        <v>7500000</v>
+      </c>
+      <c r="E110" s="2">
         <v>45057.09767015046</v>
       </c>
-      <c r="E110" t="s">
-        <v>152</v>
-      </c>
       <c r="F110" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G110" t="s">
-        <v>154</v>
-      </c>
-      <c r="H110" t="b">
-        <v>1</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H110" t="s">
+        <v>156</v>
+      </c>
+      <c r="I110" t="b">
+        <v>1</v>
       </c>
       <c r="J110">
-        <v>1</v>
-      </c>
-      <c r="K110" t="s">
-        <v>157</v>
-      </c>
-      <c r="L110" s="2">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110" t="s">
+        <v>160</v>
+      </c>
+      <c r="M110" s="2">
         <v>45057.11505787037</v>
-      </c>
-      <c r="M110">
-        <v>7500000</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5328,35 +5337,35 @@
       <c r="C111">
         <v>101</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111">
+        <v>181450</v>
+      </c>
+      <c r="E111" s="2">
         <v>45057.09767015046</v>
       </c>
-      <c r="E111" t="s">
-        <v>152</v>
-      </c>
       <c r="F111" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G111" t="s">
-        <v>154</v>
-      </c>
-      <c r="H111" t="b">
-        <v>1</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H111" t="s">
+        <v>156</v>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
       </c>
       <c r="J111">
-        <v>1</v>
-      </c>
-      <c r="K111" t="s">
-        <v>157</v>
-      </c>
-      <c r="L111" s="2">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111" t="s">
+        <v>160</v>
+      </c>
+      <c r="M111" s="2">
         <v>45057.11505787037</v>
-      </c>
-      <c r="M111">
-        <v>181450</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5369,35 +5378,35 @@
       <c r="C112">
         <v>104</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112">
+        <v>2261</v>
+      </c>
+      <c r="E112" s="2">
         <v>45062.28582356482</v>
       </c>
-      <c r="E112" t="s">
-        <v>152</v>
-      </c>
       <c r="F112" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G112" t="s">
-        <v>154</v>
-      </c>
-      <c r="H112" t="b">
-        <v>1</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H112" t="s">
+        <v>156</v>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
       </c>
       <c r="J112">
-        <v>1</v>
-      </c>
-      <c r="K112" t="s">
-        <v>156</v>
-      </c>
-      <c r="L112" s="2">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112" t="s">
+        <v>159</v>
+      </c>
+      <c r="M112" s="2">
         <v>45065.39608796296</v>
-      </c>
-      <c r="M112">
-        <v>2261</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5410,35 +5419,35 @@
       <c r="C113">
         <v>106</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113">
+        <v>1000</v>
+      </c>
+      <c r="E113" s="2">
         <v>45061.26449304398</v>
       </c>
-      <c r="E113" t="s">
-        <v>152</v>
-      </c>
       <c r="F113" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G113" t="s">
-        <v>154</v>
-      </c>
-      <c r="H113" t="b">
-        <v>1</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H113" t="s">
+        <v>156</v>
+      </c>
+      <c r="I113" t="b">
+        <v>1</v>
       </c>
       <c r="J113">
-        <v>1</v>
-      </c>
-      <c r="K113" t="s">
-        <v>157</v>
-      </c>
-      <c r="L113" s="2">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113" t="s">
+        <v>160</v>
+      </c>
+      <c r="M113" s="2">
         <v>45061.3546412037</v>
-      </c>
-      <c r="M113">
-        <v>1000</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5451,35 +5460,35 @@
       <c r="C114">
         <v>111</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114">
+        <v>16240</v>
+      </c>
+      <c r="E114" s="2">
         <v>45062.09768309028</v>
       </c>
-      <c r="E114" t="s">
-        <v>152</v>
-      </c>
       <c r="F114" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G114" t="s">
-        <v>154</v>
-      </c>
-      <c r="H114" t="b">
-        <v>1</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H114" t="s">
+        <v>156</v>
+      </c>
+      <c r="I114" t="b">
+        <v>1</v>
       </c>
       <c r="J114">
-        <v>1</v>
-      </c>
-      <c r="K114" t="s">
-        <v>158</v>
-      </c>
-      <c r="L114" s="2">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114" t="s">
+        <v>161</v>
+      </c>
+      <c r="M114" s="2">
         <v>45062.15226851852</v>
-      </c>
-      <c r="M114">
-        <v>16240</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5492,35 +5501,35 @@
       <c r="C115">
         <v>115</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115">
+        <v>44006.98</v>
+      </c>
+      <c r="E115" s="2">
         <v>45062.10104034722</v>
       </c>
-      <c r="E115" t="s">
-        <v>152</v>
-      </c>
       <c r="F115" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G115" t="s">
-        <v>154</v>
-      </c>
-      <c r="H115" t="b">
-        <v>1</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H115" t="s">
+        <v>156</v>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
       </c>
       <c r="J115">
-        <v>1</v>
-      </c>
-      <c r="K115" t="s">
-        <v>159</v>
-      </c>
-      <c r="L115" s="2">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115" t="s">
+        <v>162</v>
+      </c>
+      <c r="M115" s="2">
         <v>45062.15188657407</v>
-      </c>
-      <c r="M115">
-        <v>44006.98</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5533,35 +5542,35 @@
       <c r="C116">
         <v>117</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116">
+        <v>3651</v>
+      </c>
+      <c r="E116" s="2">
         <v>45063.09152335648</v>
       </c>
-      <c r="E116" t="s">
-        <v>152</v>
-      </c>
       <c r="F116" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G116" t="s">
-        <v>154</v>
-      </c>
-      <c r="H116" t="b">
-        <v>1</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H116" t="s">
+        <v>156</v>
+      </c>
+      <c r="I116" t="b">
+        <v>1</v>
       </c>
       <c r="J116">
-        <v>1</v>
-      </c>
-      <c r="K116" t="s">
-        <v>156</v>
-      </c>
-      <c r="L116" s="2">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116" t="s">
+        <v>159</v>
+      </c>
+      <c r="M116" s="2">
         <v>45065.39636574074</v>
-      </c>
-      <c r="M116">
-        <v>3651</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5574,35 +5583,35 @@
       <c r="C117">
         <v>117</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117">
+        <v>66.83</v>
+      </c>
+      <c r="E117" s="2">
         <v>45063.09152335648</v>
       </c>
-      <c r="E117" t="s">
-        <v>152</v>
-      </c>
       <c r="F117" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G117" t="s">
-        <v>154</v>
-      </c>
-      <c r="H117" t="b">
-        <v>1</v>
-      </c>
-      <c r="I117">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H117" t="s">
+        <v>156</v>
+      </c>
+      <c r="I117" t="b">
+        <v>1</v>
       </c>
       <c r="J117">
-        <v>1</v>
-      </c>
-      <c r="K117" t="s">
-        <v>156</v>
-      </c>
-      <c r="L117" s="2">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117" t="s">
+        <v>159</v>
+      </c>
+      <c r="M117" s="2">
         <v>45065.39636574074</v>
-      </c>
-      <c r="M117">
-        <v>66.83</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5615,35 +5624,35 @@
       <c r="C118">
         <v>118</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118">
+        <v>1751.54</v>
+      </c>
+      <c r="E118" s="2">
         <v>45063.16619079861</v>
       </c>
-      <c r="E118" t="s">
-        <v>152</v>
-      </c>
       <c r="F118" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G118" t="s">
-        <v>154</v>
-      </c>
-      <c r="H118" t="b">
-        <v>1</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H118" t="s">
+        <v>156</v>
+      </c>
+      <c r="I118" t="b">
+        <v>1</v>
       </c>
       <c r="J118">
-        <v>1</v>
-      </c>
-      <c r="K118" t="s">
-        <v>156</v>
-      </c>
-      <c r="L118" s="2">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118" t="s">
+        <v>159</v>
+      </c>
+      <c r="M118" s="2">
         <v>45065.39671296296</v>
-      </c>
-      <c r="M118">
-        <v>1751.54</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5656,35 +5665,35 @@
       <c r="C119">
         <v>118</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119">
+        <v>5364</v>
+      </c>
+      <c r="E119" s="2">
         <v>45063.16619079861</v>
       </c>
-      <c r="E119" t="s">
-        <v>152</v>
-      </c>
       <c r="F119" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G119" t="s">
-        <v>154</v>
-      </c>
-      <c r="H119" t="b">
-        <v>1</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H119" t="s">
+        <v>156</v>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
       </c>
       <c r="J119">
-        <v>1</v>
-      </c>
-      <c r="K119" t="s">
-        <v>156</v>
-      </c>
-      <c r="L119" s="2">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119" t="s">
+        <v>159</v>
+      </c>
+      <c r="M119" s="2">
         <v>45065.39671296296</v>
-      </c>
-      <c r="M119">
-        <v>5364</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5697,35 +5706,35 @@
       <c r="C120">
         <v>118</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120">
+        <v>451.7</v>
+      </c>
+      <c r="E120" s="2">
         <v>45063.16619079861</v>
       </c>
-      <c r="E120" t="s">
-        <v>152</v>
-      </c>
       <c r="F120" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G120" t="s">
-        <v>154</v>
-      </c>
-      <c r="H120" t="b">
-        <v>1</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H120" t="s">
+        <v>156</v>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
       </c>
       <c r="J120">
-        <v>1</v>
-      </c>
-      <c r="K120" t="s">
-        <v>156</v>
-      </c>
-      <c r="L120" s="2">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120" t="s">
+        <v>159</v>
+      </c>
+      <c r="M120" s="2">
         <v>45065.39671296296</v>
-      </c>
-      <c r="M120">
-        <v>451.7</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -5738,35 +5747,35 @@
       <c r="C121">
         <v>118</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121">
+        <v>5340</v>
+      </c>
+      <c r="E121" s="2">
         <v>45063.16619079861</v>
       </c>
-      <c r="E121" t="s">
-        <v>152</v>
-      </c>
       <c r="F121" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G121" t="s">
-        <v>154</v>
-      </c>
-      <c r="H121" t="b">
-        <v>1</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H121" t="s">
+        <v>156</v>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
       </c>
       <c r="J121">
-        <v>1</v>
-      </c>
-      <c r="K121" t="s">
-        <v>156</v>
-      </c>
-      <c r="L121" s="2">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121" t="s">
+        <v>159</v>
+      </c>
+      <c r="M121" s="2">
         <v>45065.39671296296</v>
-      </c>
-      <c r="M121">
-        <v>5340</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -5779,35 +5788,35 @@
       <c r="C122">
         <v>120</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122">
+        <v>1703</v>
+      </c>
+      <c r="E122" s="2">
         <v>45063.25902819444</v>
       </c>
-      <c r="E122" t="s">
-        <v>152</v>
-      </c>
       <c r="F122" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G122" t="s">
-        <v>154</v>
-      </c>
-      <c r="H122" t="b">
-        <v>1</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H122" t="s">
+        <v>156</v>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
       </c>
       <c r="J122">
-        <v>1</v>
-      </c>
-      <c r="K122" t="s">
-        <v>156</v>
-      </c>
-      <c r="L122" s="2">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122" t="s">
+        <v>159</v>
+      </c>
+      <c r="M122" s="2">
         <v>45065.39842592592</v>
-      </c>
-      <c r="M122">
-        <v>1703</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -5820,35 +5829,35 @@
       <c r="C123">
         <v>120</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123">
+        <v>1702.51</v>
+      </c>
+      <c r="E123" s="2">
         <v>45063.25902819444</v>
       </c>
-      <c r="E123" t="s">
-        <v>152</v>
-      </c>
       <c r="F123" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G123" t="s">
-        <v>154</v>
-      </c>
-      <c r="H123" t="b">
-        <v>1</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H123" t="s">
+        <v>156</v>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
       </c>
       <c r="J123">
-        <v>1</v>
-      </c>
-      <c r="K123" t="s">
-        <v>156</v>
-      </c>
-      <c r="L123" s="2">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123" t="s">
+        <v>159</v>
+      </c>
+      <c r="M123" s="2">
         <v>45065.39842592592</v>
-      </c>
-      <c r="M123">
-        <v>1702.51</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -5861,35 +5870,35 @@
       <c r="C124">
         <v>122</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D124">
+        <v>550</v>
+      </c>
+      <c r="E124" s="2">
         <v>45064.113225625</v>
       </c>
-      <c r="E124" t="s">
-        <v>152</v>
-      </c>
       <c r="F124" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G124" t="s">
-        <v>154</v>
-      </c>
-      <c r="H124" t="b">
-        <v>1</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H124" t="s">
+        <v>156</v>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
       </c>
       <c r="J124">
-        <v>1</v>
-      </c>
-      <c r="K124" t="s">
-        <v>156</v>
-      </c>
-      <c r="L124" s="2">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124" t="s">
+        <v>159</v>
+      </c>
+      <c r="M124" s="2">
         <v>45065.33899305556</v>
-      </c>
-      <c r="M124">
-        <v>550</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -5902,35 +5911,35 @@
       <c r="C125">
         <v>124</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125">
+        <v>1000</v>
+      </c>
+      <c r="E125" s="2">
         <v>45064.11419769676</v>
       </c>
-      <c r="E125" t="s">
-        <v>152</v>
-      </c>
       <c r="F125" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G125" t="s">
-        <v>154</v>
-      </c>
-      <c r="H125" t="b">
-        <v>1</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H125" t="s">
+        <v>156</v>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
       </c>
       <c r="J125">
-        <v>1</v>
-      </c>
-      <c r="K125" t="s">
-        <v>156</v>
-      </c>
-      <c r="L125" s="2">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125" t="s">
+        <v>159</v>
+      </c>
+      <c r="M125" s="2">
         <v>45065.33873842593</v>
-      </c>
-      <c r="M125">
-        <v>1000</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -5943,35 +5952,35 @@
       <c r="C126">
         <v>126</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126">
+        <v>481</v>
+      </c>
+      <c r="E126" s="2">
         <v>45064.34021627315</v>
       </c>
-      <c r="E126" t="s">
-        <v>152</v>
-      </c>
       <c r="F126" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G126" t="s">
-        <v>154</v>
-      </c>
-      <c r="H126" t="b">
-        <v>1</v>
-      </c>
-      <c r="I126">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H126" t="s">
+        <v>156</v>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
       </c>
       <c r="J126">
-        <v>1</v>
-      </c>
-      <c r="K126" t="s">
-        <v>156</v>
-      </c>
-      <c r="L126" s="2">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126" t="s">
+        <v>159</v>
+      </c>
+      <c r="M126" s="2">
         <v>45065.39864583333</v>
-      </c>
-      <c r="M126">
-        <v>481</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -5984,35 +5993,35 @@
       <c r="C127">
         <v>128</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127">
+        <v>83</v>
+      </c>
+      <c r="E127" s="2">
         <v>45064.34519577547</v>
       </c>
-      <c r="E127" t="s">
-        <v>152</v>
-      </c>
       <c r="F127" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G127" t="s">
-        <v>154</v>
-      </c>
-      <c r="H127" t="b">
-        <v>1</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H127" t="s">
+        <v>156</v>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
       </c>
       <c r="J127">
-        <v>1</v>
-      </c>
-      <c r="K127" t="s">
-        <v>156</v>
-      </c>
-      <c r="L127" s="2">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127" t="s">
+        <v>159</v>
+      </c>
+      <c r="M127" s="2">
         <v>45065.39938657408</v>
-      </c>
-      <c r="M127">
-        <v>83</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -6025,35 +6034,35 @@
       <c r="C128">
         <v>130</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128">
+        <v>716</v>
+      </c>
+      <c r="E128" s="2">
         <v>45070.30361276621</v>
       </c>
-      <c r="E128" t="s">
-        <v>152</v>
-      </c>
       <c r="F128" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G128" t="s">
-        <v>154</v>
-      </c>
-      <c r="H128" t="b">
-        <v>1</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H128" t="s">
+        <v>156</v>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
       </c>
       <c r="J128">
-        <v>1</v>
-      </c>
-      <c r="K128" t="s">
-        <v>156</v>
-      </c>
-      <c r="L128" s="2">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128" t="s">
+        <v>159</v>
+      </c>
+      <c r="M128" s="2">
         <v>45079.25689814815</v>
-      </c>
-      <c r="M128">
-        <v>716</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -6066,35 +6075,35 @@
       <c r="C129">
         <v>132</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129">
+        <v>98309.63</v>
+      </c>
+      <c r="E129" s="2">
         <v>45072.2817774537</v>
       </c>
-      <c r="E129" t="s">
-        <v>152</v>
-      </c>
       <c r="F129" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G129" t="s">
-        <v>154</v>
-      </c>
-      <c r="H129" t="b">
-        <v>1</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H129" t="s">
+        <v>156</v>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
       </c>
       <c r="J129">
-        <v>1</v>
-      </c>
-      <c r="K129" t="s">
-        <v>157</v>
-      </c>
-      <c r="L129" s="2">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129" t="s">
+        <v>160</v>
+      </c>
+      <c r="M129" s="2">
         <v>45071.29583333333</v>
-      </c>
-      <c r="M129">
-        <v>98309.63</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -6107,35 +6116,35 @@
       <c r="C130">
         <v>134</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D130">
+        <v>75863.59</v>
+      </c>
+      <c r="E130" s="2">
         <v>45071.0833384375</v>
       </c>
-      <c r="E130" t="s">
-        <v>152</v>
-      </c>
       <c r="F130" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G130" t="s">
         <v>155</v>
       </c>
-      <c r="H130" t="b">
-        <v>1</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
+      <c r="H130" t="s">
+        <v>157</v>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
       </c>
       <c r="J130">
-        <v>1</v>
-      </c>
-      <c r="K130" t="s">
-        <v>157</v>
-      </c>
-      <c r="L130" s="2">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130" t="s">
+        <v>160</v>
+      </c>
+      <c r="M130" s="2">
         <v>45071.28740740741</v>
-      </c>
-      <c r="M130">
-        <v>75863.59</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6148,35 +6157,35 @@
       <c r="C131">
         <v>138</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131">
+        <v>75863.59</v>
+      </c>
+      <c r="E131" s="2">
         <v>45071.08490408565</v>
       </c>
-      <c r="E131" t="s">
-        <v>152</v>
-      </c>
       <c r="F131" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G131" t="s">
         <v>155</v>
       </c>
-      <c r="H131" t="b">
-        <v>1</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
+      <c r="H131" t="s">
+        <v>157</v>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
       </c>
       <c r="J131">
-        <v>1</v>
-      </c>
-      <c r="K131" t="s">
-        <v>158</v>
-      </c>
-      <c r="L131" s="2">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131" t="s">
+        <v>161</v>
+      </c>
+      <c r="M131" s="2">
         <v>45071.28775017361</v>
-      </c>
-      <c r="M131">
-        <v>75863.59</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -6189,35 +6198,35 @@
       <c r="C132">
         <v>140</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132">
+        <v>14.02</v>
+      </c>
+      <c r="E132" s="2">
         <v>45072.3031109375</v>
       </c>
-      <c r="E132" t="s">
-        <v>152</v>
-      </c>
       <c r="F132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G132" t="s">
-        <v>154</v>
-      </c>
-      <c r="H132" t="b">
-        <v>1</v>
-      </c>
-      <c r="I132">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H132" t="s">
+        <v>156</v>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
       </c>
       <c r="J132">
-        <v>1</v>
-      </c>
-      <c r="K132" t="s">
-        <v>156</v>
-      </c>
-      <c r="L132" s="2">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132" t="s">
+        <v>159</v>
+      </c>
+      <c r="M132" s="2">
         <v>45079.25763888889</v>
-      </c>
-      <c r="M132">
-        <v>14.02</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -6230,35 +6239,35 @@
       <c r="C133">
         <v>140</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133">
+        <v>59.88</v>
+      </c>
+      <c r="E133" s="2">
         <v>45072.3031109375</v>
       </c>
-      <c r="E133" t="s">
-        <v>152</v>
-      </c>
       <c r="F133" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G133" t="s">
-        <v>154</v>
-      </c>
-      <c r="H133" t="b">
-        <v>1</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H133" t="s">
+        <v>156</v>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
       </c>
       <c r="J133">
-        <v>1</v>
-      </c>
-      <c r="K133" t="s">
-        <v>156</v>
-      </c>
-      <c r="L133" s="2">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133" t="s">
+        <v>159</v>
+      </c>
+      <c r="M133" s="2">
         <v>45079.25763888889</v>
-      </c>
-      <c r="M133">
-        <v>59.88</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -6271,35 +6280,35 @@
       <c r="C134">
         <v>140</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D134">
+        <v>400</v>
+      </c>
+      <c r="E134" s="2">
         <v>45072.3031109375</v>
       </c>
-      <c r="E134" t="s">
-        <v>152</v>
-      </c>
       <c r="F134" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G134" t="s">
-        <v>154</v>
-      </c>
-      <c r="H134" t="b">
-        <v>1</v>
-      </c>
-      <c r="I134">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H134" t="s">
+        <v>156</v>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
       </c>
       <c r="J134">
-        <v>1</v>
-      </c>
-      <c r="K134" t="s">
-        <v>156</v>
-      </c>
-      <c r="L134" s="2">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134" t="s">
+        <v>159</v>
+      </c>
+      <c r="M134" s="2">
         <v>45079.25763888889</v>
-      </c>
-      <c r="M134">
-        <v>400</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -6312,35 +6321,35 @@
       <c r="C135">
         <v>140</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135">
+        <v>122.2</v>
+      </c>
+      <c r="E135" s="2">
         <v>45072.3031109375</v>
       </c>
-      <c r="E135" t="s">
-        <v>152</v>
-      </c>
       <c r="F135" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G135" t="s">
-        <v>154</v>
-      </c>
-      <c r="H135" t="b">
-        <v>1</v>
-      </c>
-      <c r="I135">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H135" t="s">
+        <v>156</v>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
       </c>
       <c r="J135">
-        <v>1</v>
-      </c>
-      <c r="K135" t="s">
-        <v>156</v>
-      </c>
-      <c r="L135" s="2">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135" t="s">
+        <v>159</v>
+      </c>
+      <c r="M135" s="2">
         <v>45079.25763888889</v>
-      </c>
-      <c r="M135">
-        <v>122.2</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6353,35 +6362,35 @@
       <c r="C136">
         <v>140</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136">
+        <v>62.09</v>
+      </c>
+      <c r="E136" s="2">
         <v>45072.3031109375</v>
       </c>
-      <c r="E136" t="s">
-        <v>152</v>
-      </c>
       <c r="F136" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G136" t="s">
-        <v>154</v>
-      </c>
-      <c r="H136" t="b">
-        <v>1</v>
-      </c>
-      <c r="I136">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H136" t="s">
+        <v>156</v>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
       </c>
       <c r="J136">
-        <v>1</v>
-      </c>
-      <c r="K136" t="s">
-        <v>156</v>
-      </c>
-      <c r="L136" s="2">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136" t="s">
+        <v>159</v>
+      </c>
+      <c r="M136" s="2">
         <v>45079.25763888889</v>
-      </c>
-      <c r="M136">
-        <v>62.09</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6394,35 +6403,35 @@
       <c r="C137">
         <v>140</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D137">
+        <v>500</v>
+      </c>
+      <c r="E137" s="2">
         <v>45072.3031109375</v>
       </c>
-      <c r="E137" t="s">
-        <v>152</v>
-      </c>
       <c r="F137" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G137" t="s">
-        <v>154</v>
-      </c>
-      <c r="H137" t="b">
-        <v>1</v>
-      </c>
-      <c r="I137">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H137" t="s">
+        <v>156</v>
+      </c>
+      <c r="I137" t="b">
+        <v>1</v>
       </c>
       <c r="J137">
-        <v>1</v>
-      </c>
-      <c r="K137" t="s">
-        <v>156</v>
-      </c>
-      <c r="L137" s="2">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137" t="s">
+        <v>159</v>
+      </c>
+      <c r="M137" s="2">
         <v>45079.25763888889</v>
-      </c>
-      <c r="M137">
-        <v>500</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6435,35 +6444,35 @@
       <c r="C138">
         <v>142</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D138">
+        <v>229</v>
+      </c>
+      <c r="E138" s="2">
         <v>45075.34471542824</v>
       </c>
-      <c r="E138" t="s">
-        <v>152</v>
-      </c>
       <c r="F138" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G138" t="s">
-        <v>154</v>
-      </c>
-      <c r="H138" t="b">
-        <v>1</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H138" t="s">
+        <v>156</v>
+      </c>
+      <c r="I138" t="b">
+        <v>1</v>
       </c>
       <c r="J138">
-        <v>1</v>
-      </c>
-      <c r="K138" t="s">
-        <v>156</v>
-      </c>
-      <c r="L138" s="2">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138" t="s">
+        <v>159</v>
+      </c>
+      <c r="M138" s="2">
         <v>45079.25842592592</v>
-      </c>
-      <c r="M138">
-        <v>229</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6476,35 +6485,35 @@
       <c r="C139">
         <v>142</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139">
+        <v>868</v>
+      </c>
+      <c r="E139" s="2">
         <v>45075.34471542824</v>
       </c>
-      <c r="E139" t="s">
-        <v>152</v>
-      </c>
       <c r="F139" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G139" t="s">
-        <v>154</v>
-      </c>
-      <c r="H139" t="b">
-        <v>1</v>
-      </c>
-      <c r="I139">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H139" t="s">
+        <v>156</v>
+      </c>
+      <c r="I139" t="b">
+        <v>1</v>
       </c>
       <c r="J139">
-        <v>1</v>
-      </c>
-      <c r="K139" t="s">
-        <v>156</v>
-      </c>
-      <c r="L139" s="2">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139" t="s">
+        <v>159</v>
+      </c>
+      <c r="M139" s="2">
         <v>45079.25842592592</v>
-      </c>
-      <c r="M139">
-        <v>868</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6517,35 +6526,35 @@
       <c r="C140">
         <v>142</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140">
+        <v>735</v>
+      </c>
+      <c r="E140" s="2">
         <v>45075.34471542824</v>
       </c>
-      <c r="E140" t="s">
-        <v>152</v>
-      </c>
       <c r="F140" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G140" t="s">
-        <v>154</v>
-      </c>
-      <c r="H140" t="b">
-        <v>1</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H140" t="s">
+        <v>156</v>
+      </c>
+      <c r="I140" t="b">
+        <v>1</v>
       </c>
       <c r="J140">
-        <v>1</v>
-      </c>
-      <c r="K140" t="s">
-        <v>156</v>
-      </c>
-      <c r="L140" s="2">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140" t="s">
+        <v>159</v>
+      </c>
+      <c r="M140" s="2">
         <v>45079.25842592592</v>
-      </c>
-      <c r="M140">
-        <v>735</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6558,35 +6567,35 @@
       <c r="C141">
         <v>142</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141">
+        <v>40</v>
+      </c>
+      <c r="E141" s="2">
         <v>45075.34471542824</v>
       </c>
-      <c r="E141" t="s">
-        <v>152</v>
-      </c>
       <c r="F141" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G141" t="s">
-        <v>154</v>
-      </c>
-      <c r="H141" t="b">
-        <v>1</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H141" t="s">
+        <v>156</v>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
       </c>
       <c r="J141">
-        <v>1</v>
-      </c>
-      <c r="K141" t="s">
-        <v>156</v>
-      </c>
-      <c r="L141" s="2">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141" t="s">
+        <v>159</v>
+      </c>
+      <c r="M141" s="2">
         <v>45079.25842592592</v>
-      </c>
-      <c r="M141">
-        <v>40</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6599,35 +6608,35 @@
       <c r="C142">
         <v>142</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D142">
+        <v>340</v>
+      </c>
+      <c r="E142" s="2">
         <v>45075.34471542824</v>
       </c>
-      <c r="E142" t="s">
-        <v>152</v>
-      </c>
       <c r="F142" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G142" t="s">
-        <v>154</v>
-      </c>
-      <c r="H142" t="b">
-        <v>1</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H142" t="s">
+        <v>156</v>
+      </c>
+      <c r="I142" t="b">
+        <v>1</v>
       </c>
       <c r="J142">
-        <v>1</v>
-      </c>
-      <c r="K142" t="s">
-        <v>156</v>
-      </c>
-      <c r="L142" s="2">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142" t="s">
+        <v>159</v>
+      </c>
+      <c r="M142" s="2">
         <v>45079.25842592592</v>
-      </c>
-      <c r="M142">
-        <v>340</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6640,35 +6649,35 @@
       <c r="C143">
         <v>142</v>
       </c>
-      <c r="D143" s="2">
+      <c r="D143">
+        <v>200</v>
+      </c>
+      <c r="E143" s="2">
         <v>45075.34471542824</v>
       </c>
-      <c r="E143" t="s">
-        <v>152</v>
-      </c>
       <c r="F143" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G143" t="s">
-        <v>154</v>
-      </c>
-      <c r="H143" t="b">
-        <v>1</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H143" t="s">
+        <v>156</v>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
       </c>
       <c r="J143">
-        <v>1</v>
-      </c>
-      <c r="K143" t="s">
-        <v>156</v>
-      </c>
-      <c r="L143" s="2">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143" t="s">
+        <v>159</v>
+      </c>
+      <c r="M143" s="2">
         <v>45079.25842592592</v>
-      </c>
-      <c r="M143">
-        <v>200</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6681,35 +6690,99 @@
       <c r="C144">
         <v>142</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D144">
+        <v>50</v>
+      </c>
+      <c r="E144" s="2">
         <v>45075.34471542824</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
+        <v>154</v>
+      </c>
+      <c r="G144" t="s">
+        <v>155</v>
+      </c>
+      <c r="H144" t="s">
+        <v>156</v>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144" t="s">
+        <v>159</v>
+      </c>
+      <c r="M144" s="2">
+        <v>45079.25842592592</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" t="s">
+        <v>17</v>
+      </c>
+      <c r="B145" t="s">
         <v>152</v>
       </c>
-      <c r="F144" t="s">
+      <c r="C145">
+        <v>143</v>
+      </c>
+      <c r="D145">
+        <v>6275</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45082.13151047454</v>
+      </c>
+      <c r="G145" t="s">
+        <v>155</v>
+      </c>
+      <c r="H145" t="s">
+        <v>158</v>
+      </c>
+      <c r="I145" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" t="s">
+        <v>17</v>
+      </c>
+      <c r="B146" t="s">
         <v>153</v>
       </c>
-      <c r="G144" t="s">
-        <v>154</v>
-      </c>
-      <c r="H144" t="b">
-        <v>1</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144">
-        <v>1</v>
-      </c>
-      <c r="K144" t="s">
-        <v>156</v>
-      </c>
-      <c r="L144" s="2">
-        <v>45079.25842592592</v>
-      </c>
-      <c r="M144">
-        <v>50</v>
+      <c r="C146">
+        <v>145</v>
+      </c>
+      <c r="D146">
+        <v>6275</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45082.13246663194</v>
+      </c>
+      <c r="G146" t="s">
+        <v>155</v>
+      </c>
+      <c r="H146" t="s">
+        <v>158</v>
+      </c>
+      <c r="I146" t="b">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/hans/df_expense_table_cells.xlsx
+++ b/hans/df_expense_table_cells.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="160">
   <si>
     <t>资金类别</t>
   </si>
@@ -25,31 +25,34 @@
     <t>单据单号</t>
   </si>
   <si>
+    <t>单据时间</t>
+  </si>
+  <si>
+    <t>单据币种</t>
+  </si>
+  <si>
+    <t>单据类型</t>
+  </si>
+  <si>
+    <t>审核步骤</t>
+  </si>
+  <si>
+    <t>是否已付款</t>
+  </si>
+  <si>
+    <t>是否自己已关闭</t>
+  </si>
+  <si>
+    <t>receiptRate</t>
+  </si>
+  <si>
+    <t>银行账号</t>
+  </si>
+  <si>
+    <t>银行日期</t>
+  </si>
+  <si>
     <t>贷方金额</t>
-  </si>
-  <si>
-    <t>单据时间</t>
-  </si>
-  <si>
-    <t>单据币种</t>
-  </si>
-  <si>
-    <t>单据类型</t>
-  </si>
-  <si>
-    <t>审核步骤</t>
-  </si>
-  <si>
-    <t>是否已付款</t>
-  </si>
-  <si>
-    <t>是否自己已关闭</t>
-  </si>
-  <si>
-    <t>银行账号</t>
-  </si>
-  <si>
-    <t>银行日期</t>
   </si>
   <si>
     <t>5501.13-招待费</t>
@@ -853,13 +856,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L144"/>
+  <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -896,5385 +899,5817 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>18</v>
       </c>
-      <c r="D2">
-        <v>2782</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="2">
         <v>44998.34665780092</v>
       </c>
+      <c r="E2" t="s">
+        <v>152</v>
+      </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L2" s="2">
         <v>44995.10725694444</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>19</v>
       </c>
-      <c r="D3">
-        <v>486.68</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="2">
         <v>44998.35004600694</v>
       </c>
+      <c r="E3" t="s">
+        <v>152</v>
+      </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L3" s="2">
         <v>44995.10702546296</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>486.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
-      <c r="D4">
-        <v>1813</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="2">
         <v>44998.35328634259</v>
       </c>
+      <c r="E4" t="s">
+        <v>152</v>
+      </c>
       <c r="F4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L4" s="2">
         <v>44995.10678240741</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
-      <c r="D5">
-        <v>3167</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="2">
         <v>44998.35328634259</v>
       </c>
+      <c r="E5" t="s">
+        <v>152</v>
+      </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
-      </c>
-      <c r="H5" t="s">
-        <v>153</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L5" s="2">
         <v>44995.10678240741</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>21</v>
       </c>
-      <c r="D6">
-        <v>1399</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="2">
         <v>44998.35491502315</v>
       </c>
+      <c r="E6" t="s">
+        <v>152</v>
+      </c>
       <c r="F6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H6" t="s">
-        <v>153</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L6" s="2">
         <v>45000.1064699074</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>22</v>
       </c>
-      <c r="D7">
-        <v>494.9</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="2">
         <v>44998.35697050926</v>
       </c>
+      <c r="E7" t="s">
+        <v>152</v>
+      </c>
       <c r="F7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H7" t="s">
-        <v>153</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L7" s="2">
         <v>44995.33467592593</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>494.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>22</v>
       </c>
-      <c r="D8">
-        <v>238</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="2">
         <v>44998.35697050926</v>
       </c>
+      <c r="E8" t="s">
+        <v>152</v>
+      </c>
       <c r="F8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H8" t="s">
-        <v>153</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L8" s="2">
         <v>44995.33467592593</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>22</v>
       </c>
-      <c r="D9">
-        <v>3829</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="2">
         <v>44998.35697050926</v>
       </c>
+      <c r="E9" t="s">
+        <v>152</v>
+      </c>
       <c r="F9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G9" t="s">
-        <v>152</v>
-      </c>
-      <c r="H9" t="s">
-        <v>153</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L9" s="2">
         <v>44995.33467592593</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>3829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>23</v>
       </c>
-      <c r="D10">
-        <v>15000</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="2">
         <v>44998.35608846065</v>
       </c>
+      <c r="E10" t="s">
+        <v>152</v>
+      </c>
       <c r="F10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H10" t="s">
-        <v>153</v>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L10" s="2">
         <v>44995.10621527778</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>24</v>
       </c>
-      <c r="D11">
-        <v>610</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="2">
         <v>44998.35801635417</v>
       </c>
+      <c r="E11" t="s">
+        <v>152</v>
+      </c>
       <c r="F11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G11" t="s">
-        <v>152</v>
-      </c>
-      <c r="H11" t="s">
-        <v>153</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L11" s="2">
         <v>44995.10587962963</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>25</v>
       </c>
-      <c r="D12">
-        <v>1067</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="2">
         <v>44998.35955101852</v>
       </c>
+      <c r="E12" t="s">
+        <v>152</v>
+      </c>
       <c r="F12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G12" t="s">
-        <v>152</v>
-      </c>
-      <c r="H12" t="s">
-        <v>153</v>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L12" s="2">
         <v>44995.34130787037</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>26</v>
       </c>
-      <c r="D13">
-        <v>1000</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13" s="2">
         <v>44998.35966047454</v>
       </c>
+      <c r="E13" t="s">
+        <v>152</v>
+      </c>
       <c r="F13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G13" t="s">
-        <v>152</v>
-      </c>
-      <c r="H13" t="s">
-        <v>153</v>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L13" s="2">
         <v>45002.28056712963</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>27</v>
       </c>
-      <c r="D14">
-        <v>405.01</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="2">
         <v>44998.36113280093</v>
       </c>
+      <c r="E14" t="s">
+        <v>152</v>
+      </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>152</v>
-      </c>
-      <c r="H14" t="s">
-        <v>153</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L14" s="2">
         <v>45002.28086805555</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>405.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15">
         <v>28</v>
       </c>
-      <c r="D15">
-        <v>869</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D15" s="2">
         <v>44998.36198395833</v>
       </c>
+      <c r="E15" t="s">
+        <v>152</v>
+      </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G15" t="s">
-        <v>152</v>
-      </c>
-      <c r="H15" t="s">
-        <v>153</v>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L15" s="2">
         <v>45002.28135416667</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16">
         <v>29</v>
       </c>
-      <c r="D16">
-        <v>1572</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D16" s="2">
         <v>44999.1429327662</v>
       </c>
+      <c r="E16" t="s">
+        <v>152</v>
+      </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" t="s">
-        <v>153</v>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L16" s="2">
         <v>45001.28188657408</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17">
         <v>29</v>
       </c>
-      <c r="D17">
-        <v>17.13</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17" s="2">
         <v>44999.1429327662</v>
       </c>
+      <c r="E17" t="s">
+        <v>152</v>
+      </c>
       <c r="F17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G17" t="s">
-        <v>152</v>
-      </c>
-      <c r="H17" t="s">
-        <v>153</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L17" s="2">
         <v>45001.28188657408</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>17.13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18">
         <v>30</v>
       </c>
-      <c r="D18">
-        <v>156</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D18" s="2">
         <v>44999.14498083333</v>
       </c>
+      <c r="E18" t="s">
+        <v>152</v>
+      </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G18" t="s">
-        <v>152</v>
-      </c>
-      <c r="H18" t="s">
-        <v>153</v>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L18" s="2">
         <v>45002.28223379629</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>31</v>
       </c>
-      <c r="D19">
-        <v>3337</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19" s="2">
         <v>44999.14929166667</v>
       </c>
+      <c r="E19" t="s">
+        <v>152</v>
+      </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
-      </c>
-      <c r="H19" t="s">
-        <v>153</v>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L19" s="2">
         <v>45002.2827662037</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20">
         <v>32</v>
       </c>
-      <c r="D20">
-        <v>3000</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D20" s="2">
         <v>44999.35608475695</v>
       </c>
+      <c r="E20" t="s">
+        <v>152</v>
+      </c>
       <c r="F20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G20" t="s">
-        <v>152</v>
-      </c>
-      <c r="H20" t="s">
-        <v>153</v>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L20" s="2">
         <v>45002.28305555556</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21">
         <v>33</v>
       </c>
-      <c r="D21">
-        <v>1465</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D21" s="2">
         <v>44999.37286482639</v>
       </c>
+      <c r="E21" t="s">
+        <v>152</v>
+      </c>
       <c r="F21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G21" t="s">
-        <v>152</v>
-      </c>
-      <c r="H21" t="s">
-        <v>153</v>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L21" s="2">
         <v>45002.28333333333</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22">
         <v>34</v>
       </c>
-      <c r="D22">
-        <v>2114</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="D22" s="2">
         <v>45000.30218704861</v>
       </c>
+      <c r="E22" t="s">
+        <v>152</v>
+      </c>
       <c r="F22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G22" t="s">
-        <v>152</v>
-      </c>
-      <c r="H22" t="s">
-        <v>153</v>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="2">
         <v>45002.28361111111</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23">
         <v>35</v>
       </c>
-      <c r="D23">
-        <v>2460</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D23" s="2">
         <v>45001.29345269676</v>
       </c>
+      <c r="E23" t="s">
+        <v>152</v>
+      </c>
       <c r="F23" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G23" t="s">
-        <v>152</v>
-      </c>
-      <c r="H23" t="s">
-        <v>153</v>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L23" s="2">
         <v>45002.37799768519</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24">
         <v>35</v>
       </c>
-      <c r="D24">
-        <v>500</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="D24" s="2">
         <v>45001.29345269676</v>
       </c>
+      <c r="E24" t="s">
+        <v>152</v>
+      </c>
       <c r="F24" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G24" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" t="s">
-        <v>153</v>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L24" s="2">
         <v>45002.37799768519</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25">
         <v>35</v>
       </c>
-      <c r="D25">
-        <v>60.99</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="D25" s="2">
         <v>45001.29345269676</v>
       </c>
+      <c r="E25" t="s">
+        <v>152</v>
+      </c>
       <c r="F25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G25" t="s">
-        <v>152</v>
-      </c>
-      <c r="H25" t="s">
-        <v>153</v>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L25" s="2">
         <v>45002.37799768519</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25">
+        <v>60.99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26">
         <v>35</v>
       </c>
-      <c r="D26">
-        <v>124.48</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="D26" s="2">
         <v>45001.29345269676</v>
       </c>
+      <c r="E26" t="s">
+        <v>152</v>
+      </c>
       <c r="F26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G26" t="s">
-        <v>152</v>
-      </c>
-      <c r="H26" t="s">
-        <v>153</v>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L26" s="2">
         <v>45002.37799768519</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26">
+        <v>124.48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27">
         <v>36</v>
       </c>
-      <c r="D27">
-        <v>153.2</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="D27" s="2">
         <v>45002.16524336806</v>
       </c>
+      <c r="E27" t="s">
+        <v>152</v>
+      </c>
       <c r="F27" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G27" t="s">
-        <v>152</v>
-      </c>
-      <c r="H27" t="s">
-        <v>153</v>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L27" s="2">
         <v>45013.11997685185</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27">
+        <v>153.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28">
         <v>37</v>
       </c>
-      <c r="D28">
-        <v>550</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="D28" s="2">
         <v>45002.33841078704</v>
       </c>
+      <c r="E28" t="s">
+        <v>152</v>
+      </c>
       <c r="F28" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G28" t="s">
-        <v>152</v>
-      </c>
-      <c r="H28" t="s">
-        <v>153</v>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L28" s="2">
         <v>45013.11972222223</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C29">
         <v>38</v>
       </c>
-      <c r="D29">
-        <v>0.65</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="D29" s="2">
         <v>45005.24194612268</v>
       </c>
+      <c r="E29" t="s">
+        <v>152</v>
+      </c>
       <c r="F29" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G29" t="s">
-        <v>152</v>
-      </c>
-      <c r="H29" t="s">
-        <v>153</v>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L29" s="2">
         <v>45006.08386574074</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C30">
         <v>39</v>
       </c>
-      <c r="D30">
-        <v>776</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="D30" s="2">
         <v>45005.34290649305</v>
       </c>
+      <c r="E30" t="s">
+        <v>152</v>
+      </c>
       <c r="F30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G30" t="s">
-        <v>152</v>
-      </c>
-      <c r="H30" t="s">
-        <v>153</v>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L30" s="2">
         <v>45013.11949074074</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C31">
         <v>40</v>
       </c>
-      <c r="D31">
-        <v>581.92</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="D31" s="2">
         <v>45007.37341414352</v>
       </c>
+      <c r="E31" t="s">
+        <v>152</v>
+      </c>
       <c r="F31" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G31" t="s">
-        <v>152</v>
-      </c>
-      <c r="H31" t="s">
-        <v>153</v>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L31" s="2">
         <v>45013.1190162037</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31">
+        <v>581.92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C32">
         <v>41</v>
       </c>
-      <c r="D32">
-        <v>483</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="D32" s="2">
         <v>45008.30710563657</v>
       </c>
+      <c r="E32" t="s">
+        <v>152</v>
+      </c>
       <c r="F32" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G32" t="s">
-        <v>152</v>
-      </c>
-      <c r="H32" t="s">
-        <v>153</v>
-      </c>
-      <c r="I32" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L32" s="2">
         <v>45013.39726519676</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C33">
         <v>42</v>
       </c>
-      <c r="D33">
-        <v>1790</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="D33" s="2">
         <v>45013.37752958333</v>
       </c>
+      <c r="E33" t="s">
+        <v>152</v>
+      </c>
       <c r="F33" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G33" t="s">
-        <v>152</v>
-      </c>
-      <c r="H33" t="s">
-        <v>153</v>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L33" s="2">
         <v>45023.08234953704</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34">
         <v>43</v>
       </c>
-      <c r="D34">
-        <v>1200</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="D34" s="2">
         <v>45020.08620959491</v>
       </c>
+      <c r="E34" t="s">
+        <v>152</v>
+      </c>
       <c r="F34" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G34" t="s">
-        <v>152</v>
-      </c>
-      <c r="H34" t="s">
-        <v>153</v>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L34" s="2">
         <v>45023.10739583334</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C35">
         <v>44</v>
       </c>
-      <c r="D35">
-        <v>300</v>
-      </c>
-      <c r="E35" s="2">
+      <c r="D35" s="2">
         <v>45020.3557540625</v>
       </c>
+      <c r="E35" t="s">
+        <v>152</v>
+      </c>
       <c r="F35" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G35" t="s">
-        <v>152</v>
-      </c>
-      <c r="H35" t="s">
-        <v>153</v>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L35" s="2">
         <v>45023.08731481482</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36">
         <v>45</v>
       </c>
-      <c r="D36">
-        <v>20.24</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="D36" s="2">
         <v>45020.36067335648</v>
       </c>
+      <c r="E36" t="s">
+        <v>152</v>
+      </c>
       <c r="F36" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G36" t="s">
-        <v>152</v>
-      </c>
-      <c r="H36" t="s">
-        <v>153</v>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L36" s="2">
         <v>45023.08780092592</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36">
+        <v>20.24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C37">
         <v>45</v>
       </c>
-      <c r="D37">
-        <v>19</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="D37" s="2">
         <v>45020.36067335648</v>
       </c>
+      <c r="E37" t="s">
+        <v>152</v>
+      </c>
       <c r="F37" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G37" t="s">
-        <v>152</v>
-      </c>
-      <c r="H37" t="s">
-        <v>153</v>
-      </c>
-      <c r="I37" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L37" s="2">
         <v>45023.08780092592</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38">
         <v>46</v>
       </c>
-      <c r="D38">
-        <v>1037</v>
-      </c>
-      <c r="E38" s="2">
+      <c r="D38" s="2">
         <v>45022.16013651621</v>
       </c>
+      <c r="E38" t="s">
+        <v>152</v>
+      </c>
       <c r="F38" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G38" t="s">
-        <v>152</v>
-      </c>
-      <c r="H38" t="s">
-        <v>153</v>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L38" s="2">
         <v>45023.08810185185</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C39">
         <v>47</v>
       </c>
-      <c r="D39">
-        <v>1320</v>
-      </c>
-      <c r="E39" s="2">
+      <c r="D39" s="2">
         <v>45023.31049271991</v>
       </c>
+      <c r="E39" t="s">
+        <v>152</v>
+      </c>
       <c r="F39" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G39" t="s">
-        <v>152</v>
-      </c>
-      <c r="H39" t="s">
-        <v>153</v>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L39" s="2">
         <v>45030.12488425926</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40">
         <v>48</v>
       </c>
-      <c r="D40">
-        <v>30000</v>
-      </c>
-      <c r="E40" s="2">
+      <c r="D40" s="2">
         <v>45026.10782059028</v>
       </c>
+      <c r="E40" t="s">
+        <v>152</v>
+      </c>
       <c r="F40" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G40" t="s">
-        <v>152</v>
-      </c>
-      <c r="H40" t="s">
-        <v>153</v>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L40" s="2">
         <v>45026.27826388889</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C41">
         <v>49</v>
       </c>
-      <c r="D41">
-        <v>20000</v>
-      </c>
-      <c r="E41" s="2">
+      <c r="D41" s="2">
         <v>45026.10749625</v>
       </c>
+      <c r="E41" t="s">
+        <v>152</v>
+      </c>
       <c r="F41" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G41" t="s">
-        <v>152</v>
-      </c>
-      <c r="H41" t="s">
-        <v>153</v>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L41" s="2">
         <v>45026.2780324074</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C42">
         <v>50</v>
       </c>
-      <c r="D42">
-        <v>1031.7</v>
-      </c>
-      <c r="E42" s="2">
+      <c r="D42" s="2">
         <v>45026.10379756944</v>
       </c>
+      <c r="E42" t="s">
+        <v>152</v>
+      </c>
       <c r="F42" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G42" t="s">
-        <v>152</v>
-      </c>
-      <c r="H42" t="s">
-        <v>153</v>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L42" s="2">
         <v>45026.2777199074</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42">
+        <v>1031.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C43">
         <v>51</v>
       </c>
-      <c r="D43">
-        <v>3667</v>
-      </c>
-      <c r="E43" s="2">
+      <c r="D43" s="2">
         <v>45028.09191259259</v>
       </c>
+      <c r="E43" t="s">
+        <v>152</v>
+      </c>
       <c r="F43" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G43" t="s">
-        <v>152</v>
-      </c>
-      <c r="H43" t="s">
-        <v>153</v>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L43" s="2">
         <v>45030.12530092592</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43">
+        <v>3667</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C44">
         <v>51</v>
       </c>
-      <c r="D44">
-        <v>29080</v>
-      </c>
-      <c r="E44" s="2">
+      <c r="D44" s="2">
         <v>45028.09191259259</v>
       </c>
+      <c r="E44" t="s">
+        <v>152</v>
+      </c>
       <c r="F44" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G44" t="s">
-        <v>152</v>
-      </c>
-      <c r="H44" t="s">
-        <v>153</v>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L44" s="2">
         <v>45030.12530092592</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44">
+        <v>29080</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C45">
         <v>52</v>
       </c>
-      <c r="D45">
-        <v>683</v>
-      </c>
-      <c r="E45" s="2">
+      <c r="D45" s="2">
         <v>45028.36057641204</v>
       </c>
+      <c r="E45" t="s">
+        <v>152</v>
+      </c>
       <c r="F45" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G45" t="s">
-        <v>152</v>
-      </c>
-      <c r="H45" t="s">
-        <v>153</v>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L45" s="2">
         <v>45030.12891203703</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C46">
         <v>52</v>
       </c>
-      <c r="D46">
-        <v>785.73</v>
-      </c>
-      <c r="E46" s="2">
+      <c r="D46" s="2">
         <v>45028.36057641204</v>
       </c>
+      <c r="E46" t="s">
+        <v>152</v>
+      </c>
       <c r="F46" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G46" t="s">
-        <v>152</v>
-      </c>
-      <c r="H46" t="s">
-        <v>153</v>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L46" s="2">
         <v>45030.12891203703</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46">
+        <v>785.73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47">
         <v>52</v>
       </c>
-      <c r="D47">
-        <v>3139.8</v>
-      </c>
-      <c r="E47" s="2">
+      <c r="D47" s="2">
         <v>45028.36057641204</v>
       </c>
+      <c r="E47" t="s">
+        <v>152</v>
+      </c>
       <c r="F47" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G47" t="s">
-        <v>152</v>
-      </c>
-      <c r="H47" t="s">
-        <v>153</v>
-      </c>
-      <c r="I47" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L47" s="2">
         <v>45030.12891203703</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47">
+        <v>3139.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48">
         <v>52</v>
       </c>
-      <c r="D48">
-        <v>13720</v>
-      </c>
-      <c r="E48" s="2">
+      <c r="D48" s="2">
         <v>45028.36057641204</v>
       </c>
+      <c r="E48" t="s">
+        <v>152</v>
+      </c>
       <c r="F48" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G48" t="s">
-        <v>152</v>
-      </c>
-      <c r="H48" t="s">
-        <v>153</v>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L48" s="2">
         <v>45030.12891203703</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48">
+        <v>13720</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C49">
         <v>52</v>
       </c>
-      <c r="D49">
-        <v>256</v>
-      </c>
-      <c r="E49" s="2">
+      <c r="D49" s="2">
         <v>45028.36057641204</v>
       </c>
+      <c r="E49" t="s">
+        <v>152</v>
+      </c>
       <c r="F49" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G49" t="s">
-        <v>152</v>
-      </c>
-      <c r="H49" t="s">
-        <v>153</v>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L49" s="2">
         <v>45030.12891203703</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C50">
         <v>52</v>
       </c>
-      <c r="D50">
-        <v>396</v>
-      </c>
-      <c r="E50" s="2">
+      <c r="D50" s="2">
         <v>45028.36057641204</v>
       </c>
+      <c r="E50" t="s">
+        <v>152</v>
+      </c>
       <c r="F50" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G50" t="s">
-        <v>152</v>
-      </c>
-      <c r="H50" t="s">
-        <v>153</v>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L50" s="2">
         <v>45030.12891203703</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C51">
         <v>52</v>
       </c>
-      <c r="D51">
-        <v>514</v>
-      </c>
-      <c r="E51" s="2">
+      <c r="D51" s="2">
         <v>45028.36057641204</v>
       </c>
+      <c r="E51" t="s">
+        <v>152</v>
+      </c>
       <c r="F51" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G51" t="s">
-        <v>152</v>
-      </c>
-      <c r="H51" t="s">
-        <v>153</v>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L51" s="2">
         <v>45030.12891203703</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C52">
         <v>52</v>
       </c>
-      <c r="D52">
-        <v>578</v>
-      </c>
-      <c r="E52" s="2">
+      <c r="D52" s="2">
         <v>45028.36057641204</v>
       </c>
+      <c r="E52" t="s">
+        <v>152</v>
+      </c>
       <c r="F52" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G52" t="s">
-        <v>152</v>
-      </c>
-      <c r="H52" t="s">
-        <v>153</v>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L52" s="2">
         <v>45030.12891203703</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C53">
         <v>52</v>
       </c>
-      <c r="D53">
-        <v>616</v>
-      </c>
-      <c r="E53" s="2">
+      <c r="D53" s="2">
         <v>45028.36057641204</v>
       </c>
+      <c r="E53" t="s">
+        <v>152</v>
+      </c>
       <c r="F53" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G53" t="s">
-        <v>152</v>
-      </c>
-      <c r="H53" t="s">
-        <v>153</v>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L53" s="2">
         <v>45030.12891203703</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C54">
         <v>52</v>
       </c>
-      <c r="D54">
-        <v>1756</v>
-      </c>
-      <c r="E54" s="2">
+      <c r="D54" s="2">
         <v>45028.36057641204</v>
       </c>
+      <c r="E54" t="s">
+        <v>152</v>
+      </c>
       <c r="F54" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G54" t="s">
-        <v>152</v>
-      </c>
-      <c r="H54" t="s">
-        <v>153</v>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L54" s="2">
         <v>45030.12891203703</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C55">
         <v>52</v>
       </c>
-      <c r="D55">
-        <v>1714</v>
-      </c>
-      <c r="E55" s="2">
+      <c r="D55" s="2">
         <v>45028.36057641204</v>
       </c>
+      <c r="E55" t="s">
+        <v>152</v>
+      </c>
       <c r="F55" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G55" t="s">
-        <v>152</v>
-      </c>
-      <c r="H55" t="s">
-        <v>153</v>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L55" s="2">
         <v>45030.12891203703</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C56">
         <v>52</v>
       </c>
-      <c r="D56">
-        <v>275.9</v>
-      </c>
-      <c r="E56" s="2">
+      <c r="D56" s="2">
         <v>45028.36057641204</v>
       </c>
+      <c r="E56" t="s">
+        <v>152</v>
+      </c>
       <c r="F56" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G56" t="s">
-        <v>152</v>
-      </c>
-      <c r="H56" t="s">
-        <v>153</v>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L56" s="2">
         <v>45030.12891203703</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56">
+        <v>275.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C57">
         <v>53</v>
       </c>
-      <c r="D57">
-        <v>16240</v>
-      </c>
-      <c r="E57" s="2">
+      <c r="D57" s="2">
         <v>45029.08377679398</v>
       </c>
+      <c r="E57" t="s">
+        <v>152</v>
+      </c>
       <c r="F57" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G57" t="s">
-        <v>152</v>
-      </c>
-      <c r="H57" t="s">
-        <v>153</v>
-      </c>
-      <c r="I57" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L57" s="2">
         <v>45029.30706018519</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57">
+        <v>16240</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C58">
         <v>54</v>
       </c>
-      <c r="D58">
-        <v>1000</v>
-      </c>
-      <c r="E58" s="2">
+      <c r="D58" s="2">
         <v>45029.13268450231</v>
       </c>
+      <c r="E58" t="s">
+        <v>152</v>
+      </c>
       <c r="F58" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G58" t="s">
-        <v>152</v>
-      </c>
-      <c r="H58" t="s">
-        <v>153</v>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L58" s="2">
         <v>45030.12561342592</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C59">
         <v>55</v>
       </c>
-      <c r="D59">
-        <v>61.24</v>
-      </c>
-      <c r="E59" s="2">
+      <c r="D59" s="2">
         <v>45029.30678756945</v>
       </c>
+      <c r="E59" t="s">
+        <v>152</v>
+      </c>
       <c r="F59" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G59" t="s">
-        <v>152</v>
-      </c>
-      <c r="H59" t="s">
-        <v>153</v>
-      </c>
-      <c r="I59" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L59" s="2">
         <v>45030.12925925926</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59">
+        <v>61.24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C60">
         <v>56</v>
       </c>
-      <c r="D60">
-        <v>1560.4</v>
-      </c>
-      <c r="E60" s="2">
+      <c r="D60" s="2">
         <v>45030.1025212963</v>
       </c>
+      <c r="E60" t="s">
+        <v>152</v>
+      </c>
       <c r="F60" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G60" t="s">
-        <v>152</v>
-      </c>
-      <c r="H60" t="s">
-        <v>153</v>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L60" s="2">
         <v>45041.17334490741</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60">
+        <v>1560.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C61">
         <v>57</v>
       </c>
-      <c r="D61">
-        <v>1327.68</v>
-      </c>
-      <c r="E61" s="2">
+      <c r="D61" s="2">
         <v>45030.12364082176</v>
       </c>
+      <c r="E61" t="s">
+        <v>152</v>
+      </c>
       <c r="F61" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G61" t="s">
-        <v>152</v>
-      </c>
-      <c r="H61" t="s">
-        <v>153</v>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L61" s="2">
         <v>45041.24361111111</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61">
+        <v>1327.68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C62">
         <v>58</v>
       </c>
-      <c r="D62">
-        <v>2909</v>
-      </c>
-      <c r="E62" s="2">
+      <c r="D62" s="2">
         <v>45030.12616524305</v>
       </c>
+      <c r="E62" t="s">
+        <v>152</v>
+      </c>
       <c r="F62" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G62" t="s">
-        <v>152</v>
-      </c>
-      <c r="H62" t="s">
-        <v>153</v>
-      </c>
-      <c r="I62" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L62" s="2">
         <v>45041.24334490741</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C63">
         <v>59</v>
       </c>
-      <c r="D63">
-        <v>50000</v>
-      </c>
-      <c r="E63" s="2">
+      <c r="D63" s="2">
         <v>45033.31081506945</v>
       </c>
+      <c r="E63" t="s">
+        <v>152</v>
+      </c>
       <c r="F63" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G63" t="s">
-        <v>152</v>
-      </c>
-      <c r="H63" t="s">
-        <v>153</v>
-      </c>
-      <c r="I63" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L63" s="2">
         <v>45041.10722222222</v>
       </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M63">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C64">
         <v>61</v>
       </c>
-      <c r="D64">
-        <v>550</v>
-      </c>
-      <c r="E64" s="2">
+      <c r="D64" s="2">
         <v>45034.09190111111</v>
       </c>
+      <c r="E64" t="s">
+        <v>152</v>
+      </c>
       <c r="F64" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G64" t="s">
-        <v>152</v>
-      </c>
-      <c r="H64" t="s">
-        <v>153</v>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L64" s="2">
         <v>45041.24263888889</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="M64">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C65">
         <v>63</v>
       </c>
-      <c r="D65">
-        <v>1000</v>
-      </c>
-      <c r="E65" s="2">
+      <c r="D65" s="2">
         <v>45034.09657179398</v>
       </c>
+      <c r="E65" t="s">
+        <v>152</v>
+      </c>
       <c r="F65" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G65" t="s">
-        <v>152</v>
-      </c>
-      <c r="H65" t="s">
-        <v>153</v>
-      </c>
-      <c r="I65" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L65" s="2">
         <v>45041.24222222222</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="M65">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C66">
         <v>64</v>
       </c>
-      <c r="D66">
-        <v>195</v>
-      </c>
-      <c r="E66" s="2">
+      <c r="D66" s="2">
         <v>45037.41429341435</v>
       </c>
+      <c r="E66" t="s">
+        <v>152</v>
+      </c>
       <c r="F66" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G66" t="s">
-        <v>152</v>
-      </c>
-      <c r="H66" t="s">
-        <v>153</v>
-      </c>
-      <c r="I66" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L66" s="2">
         <v>45041.24193287037</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="M66">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C67">
         <v>64</v>
       </c>
-      <c r="D67">
-        <v>2166</v>
-      </c>
-      <c r="E67" s="2">
+      <c r="D67" s="2">
         <v>45037.41429341435</v>
       </c>
+      <c r="E67" t="s">
+        <v>152</v>
+      </c>
       <c r="F67" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G67" t="s">
-        <v>152</v>
-      </c>
-      <c r="H67" t="s">
-        <v>153</v>
-      </c>
-      <c r="I67" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L67" s="2">
         <v>45041.24193287037</v>
       </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="M67">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C68">
         <v>65</v>
       </c>
-      <c r="D68">
-        <v>381</v>
-      </c>
-      <c r="E68" s="2">
+      <c r="D68" s="2">
         <v>45041.25260020833</v>
       </c>
+      <c r="E68" t="s">
+        <v>152</v>
+      </c>
       <c r="F68" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G68" t="s">
-        <v>152</v>
-      </c>
-      <c r="H68" t="s">
-        <v>153</v>
-      </c>
-      <c r="I68" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L68" s="2">
         <v>45044.27577425926</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="M68">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C69">
         <v>65</v>
       </c>
-      <c r="D69">
-        <v>9393</v>
-      </c>
-      <c r="E69" s="2">
+      <c r="D69" s="2">
         <v>45041.25260020833</v>
       </c>
+      <c r="E69" t="s">
+        <v>152</v>
+      </c>
       <c r="F69" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G69" t="s">
-        <v>152</v>
-      </c>
-      <c r="H69" t="s">
-        <v>153</v>
-      </c>
-      <c r="I69" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L69" s="2">
         <v>45044.27577425926</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="M69">
+        <v>9393</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C70">
         <v>66</v>
       </c>
-      <c r="D70">
-        <v>104143.94</v>
-      </c>
-      <c r="E70" s="2">
+      <c r="D70" s="2">
         <v>45041.08589238426</v>
       </c>
+      <c r="E70" t="s">
+        <v>152</v>
+      </c>
       <c r="F70" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G70" t="s">
-        <v>152</v>
-      </c>
-      <c r="H70" t="s">
-        <v>153</v>
-      </c>
-      <c r="I70" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L70" s="2">
         <v>45041.25344907407</v>
       </c>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="M70">
+        <v>104143.94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C71">
         <v>67</v>
       </c>
-      <c r="D71">
-        <v>3713</v>
-      </c>
-      <c r="E71" s="2">
+      <c r="D71" s="2">
         <v>45041.14769905093</v>
       </c>
+      <c r="E71" t="s">
+        <v>152</v>
+      </c>
       <c r="F71" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G71" t="s">
-        <v>152</v>
-      </c>
-      <c r="H71" t="s">
-        <v>153</v>
-      </c>
-      <c r="I71" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L71" s="2">
         <v>45041.17435185185</v>
       </c>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="M71">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C72">
         <v>69</v>
       </c>
-      <c r="D72">
-        <v>2264</v>
-      </c>
-      <c r="E72" s="2">
+      <c r="D72" s="2">
         <v>45041.15481517361</v>
       </c>
+      <c r="E72" t="s">
+        <v>152</v>
+      </c>
       <c r="F72" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G72" t="s">
-        <v>152</v>
-      </c>
-      <c r="H72" t="s">
-        <v>153</v>
-      </c>
-      <c r="I72" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H72" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L72" s="2">
         <v>45041.17418981482</v>
       </c>
-    </row>
-    <row r="73" spans="1:12">
+      <c r="M72">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C73">
         <v>71</v>
       </c>
-      <c r="D73">
-        <v>434</v>
-      </c>
-      <c r="E73" s="2">
+      <c r="D73" s="2">
         <v>45041.15605380787</v>
       </c>
+      <c r="E73" t="s">
+        <v>152</v>
+      </c>
       <c r="F73" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G73" t="s">
-        <v>152</v>
-      </c>
-      <c r="H73" t="s">
-        <v>153</v>
-      </c>
-      <c r="I73" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L73" s="2">
         <v>45041.17395833333</v>
       </c>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="M73">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C74">
         <v>73</v>
       </c>
-      <c r="D74">
-        <v>1867</v>
-      </c>
-      <c r="E74" s="2">
+      <c r="D74" s="2">
         <v>45041.15853665509</v>
       </c>
+      <c r="E74" t="s">
+        <v>152</v>
+      </c>
       <c r="F74" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G74" t="s">
-        <v>152</v>
-      </c>
-      <c r="H74" t="s">
-        <v>153</v>
-      </c>
-      <c r="I74" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L74" s="2">
         <v>45041.17366898148</v>
       </c>
-    </row>
-    <row r="75" spans="1:12">
+      <c r="M74">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B75" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C75">
         <v>74</v>
       </c>
-      <c r="D75">
-        <v>75863.66</v>
-      </c>
-      <c r="E75" s="2">
+      <c r="D75" s="2">
         <v>45041.26894695602</v>
       </c>
+      <c r="E75" t="s">
+        <v>152</v>
+      </c>
       <c r="F75" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G75" t="s">
-        <v>152</v>
-      </c>
-      <c r="H75" t="s">
-        <v>153</v>
-      </c>
-      <c r="I75" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L75" s="2">
         <v>45041.33967592593</v>
       </c>
-    </row>
-    <row r="76" spans="1:12">
+      <c r="M75">
+        <v>75863.66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C76">
         <v>76</v>
       </c>
-      <c r="D76">
-        <v>75863.66</v>
-      </c>
-      <c r="E76" s="2">
+      <c r="D76" s="2">
         <v>45041.32862275463</v>
       </c>
+      <c r="E76" t="s">
+        <v>152</v>
+      </c>
       <c r="F76" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G76" t="s">
-        <v>152</v>
-      </c>
-      <c r="H76" t="s">
-        <v>153</v>
-      </c>
-      <c r="I76" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L76" s="2">
         <v>45009.2529050926</v>
       </c>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="M76">
+        <v>75863.66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C77">
         <v>75</v>
       </c>
-      <c r="D77">
-        <v>1000</v>
-      </c>
-      <c r="E77" s="2">
+      <c r="D77" s="2">
         <v>45041.33003309028</v>
       </c>
+      <c r="E77" t="s">
+        <v>152</v>
+      </c>
       <c r="F77" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G77" t="s">
-        <v>152</v>
-      </c>
-      <c r="H77" t="s">
-        <v>153</v>
-      </c>
-      <c r="I77" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H77" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L77" s="2">
         <v>45005.25146990741</v>
       </c>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="M77">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B78" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C78">
         <v>78</v>
       </c>
-      <c r="D78">
-        <v>105074.92</v>
-      </c>
-      <c r="E78" s="2">
+      <c r="D78" s="2">
         <v>45041.33270197917</v>
       </c>
+      <c r="E78" t="s">
+        <v>152</v>
+      </c>
       <c r="F78" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G78" t="s">
-        <v>152</v>
-      </c>
-      <c r="H78" t="s">
-        <v>153</v>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L78" s="2">
         <v>45009.25109953704</v>
       </c>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="M78">
+        <v>105074.92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C79">
         <v>77</v>
       </c>
-      <c r="D79">
-        <v>44007</v>
-      </c>
-      <c r="E79" s="2">
+      <c r="D79" s="2">
         <v>45041.33632064815</v>
       </c>
+      <c r="E79" t="s">
+        <v>152</v>
+      </c>
       <c r="F79" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G79" t="s">
-        <v>152</v>
-      </c>
-      <c r="H79" t="s">
-        <v>153</v>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H79" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L79" s="2">
         <v>45036.25174768519</v>
       </c>
-    </row>
-    <row r="80" spans="1:12">
+      <c r="M79">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C80">
         <v>80</v>
       </c>
-      <c r="D80">
-        <v>48.98</v>
-      </c>
-      <c r="E80" s="2">
+      <c r="D80" s="2">
         <v>45041.35235954861</v>
       </c>
+      <c r="E80" t="s">
+        <v>152</v>
+      </c>
       <c r="F80" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G80" t="s">
-        <v>152</v>
-      </c>
-      <c r="H80" t="s">
-        <v>153</v>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L80" s="2">
         <v>45044.08099537037</v>
       </c>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="M80">
+        <v>48.98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C81">
         <v>80</v>
       </c>
-      <c r="D81">
-        <v>123.8</v>
-      </c>
-      <c r="E81" s="2">
+      <c r="D81" s="2">
         <v>45041.35235954861</v>
       </c>
+      <c r="E81" t="s">
+        <v>152</v>
+      </c>
       <c r="F81" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G81" t="s">
-        <v>152</v>
-      </c>
-      <c r="H81" t="s">
-        <v>153</v>
-      </c>
-      <c r="I81" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L81" s="2">
         <v>45044.08099537037</v>
       </c>
-    </row>
-    <row r="82" spans="1:12">
+      <c r="M81">
+        <v>123.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C82">
         <v>80</v>
       </c>
-      <c r="D82">
-        <v>120.62</v>
-      </c>
-      <c r="E82" s="2">
+      <c r="D82" s="2">
         <v>45041.35235954861</v>
       </c>
+      <c r="E82" t="s">
+        <v>152</v>
+      </c>
       <c r="F82" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G82" t="s">
-        <v>152</v>
-      </c>
-      <c r="H82" t="s">
-        <v>153</v>
-      </c>
-      <c r="I82" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L82" s="2">
         <v>45044.08099537037</v>
       </c>
-    </row>
-    <row r="83" spans="1:12">
+      <c r="M82">
+        <v>120.62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B83" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C83">
         <v>80</v>
       </c>
-      <c r="D83">
-        <v>122.28</v>
-      </c>
-      <c r="E83" s="2">
+      <c r="D83" s="2">
         <v>45041.35235954861</v>
       </c>
+      <c r="E83" t="s">
+        <v>152</v>
+      </c>
       <c r="F83" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G83" t="s">
-        <v>152</v>
-      </c>
-      <c r="H83" t="s">
-        <v>153</v>
-      </c>
-      <c r="I83" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L83" s="2">
         <v>45044.08099537037</v>
       </c>
-    </row>
-    <row r="84" spans="1:12">
+      <c r="M83">
+        <v>122.28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C84">
         <v>80</v>
       </c>
-      <c r="D84">
-        <v>500</v>
-      </c>
-      <c r="E84" s="2">
+      <c r="D84" s="2">
         <v>45041.35235954861</v>
       </c>
+      <c r="E84" t="s">
+        <v>152</v>
+      </c>
       <c r="F84" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G84" t="s">
-        <v>152</v>
-      </c>
-      <c r="H84" t="s">
-        <v>153</v>
-      </c>
-      <c r="I84" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L84" s="2">
         <v>45044.08099537037</v>
       </c>
-    </row>
-    <row r="85" spans="1:12">
+      <c r="M84">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C85">
         <v>81</v>
       </c>
-      <c r="D85">
-        <v>99908.99000000001</v>
-      </c>
-      <c r="E85" s="2">
+      <c r="D85" s="2">
         <v>45041.40291591435</v>
       </c>
+      <c r="E85" t="s">
+        <v>152</v>
+      </c>
       <c r="F85" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G85" t="s">
-        <v>152</v>
-      </c>
-      <c r="H85" t="s">
-        <v>153</v>
-      </c>
-      <c r="I85" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L85" s="2">
         <v>45044.0803125</v>
       </c>
-    </row>
-    <row r="86" spans="1:12">
+      <c r="M85">
+        <v>99908.99000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B86" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C86">
         <v>81</v>
       </c>
-      <c r="D86">
-        <v>13839.06</v>
-      </c>
-      <c r="E86" s="2">
+      <c r="D86" s="2">
         <v>45041.40291591435</v>
       </c>
+      <c r="E86" t="s">
+        <v>152</v>
+      </c>
       <c r="F86" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G86" t="s">
-        <v>152</v>
-      </c>
-      <c r="H86" t="s">
-        <v>153</v>
-      </c>
-      <c r="I86" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H86" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L86" s="2">
         <v>45044.0803125</v>
       </c>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="M86">
+        <v>13839.06</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B87" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C87">
         <v>81</v>
       </c>
-      <c r="D87">
-        <v>28161.71</v>
-      </c>
-      <c r="E87" s="2">
+      <c r="D87" s="2">
         <v>45041.40291591435</v>
       </c>
+      <c r="E87" t="s">
+        <v>152</v>
+      </c>
       <c r="F87" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G87" t="s">
-        <v>152</v>
-      </c>
-      <c r="H87" t="s">
-        <v>153</v>
-      </c>
-      <c r="I87" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H87" t="b">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L87" s="2">
         <v>45044.0803125</v>
       </c>
-    </row>
-    <row r="88" spans="1:12">
+      <c r="M87">
+        <v>28161.71</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C88">
         <v>82</v>
       </c>
-      <c r="D88">
-        <v>12</v>
-      </c>
-      <c r="E88" s="2">
+      <c r="D88" s="2">
         <v>45042.31861638889</v>
       </c>
+      <c r="E88" t="s">
+        <v>152</v>
+      </c>
       <c r="F88" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G88" t="s">
-        <v>152</v>
-      </c>
-      <c r="H88" t="s">
-        <v>153</v>
-      </c>
-      <c r="I88" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L88" s="2">
         <v>45044.07798611111</v>
       </c>
-    </row>
-    <row r="89" spans="1:12">
+      <c r="M88">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C89">
         <v>82</v>
       </c>
-      <c r="D89">
-        <v>81</v>
-      </c>
-      <c r="E89" s="2">
+      <c r="D89" s="2">
         <v>45042.31861638889</v>
       </c>
+      <c r="E89" t="s">
+        <v>152</v>
+      </c>
       <c r="F89" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G89" t="s">
-        <v>152</v>
-      </c>
-      <c r="H89" t="s">
-        <v>153</v>
-      </c>
-      <c r="I89" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L89" s="2">
         <v>45044.07798611111</v>
       </c>
-    </row>
-    <row r="90" spans="1:12">
+      <c r="M89">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B90" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C90">
         <v>84</v>
       </c>
-      <c r="D90">
-        <v>660</v>
-      </c>
-      <c r="E90" s="2">
+      <c r="D90" s="2">
         <v>45050.0959418287</v>
       </c>
+      <c r="E90" t="s">
+        <v>152</v>
+      </c>
       <c r="F90" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G90" t="s">
-        <v>152</v>
-      </c>
-      <c r="H90" t="s">
-        <v>153</v>
-      </c>
-      <c r="I90" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H90" t="b">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L90" s="2">
         <v>45079.39201362269</v>
       </c>
-    </row>
-    <row r="91" spans="1:12">
+      <c r="M90">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B91" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C91">
         <v>85</v>
       </c>
-      <c r="D91">
-        <v>4500</v>
-      </c>
-      <c r="E91" s="2">
+      <c r="D91" s="2">
         <v>45050.27470650463</v>
       </c>
+      <c r="E91" t="s">
+        <v>152</v>
+      </c>
       <c r="F91" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G91" t="s">
-        <v>152</v>
-      </c>
-      <c r="H91" t="s">
-        <v>153</v>
-      </c>
-      <c r="I91" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H91" t="b">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L91" s="2">
         <v>45054.12731481482</v>
       </c>
-    </row>
-    <row r="92" spans="1:12">
+      <c r="M91">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C92">
         <v>85</v>
       </c>
-      <c r="D92">
-        <v>3900</v>
-      </c>
-      <c r="E92" s="2">
+      <c r="D92" s="2">
         <v>45050.27470650463</v>
       </c>
+      <c r="E92" t="s">
+        <v>152</v>
+      </c>
       <c r="F92" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G92" t="s">
-        <v>152</v>
-      </c>
-      <c r="H92" t="s">
-        <v>153</v>
-      </c>
-      <c r="I92" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L92" s="2">
         <v>45054.12731481482</v>
       </c>
-    </row>
-    <row r="93" spans="1:12">
+      <c r="M92">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B93" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C93">
         <v>87</v>
       </c>
-      <c r="D93">
-        <v>299</v>
-      </c>
-      <c r="E93" s="2">
+      <c r="D93" s="2">
         <v>45051.29129493055</v>
       </c>
+      <c r="E93" t="s">
+        <v>152</v>
+      </c>
       <c r="F93" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G93" t="s">
-        <v>152</v>
-      </c>
-      <c r="H93" t="s">
-        <v>153</v>
-      </c>
-      <c r="I93" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L93" s="2">
         <v>45079.3917784375</v>
       </c>
-    </row>
-    <row r="94" spans="1:12">
+      <c r="M93">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B94" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C94">
         <v>87</v>
       </c>
-      <c r="D94">
-        <v>179</v>
-      </c>
-      <c r="E94" s="2">
+      <c r="D94" s="2">
         <v>45051.29129493055</v>
       </c>
+      <c r="E94" t="s">
+        <v>152</v>
+      </c>
       <c r="F94" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G94" t="s">
-        <v>152</v>
-      </c>
-      <c r="H94" t="s">
-        <v>153</v>
-      </c>
-      <c r="I94" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H94" t="b">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L94" s="2">
         <v>45079.3917784375</v>
       </c>
-    </row>
-    <row r="95" spans="1:12">
+      <c r="M94">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C95">
         <v>88</v>
       </c>
-      <c r="D95">
-        <v>80</v>
-      </c>
-      <c r="E95" s="2">
+      <c r="D95" s="2">
         <v>45052.09060202546</v>
       </c>
+      <c r="E95" t="s">
+        <v>152</v>
+      </c>
       <c r="F95" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G95" t="s">
-        <v>152</v>
-      </c>
-      <c r="H95" t="s">
-        <v>153</v>
-      </c>
-      <c r="I95" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L95" s="2">
         <v>45065.39373842593</v>
       </c>
-    </row>
-    <row r="96" spans="1:12">
+      <c r="M95">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C96">
         <v>90</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="2">
+        <v>45052.30855538195</v>
+      </c>
+      <c r="F96" t="s">
+        <v>153</v>
+      </c>
+      <c r="G96" t="s">
+        <v>154</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="M96">
         <v>894</v>
       </c>
-      <c r="E96" s="2">
-        <v>45052.30855538195</v>
-      </c>
-      <c r="G96" t="s">
-        <v>152</v>
-      </c>
-      <c r="H96" t="s">
-        <v>153</v>
-      </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C97">
         <v>90</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="2">
+        <v>45052.30855538195</v>
+      </c>
+      <c r="F97" t="s">
+        <v>153</v>
+      </c>
+      <c r="G97" t="s">
+        <v>154</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="M97">
         <v>2357.5</v>
       </c>
-      <c r="E97" s="2">
-        <v>45052.30855538195</v>
-      </c>
-      <c r="G97" t="s">
-        <v>152</v>
-      </c>
-      <c r="H97" t="s">
-        <v>153</v>
-      </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B98" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C98">
         <v>90</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="2">
+        <v>45052.30855538195</v>
+      </c>
+      <c r="F98" t="s">
+        <v>153</v>
+      </c>
+      <c r="G98" t="s">
+        <v>154</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="M98">
         <v>1220</v>
       </c>
-      <c r="E98" s="2">
-        <v>45052.30855538195</v>
-      </c>
-      <c r="G98" t="s">
-        <v>152</v>
-      </c>
-      <c r="H98" t="s">
-        <v>153</v>
-      </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C99">
         <v>89</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="2">
+        <v>45052.31146744213</v>
+      </c>
+      <c r="F99" t="s">
+        <v>153</v>
+      </c>
+      <c r="G99" t="s">
+        <v>154</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="M99">
         <v>894</v>
       </c>
-      <c r="E99" s="2">
-        <v>45052.31146744213</v>
-      </c>
-      <c r="G99" t="s">
-        <v>152</v>
-      </c>
-      <c r="H99" t="s">
-        <v>153</v>
-      </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C100">
         <v>89</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="2">
+        <v>45052.31146744213</v>
+      </c>
+      <c r="F100" t="s">
+        <v>153</v>
+      </c>
+      <c r="G100" t="s">
+        <v>154</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="M100">
         <v>2357.5</v>
       </c>
-      <c r="E100" s="2">
-        <v>45052.31146744213</v>
-      </c>
-      <c r="G100" t="s">
-        <v>152</v>
-      </c>
-      <c r="H100" t="s">
-        <v>153</v>
-      </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C101">
         <v>89</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="2">
+        <v>45052.31146744213</v>
+      </c>
+      <c r="F101" t="s">
+        <v>153</v>
+      </c>
+      <c r="G101" t="s">
+        <v>154</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="M101">
         <v>1220</v>
       </c>
-      <c r="E101" s="2">
-        <v>45052.31146744213</v>
-      </c>
-      <c r="G101" t="s">
-        <v>152</v>
-      </c>
-      <c r="H101" t="s">
-        <v>153</v>
-      </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C102">
         <v>92</v>
       </c>
-      <c r="D102">
-        <v>894</v>
-      </c>
-      <c r="E102" s="2">
+      <c r="D102" s="2">
         <v>45062.12186709491</v>
       </c>
+      <c r="E102" t="s">
+        <v>152</v>
+      </c>
       <c r="F102" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G102" t="s">
-        <v>152</v>
-      </c>
-      <c r="H102" t="s">
-        <v>153</v>
-      </c>
-      <c r="I102" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H102" t="b">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L102" s="2">
         <v>45065.39484953704</v>
       </c>
-    </row>
-    <row r="103" spans="1:12">
+      <c r="M102">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C103">
         <v>92</v>
       </c>
-      <c r="D103">
-        <v>2357.5</v>
-      </c>
-      <c r="E103" s="2">
+      <c r="D103" s="2">
         <v>45062.12186709491</v>
       </c>
+      <c r="E103" t="s">
+        <v>152</v>
+      </c>
       <c r="F103" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G103" t="s">
-        <v>152</v>
-      </c>
-      <c r="H103" t="s">
-        <v>153</v>
-      </c>
-      <c r="I103" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L103" s="2">
         <v>45065.39484953704</v>
       </c>
-    </row>
-    <row r="104" spans="1:12">
+      <c r="M103">
+        <v>2357.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B104" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C104">
         <v>92</v>
       </c>
-      <c r="D104">
-        <v>1220</v>
-      </c>
-      <c r="E104" s="2">
+      <c r="D104" s="2">
         <v>45062.12186709491</v>
       </c>
+      <c r="E104" t="s">
+        <v>152</v>
+      </c>
       <c r="F104" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G104" t="s">
-        <v>152</v>
-      </c>
-      <c r="H104" t="s">
-        <v>153</v>
-      </c>
-      <c r="I104" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L104" s="2">
         <v>45065.39484953704</v>
       </c>
-    </row>
-    <row r="105" spans="1:12">
+      <c r="M104">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B105" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C105">
         <v>93</v>
       </c>
-      <c r="D105">
-        <v>365.18</v>
-      </c>
-      <c r="E105" s="2">
+      <c r="D105" s="2">
         <v>45055.16018915509</v>
       </c>
+      <c r="E105" t="s">
+        <v>152</v>
+      </c>
       <c r="F105" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G105" t="s">
-        <v>152</v>
-      </c>
-      <c r="H105" t="s">
-        <v>153</v>
-      </c>
-      <c r="I105" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H105" t="b">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L105" s="2">
         <v>45065.39570601852</v>
       </c>
-    </row>
-    <row r="106" spans="1:12">
+      <c r="M105">
+        <v>365.18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B106" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C106">
         <v>94</v>
       </c>
-      <c r="D106">
-        <v>127125</v>
-      </c>
-      <c r="E106" s="2">
+      <c r="D106" s="2">
         <v>45055.36672283565</v>
       </c>
+      <c r="E106" t="s">
+        <v>152</v>
+      </c>
       <c r="F106" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G106" t="s">
-        <v>152</v>
-      </c>
-      <c r="H106" t="s">
-        <v>153</v>
-      </c>
-      <c r="I106" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H106" t="b">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L106" s="2">
         <v>45056.33758101852</v>
       </c>
-    </row>
-    <row r="107" spans="1:12">
+      <c r="M106">
+        <v>127125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C107">
         <v>96</v>
       </c>
-      <c r="D107">
-        <v>45000</v>
-      </c>
-      <c r="E107" s="2">
+      <c r="D107" s="2">
         <v>45056.37656032408</v>
       </c>
+      <c r="E107" t="s">
+        <v>152</v>
+      </c>
       <c r="F107" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G107" t="s">
-        <v>152</v>
-      </c>
-      <c r="H107" t="s">
-        <v>153</v>
-      </c>
-      <c r="I107" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H107" t="b">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L107" s="2">
         <v>45057.11587962963</v>
       </c>
-    </row>
-    <row r="108" spans="1:12">
+      <c r="M107">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C108">
         <v>98</v>
       </c>
-      <c r="D108">
-        <v>16000</v>
-      </c>
-      <c r="E108" s="2">
+      <c r="D108" s="2">
         <v>45056.34481953704</v>
       </c>
+      <c r="E108" t="s">
+        <v>152</v>
+      </c>
       <c r="F108" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G108" t="s">
-        <v>152</v>
-      </c>
-      <c r="H108" t="s">
-        <v>153</v>
-      </c>
-      <c r="I108" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H108" t="b">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L108" s="2">
         <v>45057.11559027778</v>
       </c>
-    </row>
-    <row r="109" spans="1:12">
+      <c r="M108">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C109">
         <v>100</v>
       </c>
-      <c r="D109">
-        <v>1826.11</v>
-      </c>
-      <c r="E109" s="2">
+      <c r="D109" s="2">
         <v>45056.39550530093</v>
       </c>
+      <c r="E109" t="s">
+        <v>152</v>
+      </c>
       <c r="F109" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G109" t="s">
-        <v>152</v>
-      </c>
-      <c r="H109" t="s">
-        <v>153</v>
-      </c>
-      <c r="I109" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H109" t="b">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K109" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L109" s="2">
         <v>45057.11523148148</v>
       </c>
-    </row>
-    <row r="110" spans="1:12">
+      <c r="M109">
+        <v>1826.11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C110">
         <v>101</v>
       </c>
-      <c r="D110">
-        <v>7500000</v>
-      </c>
-      <c r="E110" s="2">
+      <c r="D110" s="2">
         <v>45057.09767015046</v>
       </c>
+      <c r="E110" t="s">
+        <v>152</v>
+      </c>
       <c r="F110" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G110" t="s">
-        <v>152</v>
-      </c>
-      <c r="H110" t="s">
-        <v>153</v>
-      </c>
-      <c r="I110" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L110" s="2">
         <v>45057.11505787037</v>
       </c>
-    </row>
-    <row r="111" spans="1:12">
+      <c r="M110">
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C111">
         <v>101</v>
       </c>
-      <c r="D111">
-        <v>181450</v>
-      </c>
-      <c r="E111" s="2">
+      <c r="D111" s="2">
         <v>45057.09767015046</v>
       </c>
+      <c r="E111" t="s">
+        <v>152</v>
+      </c>
       <c r="F111" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G111" t="s">
-        <v>152</v>
-      </c>
-      <c r="H111" t="s">
-        <v>153</v>
-      </c>
-      <c r="I111" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H111" t="b">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L111" s="2">
         <v>45057.11505787037</v>
       </c>
-    </row>
-    <row r="112" spans="1:12">
+      <c r="M111">
+        <v>181450</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B112" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C112">
         <v>104</v>
       </c>
-      <c r="D112">
-        <v>2261</v>
-      </c>
-      <c r="E112" s="2">
+      <c r="D112" s="2">
         <v>45062.28582356482</v>
       </c>
+      <c r="E112" t="s">
+        <v>152</v>
+      </c>
       <c r="F112" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G112" t="s">
-        <v>152</v>
-      </c>
-      <c r="H112" t="s">
-        <v>153</v>
-      </c>
-      <c r="I112" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H112" t="b">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L112" s="2">
         <v>45065.39608796296</v>
       </c>
-    </row>
-    <row r="113" spans="1:12">
+      <c r="M112">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B113" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C113">
         <v>106</v>
       </c>
-      <c r="D113">
-        <v>1000</v>
-      </c>
-      <c r="E113" s="2">
+      <c r="D113" s="2">
         <v>45061.26449304398</v>
       </c>
+      <c r="E113" t="s">
+        <v>152</v>
+      </c>
       <c r="F113" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G113" t="s">
-        <v>152</v>
-      </c>
-      <c r="H113" t="s">
-        <v>153</v>
-      </c>
-      <c r="I113" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H113" t="b">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L113" s="2">
         <v>45061.3546412037</v>
       </c>
-    </row>
-    <row r="114" spans="1:12">
+      <c r="M113">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C114">
         <v>111</v>
       </c>
-      <c r="D114">
-        <v>16240</v>
-      </c>
-      <c r="E114" s="2">
+      <c r="D114" s="2">
         <v>45062.09768309028</v>
       </c>
+      <c r="E114" t="s">
+        <v>152</v>
+      </c>
       <c r="F114" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G114" t="s">
-        <v>152</v>
-      </c>
-      <c r="H114" t="s">
-        <v>153</v>
-      </c>
-      <c r="I114" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H114" t="b">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L114" s="2">
         <v>45062.15226851852</v>
       </c>
-    </row>
-    <row r="115" spans="1:12">
+      <c r="M114">
+        <v>16240</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C115">
         <v>115</v>
       </c>
-      <c r="D115">
-        <v>44006.98</v>
-      </c>
-      <c r="E115" s="2">
+      <c r="D115" s="2">
         <v>45062.10104034722</v>
       </c>
+      <c r="E115" t="s">
+        <v>152</v>
+      </c>
       <c r="F115" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G115" t="s">
-        <v>152</v>
-      </c>
-      <c r="H115" t="s">
-        <v>153</v>
-      </c>
-      <c r="I115" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H115" t="b">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L115" s="2">
         <v>45062.15188657407</v>
       </c>
-    </row>
-    <row r="116" spans="1:12">
+      <c r="M115">
+        <v>44006.98</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C116">
         <v>117</v>
       </c>
-      <c r="D116">
-        <v>3651</v>
-      </c>
-      <c r="E116" s="2">
+      <c r="D116" s="2">
         <v>45063.09152335648</v>
       </c>
+      <c r="E116" t="s">
+        <v>152</v>
+      </c>
       <c r="F116" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G116" t="s">
-        <v>152</v>
-      </c>
-      <c r="H116" t="s">
-        <v>153</v>
-      </c>
-      <c r="I116" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H116" t="b">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L116" s="2">
         <v>45065.39636574074</v>
       </c>
-    </row>
-    <row r="117" spans="1:12">
+      <c r="M116">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C117">
         <v>117</v>
       </c>
-      <c r="D117">
-        <v>66.83</v>
-      </c>
-      <c r="E117" s="2">
+      <c r="D117" s="2">
         <v>45063.09152335648</v>
       </c>
+      <c r="E117" t="s">
+        <v>152</v>
+      </c>
       <c r="F117" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G117" t="s">
-        <v>152</v>
-      </c>
-      <c r="H117" t="s">
-        <v>153</v>
-      </c>
-      <c r="I117" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H117" t="b">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K117" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L117" s="2">
         <v>45065.39636574074</v>
       </c>
-    </row>
-    <row r="118" spans="1:12">
+      <c r="M117">
+        <v>66.83</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B118" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C118">
         <v>118</v>
       </c>
-      <c r="D118">
-        <v>1751.54</v>
-      </c>
-      <c r="E118" s="2">
+      <c r="D118" s="2">
         <v>45063.16619079861</v>
       </c>
+      <c r="E118" t="s">
+        <v>152</v>
+      </c>
       <c r="F118" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G118" t="s">
-        <v>152</v>
-      </c>
-      <c r="H118" t="s">
-        <v>153</v>
-      </c>
-      <c r="I118" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H118" t="b">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K118" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L118" s="2">
         <v>45065.39671296296</v>
       </c>
-    </row>
-    <row r="119" spans="1:12">
+      <c r="M118">
+        <v>1751.54</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B119" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C119">
         <v>118</v>
       </c>
-      <c r="D119">
-        <v>5364</v>
-      </c>
-      <c r="E119" s="2">
+      <c r="D119" s="2">
         <v>45063.16619079861</v>
       </c>
+      <c r="E119" t="s">
+        <v>152</v>
+      </c>
       <c r="F119" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G119" t="s">
-        <v>152</v>
-      </c>
-      <c r="H119" t="s">
-        <v>153</v>
-      </c>
-      <c r="I119" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H119" t="b">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L119" s="2">
         <v>45065.39671296296</v>
       </c>
-    </row>
-    <row r="120" spans="1:12">
+      <c r="M119">
+        <v>5364</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B120" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C120">
         <v>118</v>
       </c>
-      <c r="D120">
-        <v>451.7</v>
-      </c>
-      <c r="E120" s="2">
+      <c r="D120" s="2">
         <v>45063.16619079861</v>
       </c>
+      <c r="E120" t="s">
+        <v>152</v>
+      </c>
       <c r="F120" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G120" t="s">
-        <v>152</v>
-      </c>
-      <c r="H120" t="s">
-        <v>153</v>
-      </c>
-      <c r="I120" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H120" t="b">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K120" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L120" s="2">
         <v>45065.39671296296</v>
       </c>
-    </row>
-    <row r="121" spans="1:12">
+      <c r="M120">
+        <v>451.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B121" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C121">
         <v>118</v>
       </c>
-      <c r="D121">
-        <v>5340</v>
-      </c>
-      <c r="E121" s="2">
+      <c r="D121" s="2">
         <v>45063.16619079861</v>
       </c>
+      <c r="E121" t="s">
+        <v>152</v>
+      </c>
       <c r="F121" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G121" t="s">
-        <v>152</v>
-      </c>
-      <c r="H121" t="s">
-        <v>153</v>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H121" t="b">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K121" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L121" s="2">
         <v>45065.39671296296</v>
       </c>
-    </row>
-    <row r="122" spans="1:12">
+      <c r="M121">
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B122" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C122">
         <v>120</v>
       </c>
-      <c r="D122">
-        <v>1703</v>
-      </c>
-      <c r="E122" s="2">
+      <c r="D122" s="2">
         <v>45063.25902819444</v>
       </c>
+      <c r="E122" t="s">
+        <v>152</v>
+      </c>
       <c r="F122" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G122" t="s">
-        <v>152</v>
-      </c>
-      <c r="H122" t="s">
-        <v>153</v>
-      </c>
-      <c r="I122" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H122" t="b">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K122" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L122" s="2">
         <v>45065.39842592592</v>
       </c>
-    </row>
-    <row r="123" spans="1:12">
+      <c r="M122">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B123" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C123">
         <v>120</v>
       </c>
-      <c r="D123">
-        <v>1702.51</v>
-      </c>
-      <c r="E123" s="2">
+      <c r="D123" s="2">
         <v>45063.25902819444</v>
       </c>
+      <c r="E123" t="s">
+        <v>152</v>
+      </c>
       <c r="F123" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G123" t="s">
-        <v>152</v>
-      </c>
-      <c r="H123" t="s">
-        <v>153</v>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H123" t="b">
+        <v>1</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K123" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L123" s="2">
         <v>45065.39842592592</v>
       </c>
-    </row>
-    <row r="124" spans="1:12">
+      <c r="M123">
+        <v>1702.51</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B124" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C124">
         <v>122</v>
       </c>
-      <c r="D124">
-        <v>550</v>
-      </c>
-      <c r="E124" s="2">
+      <c r="D124" s="2">
         <v>45064.113225625</v>
       </c>
+      <c r="E124" t="s">
+        <v>152</v>
+      </c>
       <c r="F124" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G124" t="s">
-        <v>152</v>
-      </c>
-      <c r="H124" t="s">
-        <v>153</v>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H124" t="b">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L124" s="2">
         <v>45065.33899305556</v>
       </c>
-    </row>
-    <row r="125" spans="1:12">
+      <c r="M124">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B125" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C125">
         <v>124</v>
       </c>
-      <c r="D125">
-        <v>1000</v>
-      </c>
-      <c r="E125" s="2">
+      <c r="D125" s="2">
         <v>45064.11419769676</v>
       </c>
+      <c r="E125" t="s">
+        <v>152</v>
+      </c>
       <c r="F125" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G125" t="s">
-        <v>152</v>
-      </c>
-      <c r="H125" t="s">
-        <v>153</v>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H125" t="b">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K125" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L125" s="2">
         <v>45065.33873842593</v>
       </c>
-    </row>
-    <row r="126" spans="1:12">
+      <c r="M125">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B126" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C126">
         <v>126</v>
       </c>
-      <c r="D126">
-        <v>481</v>
-      </c>
-      <c r="E126" s="2">
+      <c r="D126" s="2">
         <v>45064.34021627315</v>
       </c>
+      <c r="E126" t="s">
+        <v>152</v>
+      </c>
       <c r="F126" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G126" t="s">
-        <v>152</v>
-      </c>
-      <c r="H126" t="s">
-        <v>153</v>
-      </c>
-      <c r="I126" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H126" t="b">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L126" s="2">
         <v>45065.39864583333</v>
       </c>
-    </row>
-    <row r="127" spans="1:12">
+      <c r="M126">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C127">
         <v>128</v>
       </c>
-      <c r="D127">
-        <v>83</v>
-      </c>
-      <c r="E127" s="2">
+      <c r="D127" s="2">
         <v>45064.34519577547</v>
       </c>
+      <c r="E127" t="s">
+        <v>152</v>
+      </c>
       <c r="F127" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G127" t="s">
-        <v>152</v>
-      </c>
-      <c r="H127" t="s">
-        <v>153</v>
-      </c>
-      <c r="I127" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H127" t="b">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L127" s="2">
         <v>45065.39938657408</v>
       </c>
-    </row>
-    <row r="128" spans="1:12">
+      <c r="M127">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B128" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C128">
         <v>130</v>
       </c>
-      <c r="D128">
-        <v>716</v>
-      </c>
-      <c r="E128" s="2">
+      <c r="D128" s="2">
         <v>45070.30361276621</v>
       </c>
+      <c r="E128" t="s">
+        <v>152</v>
+      </c>
       <c r="F128" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G128" t="s">
-        <v>152</v>
-      </c>
-      <c r="H128" t="s">
-        <v>153</v>
-      </c>
-      <c r="I128" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H128" t="b">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L128" s="2">
         <v>45079.25689814815</v>
       </c>
-    </row>
-    <row r="129" spans="1:12">
+      <c r="M128">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B129" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C129">
         <v>132</v>
       </c>
-      <c r="D129">
-        <v>98309.63</v>
-      </c>
-      <c r="E129" s="2">
+      <c r="D129" s="2">
         <v>45072.2817774537</v>
       </c>
+      <c r="E129" t="s">
+        <v>152</v>
+      </c>
       <c r="F129" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G129" t="s">
-        <v>152</v>
-      </c>
-      <c r="H129" t="s">
-        <v>153</v>
-      </c>
-      <c r="I129" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H129" t="b">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L129" s="2">
         <v>45071.29583333333</v>
       </c>
-    </row>
-    <row r="130" spans="1:12">
+      <c r="M129">
+        <v>98309.63</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B130" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C130">
         <v>134</v>
       </c>
-      <c r="D130">
-        <v>75863.59</v>
-      </c>
-      <c r="E130" s="2">
+      <c r="D130" s="2">
         <v>45071.0833384375</v>
       </c>
+      <c r="E130" t="s">
+        <v>152</v>
+      </c>
       <c r="F130" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G130" t="s">
-        <v>152</v>
-      </c>
-      <c r="H130" t="s">
-        <v>154</v>
-      </c>
-      <c r="I130" t="b">
-        <v>1</v>
+        <v>155</v>
+      </c>
+      <c r="H130" t="b">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K130" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L130" s="2">
         <v>45071.28740740741</v>
       </c>
-    </row>
-    <row r="131" spans="1:12">
+      <c r="M130">
+        <v>75863.59</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B131" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C131">
         <v>138</v>
       </c>
-      <c r="D131">
-        <v>75863.59</v>
-      </c>
-      <c r="E131" s="2">
+      <c r="D131" s="2">
         <v>45071.08490408565</v>
       </c>
+      <c r="E131" t="s">
+        <v>152</v>
+      </c>
       <c r="F131" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G131" t="s">
-        <v>152</v>
-      </c>
-      <c r="H131" t="s">
-        <v>154</v>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
+        <v>155</v>
+      </c>
+      <c r="H131" t="b">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K131" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L131" s="2">
         <v>45071.28775017361</v>
       </c>
-    </row>
-    <row r="132" spans="1:12">
+      <c r="M131">
+        <v>75863.59</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B132" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C132">
         <v>140</v>
       </c>
-      <c r="D132">
-        <v>14.02</v>
-      </c>
-      <c r="E132" s="2">
+      <c r="D132" s="2">
         <v>45072.3031109375</v>
       </c>
+      <c r="E132" t="s">
+        <v>152</v>
+      </c>
       <c r="F132" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G132" t="s">
-        <v>152</v>
-      </c>
-      <c r="H132" t="s">
-        <v>153</v>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H132" t="b">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K132" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L132" s="2">
         <v>45079.25763888889</v>
       </c>
-    </row>
-    <row r="133" spans="1:12">
+      <c r="M132">
+        <v>14.02</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B133" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C133">
         <v>140</v>
       </c>
-      <c r="D133">
-        <v>59.88</v>
-      </c>
-      <c r="E133" s="2">
+      <c r="D133" s="2">
         <v>45072.3031109375</v>
       </c>
+      <c r="E133" t="s">
+        <v>152</v>
+      </c>
       <c r="F133" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G133" t="s">
-        <v>152</v>
-      </c>
-      <c r="H133" t="s">
-        <v>153</v>
-      </c>
-      <c r="I133" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H133" t="b">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K133" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L133" s="2">
         <v>45079.25763888889</v>
       </c>
-    </row>
-    <row r="134" spans="1:12">
+      <c r="M133">
+        <v>59.88</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B134" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C134">
         <v>140</v>
       </c>
-      <c r="D134">
-        <v>400</v>
-      </c>
-      <c r="E134" s="2">
+      <c r="D134" s="2">
         <v>45072.3031109375</v>
       </c>
+      <c r="E134" t="s">
+        <v>152</v>
+      </c>
       <c r="F134" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G134" t="s">
-        <v>152</v>
-      </c>
-      <c r="H134" t="s">
-        <v>153</v>
-      </c>
-      <c r="I134" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H134" t="b">
+        <v>1</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L134" s="2">
         <v>45079.25763888889</v>
       </c>
-    </row>
-    <row r="135" spans="1:12">
+      <c r="M134">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B135" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C135">
         <v>140</v>
       </c>
-      <c r="D135">
-        <v>122.2</v>
-      </c>
-      <c r="E135" s="2">
+      <c r="D135" s="2">
         <v>45072.3031109375</v>
       </c>
+      <c r="E135" t="s">
+        <v>152</v>
+      </c>
       <c r="F135" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G135" t="s">
-        <v>152</v>
-      </c>
-      <c r="H135" t="s">
-        <v>153</v>
-      </c>
-      <c r="I135" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H135" t="b">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
       </c>
       <c r="J135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K135" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L135" s="2">
         <v>45079.25763888889</v>
       </c>
-    </row>
-    <row r="136" spans="1:12">
+      <c r="M135">
+        <v>122.2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B136" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C136">
         <v>140</v>
       </c>
-      <c r="D136">
-        <v>62.09</v>
-      </c>
-      <c r="E136" s="2">
+      <c r="D136" s="2">
         <v>45072.3031109375</v>
       </c>
+      <c r="E136" t="s">
+        <v>152</v>
+      </c>
       <c r="F136" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G136" t="s">
-        <v>152</v>
-      </c>
-      <c r="H136" t="s">
-        <v>153</v>
-      </c>
-      <c r="I136" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H136" t="b">
+        <v>1</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K136" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L136" s="2">
         <v>45079.25763888889</v>
       </c>
-    </row>
-    <row r="137" spans="1:12">
+      <c r="M136">
+        <v>62.09</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B137" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C137">
         <v>140</v>
       </c>
-      <c r="D137">
-        <v>500</v>
-      </c>
-      <c r="E137" s="2">
+      <c r="D137" s="2">
         <v>45072.3031109375</v>
       </c>
+      <c r="E137" t="s">
+        <v>152</v>
+      </c>
       <c r="F137" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G137" t="s">
-        <v>152</v>
-      </c>
-      <c r="H137" t="s">
-        <v>153</v>
-      </c>
-      <c r="I137" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H137" t="b">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K137" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L137" s="2">
         <v>45079.25763888889</v>
       </c>
-    </row>
-    <row r="138" spans="1:12">
+      <c r="M137">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B138" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C138">
         <v>142</v>
       </c>
-      <c r="D138">
-        <v>229</v>
-      </c>
-      <c r="E138" s="2">
+      <c r="D138" s="2">
         <v>45075.34471542824</v>
       </c>
+      <c r="E138" t="s">
+        <v>152</v>
+      </c>
       <c r="F138" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G138" t="s">
-        <v>152</v>
-      </c>
-      <c r="H138" t="s">
-        <v>153</v>
-      </c>
-      <c r="I138" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H138" t="b">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L138" s="2">
         <v>45079.25842592592</v>
       </c>
-    </row>
-    <row r="139" spans="1:12">
+      <c r="M138">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B139" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C139">
         <v>142</v>
       </c>
-      <c r="D139">
-        <v>868</v>
-      </c>
-      <c r="E139" s="2">
+      <c r="D139" s="2">
         <v>45075.34471542824</v>
       </c>
+      <c r="E139" t="s">
+        <v>152</v>
+      </c>
       <c r="F139" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G139" t="s">
-        <v>152</v>
-      </c>
-      <c r="H139" t="s">
-        <v>153</v>
-      </c>
-      <c r="I139" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H139" t="b">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
       </c>
       <c r="J139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K139" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L139" s="2">
         <v>45079.25842592592</v>
       </c>
-    </row>
-    <row r="140" spans="1:12">
+      <c r="M139">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B140" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C140">
         <v>142</v>
       </c>
-      <c r="D140">
-        <v>735</v>
-      </c>
-      <c r="E140" s="2">
+      <c r="D140" s="2">
         <v>45075.34471542824</v>
       </c>
+      <c r="E140" t="s">
+        <v>152</v>
+      </c>
       <c r="F140" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G140" t="s">
-        <v>152</v>
-      </c>
-      <c r="H140" t="s">
-        <v>153</v>
-      </c>
-      <c r="I140" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H140" t="b">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
       </c>
       <c r="J140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K140" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L140" s="2">
         <v>45079.25842592592</v>
       </c>
-    </row>
-    <row r="141" spans="1:12">
+      <c r="M140">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B141" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C141">
         <v>142</v>
       </c>
-      <c r="D141">
-        <v>40</v>
-      </c>
-      <c r="E141" s="2">
+      <c r="D141" s="2">
         <v>45075.34471542824</v>
       </c>
+      <c r="E141" t="s">
+        <v>152</v>
+      </c>
       <c r="F141" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G141" t="s">
-        <v>152</v>
-      </c>
-      <c r="H141" t="s">
-        <v>153</v>
-      </c>
-      <c r="I141" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H141" t="b">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K141" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L141" s="2">
         <v>45079.25842592592</v>
       </c>
-    </row>
-    <row r="142" spans="1:12">
+      <c r="M141">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B142" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C142">
         <v>142</v>
       </c>
-      <c r="D142">
-        <v>340</v>
-      </c>
-      <c r="E142" s="2">
+      <c r="D142" s="2">
         <v>45075.34471542824</v>
       </c>
+      <c r="E142" t="s">
+        <v>152</v>
+      </c>
       <c r="F142" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G142" t="s">
-        <v>152</v>
-      </c>
-      <c r="H142" t="s">
-        <v>153</v>
-      </c>
-      <c r="I142" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H142" t="b">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
       </c>
       <c r="J142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L142" s="2">
         <v>45079.25842592592</v>
       </c>
-    </row>
-    <row r="143" spans="1:12">
+      <c r="M142">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B143" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C143">
         <v>142</v>
       </c>
-      <c r="D143">
-        <v>200</v>
-      </c>
-      <c r="E143" s="2">
+      <c r="D143" s="2">
         <v>45075.34471542824</v>
       </c>
+      <c r="E143" t="s">
+        <v>152</v>
+      </c>
       <c r="F143" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G143" t="s">
-        <v>152</v>
-      </c>
-      <c r="H143" t="s">
-        <v>153</v>
-      </c>
-      <c r="I143" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H143" t="b">
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
       </c>
       <c r="J143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K143" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L143" s="2">
         <v>45079.25842592592</v>
       </c>
-    </row>
-    <row r="144" spans="1:12">
+      <c r="M143">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B144" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C144">
         <v>142</v>
       </c>
-      <c r="D144">
-        <v>50</v>
-      </c>
-      <c r="E144" s="2">
+      <c r="D144" s="2">
         <v>45075.34471542824</v>
       </c>
+      <c r="E144" t="s">
+        <v>152</v>
+      </c>
       <c r="F144" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G144" t="s">
-        <v>152</v>
-      </c>
-      <c r="H144" t="s">
-        <v>153</v>
-      </c>
-      <c r="I144" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="H144" t="b">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
       </c>
       <c r="J144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K144" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L144" s="2">
         <v>45079.25842592592</v>
+      </c>
+      <c r="M144">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/hans/df_expense_table_cells.xlsx
+++ b/hans/df_expense_table_cells.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="205">
   <si>
     <t>资金类别</t>
   </si>
@@ -55,6 +55,9 @@
     <t>银行日期</t>
   </si>
   <si>
+    <t>付款金额</t>
+  </si>
+  <si>
     <t>5501.13-招待费</t>
   </si>
   <si>
@@ -89,6 +92,12 @@
   </si>
   <si>
     <t xml:space="preserve">5502.07-租金物业   </t>
+  </si>
+  <si>
+    <t>2207-分红支出</t>
+  </si>
+  <si>
+    <t>5502.14-员工费用</t>
   </si>
   <si>
     <t>招待钢管客户及G2</t>
@@ -479,6 +488,115 @@
     <t>TOUCHSTONE 2023年行政年检-王燕RMB</t>
   </si>
   <si>
+    <t xml:space="preserve">招待钢管客户和地面公司
+</t>
+  </si>
+  <si>
+    <t>招待钢管客户和地面公司</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>钢管项目请货主高总等吃饭</t>
+  </si>
+  <si>
+    <t>划款兴业——5月公积金</t>
+  </si>
+  <si>
+    <t>划款工行社保户——5月社保</t>
+  </si>
+  <si>
+    <t>信智5月社保费</t>
+  </si>
+  <si>
+    <t>5月社保费</t>
+  </si>
+  <si>
+    <t>贵州道路交通费</t>
+  </si>
+  <si>
+    <t>信智5月个税</t>
+  </si>
+  <si>
+    <t>保洁包月费</t>
+  </si>
+  <si>
+    <t>贵州旅游机票费</t>
+  </si>
+  <si>
+    <t>贵州旅游酒店费</t>
+  </si>
+  <si>
+    <t>贵州旅游租车费</t>
+  </si>
+  <si>
+    <t>贵州旅游高速路费</t>
+  </si>
+  <si>
+    <t>贵州旅游景区票费</t>
+  </si>
+  <si>
+    <t>贵州旅游加油费</t>
+  </si>
+  <si>
+    <t>贵州旅游餐费</t>
+  </si>
+  <si>
+    <t>贵州旅游打车费</t>
+  </si>
+  <si>
+    <t>咖啡豆费</t>
+  </si>
+  <si>
+    <t>客餐费-禛航</t>
+  </si>
+  <si>
+    <t>贵州机票费用</t>
+  </si>
+  <si>
+    <t>餐饮费</t>
+  </si>
+  <si>
+    <t>酒店</t>
+  </si>
+  <si>
+    <t>招待正德喝酒</t>
+  </si>
+  <si>
+    <t>潘安华介绍货代公司吃饭</t>
+  </si>
+  <si>
+    <t>浦东机场至住地出租车费</t>
+  </si>
+  <si>
+    <t>上海飞贵阳机票</t>
+  </si>
+  <si>
+    <t xml:space="preserve">停车费 </t>
+  </si>
+  <si>
+    <t>停车费 高速路费 出租车费</t>
+  </si>
+  <si>
+    <t>2023年体检费</t>
+  </si>
+  <si>
+    <t>6月办公楼外停车费</t>
+  </si>
+  <si>
+    <t>2023体检费</t>
+  </si>
+  <si>
+    <t>公司团建机场来回打车费</t>
+  </si>
+  <si>
+    <t>到付快递签收费</t>
+  </si>
+  <si>
+    <t>亚欧邮箱6年服务费</t>
+  </si>
+  <si>
     <t>RMB</t>
   </si>
   <si>
@@ -491,7 +609,16 @@
     <t>出纳完成中</t>
   </si>
   <si>
+    <t>未送审</t>
+  </si>
+  <si>
     <t>出纳审核中</t>
+  </si>
+  <si>
+    <t>财务经理审核中</t>
+  </si>
+  <si>
+    <t>公司批复中</t>
   </si>
   <si>
     <t>吴总股东往来/RMB</t>
@@ -865,13 +992,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:N186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -911,31 +1038,34 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>18</v>
       </c>
       <c r="D2">
-        <v>2782</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
         <v>44998.34665780092</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H2" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -947,18 +1077,21 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M2" s="2">
         <v>44995.10725694444</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>19</v>
@@ -970,13 +1103,13 @@
         <v>44998.35004600694</v>
       </c>
       <c r="F3" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G3" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -988,36 +1121,39 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M3" s="2">
         <v>44995.10702546296</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>486.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
       <c r="D4">
-        <v>1813</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <v>44998.35328634259</v>
       </c>
       <c r="F4" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G4" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H4" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -1029,36 +1165,39 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M4" s="2">
         <v>44995.10678240741</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5">
-        <v>3167</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
         <v>44998.35328634259</v>
       </c>
       <c r="F5" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G5" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H5" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -1070,36 +1209,39 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M5" s="2">
         <v>44995.10678240741</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>21</v>
       </c>
       <c r="D6">
-        <v>1399</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
         <v>44998.35491502315</v>
       </c>
       <c r="F6" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G6" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H6" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -1111,18 +1253,21 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M6" s="2">
         <v>45000.1064699074</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>22</v>
@@ -1134,13 +1279,13 @@
         <v>44998.35697050926</v>
       </c>
       <c r="F7" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G7" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H7" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -1152,36 +1297,39 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M7" s="2">
         <v>44995.33467592593</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>494.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>22</v>
       </c>
       <c r="D8">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
         <v>44998.35697050926</v>
       </c>
       <c r="F8" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G8" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H8" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -1193,36 +1341,39 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M8" s="2">
         <v>44995.33467592593</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>22</v>
       </c>
       <c r="D9">
-        <v>3829</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2">
         <v>44998.35697050926</v>
       </c>
       <c r="F9" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G9" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H9" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -1234,36 +1385,39 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M9" s="2">
         <v>44995.33467592593</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>3829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>23</v>
       </c>
       <c r="D10">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
         <v>44998.35608846065</v>
       </c>
       <c r="F10" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G10" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H10" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -1275,36 +1429,39 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M10" s="2">
         <v>44995.10621527778</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>24</v>
       </c>
       <c r="D11">
-        <v>610</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
         <v>44998.35801635417</v>
       </c>
       <c r="F11" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H11" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -1316,36 +1473,39 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M11" s="2">
         <v>44995.10587962963</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C12">
         <v>25</v>
       </c>
       <c r="D12">
-        <v>1067</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2">
         <v>44998.35955101852</v>
       </c>
       <c r="F12" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G12" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H12" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -1357,36 +1517,39 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M12" s="2">
         <v>44995.34130787037</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C13">
         <v>26</v>
       </c>
       <c r="D13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2">
         <v>44998.35966047454</v>
       </c>
       <c r="F13" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G13" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H13" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -1398,18 +1561,21 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M13" s="2">
         <v>45002.28056712963</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C14">
         <v>27</v>
@@ -1421,13 +1587,13 @@
         <v>44998.36113280093</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G14" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H14" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -1439,36 +1605,39 @@
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M14" s="2">
         <v>45002.28086805555</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>405.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>28</v>
       </c>
       <c r="D15">
-        <v>869</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2">
         <v>44998.36198395833</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G15" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H15" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -1480,36 +1649,39 @@
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M15" s="2">
         <v>45002.28135416667</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>29</v>
       </c>
       <c r="D16">
-        <v>1572</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2">
         <v>44999.1429327662</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G16" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H16" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -1521,18 +1693,21 @@
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M16" s="2">
         <v>45001.28188657408</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C17">
         <v>29</v>
@@ -1544,13 +1719,13 @@
         <v>44999.1429327662</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G17" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H17" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -1562,36 +1737,39 @@
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M17" s="2">
         <v>45001.28188657408</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>17.13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C18">
         <v>30</v>
       </c>
       <c r="D18">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2">
         <v>44999.14498083333</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G18" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H18" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -1603,36 +1781,39 @@
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M18" s="2">
         <v>45002.28223379629</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C19">
         <v>31</v>
       </c>
       <c r="D19">
-        <v>3337</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2">
         <v>44999.14929166667</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G19" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H19" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -1644,36 +1825,39 @@
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M19" s="2">
         <v>45002.2827662037</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>32</v>
       </c>
       <c r="D20">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2">
         <v>44999.35608475695</v>
       </c>
       <c r="F20" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G20" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H20" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -1685,36 +1869,39 @@
         <v>1</v>
       </c>
       <c r="L20" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M20" s="2">
         <v>45002.28305555556</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C21">
         <v>33</v>
       </c>
       <c r="D21">
-        <v>1465</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2">
         <v>44999.37286482639</v>
       </c>
       <c r="F21" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G21" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H21" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -1726,36 +1913,39 @@
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M21" s="2">
         <v>45002.28333333333</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C22">
         <v>34</v>
       </c>
       <c r="D22">
-        <v>2114</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2">
         <v>45000.30218704861</v>
       </c>
       <c r="F22" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G22" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H22" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
@@ -1767,36 +1957,39 @@
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M22" s="2">
         <v>45002.28361111111</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C23">
         <v>35</v>
       </c>
       <c r="D23">
-        <v>2460</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>45001.29345269676</v>
       </c>
       <c r="F23" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G23" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H23" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
@@ -1808,36 +2001,39 @@
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M23" s="2">
         <v>45002.37799768519</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C24">
         <v>35</v>
       </c>
       <c r="D24">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2">
         <v>45001.29345269676</v>
       </c>
       <c r="F24" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G24" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H24" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I24" t="b">
         <v>1</v>
@@ -1849,18 +2045,21 @@
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M24" s="2">
         <v>45002.37799768519</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C25">
         <v>35</v>
@@ -1872,13 +2071,13 @@
         <v>45001.29345269676</v>
       </c>
       <c r="F25" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G25" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H25" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
@@ -1890,18 +2089,21 @@
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M25" s="2">
         <v>45002.37799768519</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25">
+        <v>60.99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C26">
         <v>35</v>
@@ -1913,13 +2115,13 @@
         <v>45001.29345269676</v>
       </c>
       <c r="F26" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G26" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H26" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I26" t="b">
         <v>1</v>
@@ -1931,18 +2133,21 @@
         <v>1</v>
       </c>
       <c r="L26" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M26" s="2">
         <v>45002.37799768519</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26">
+        <v>124.48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C27">
         <v>36</v>
@@ -1954,13 +2159,13 @@
         <v>45002.16524336806</v>
       </c>
       <c r="F27" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G27" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H27" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
@@ -1972,36 +2177,39 @@
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M27" s="2">
         <v>45013.11997685185</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27">
+        <v>153.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C28">
         <v>37</v>
       </c>
       <c r="D28">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2">
         <v>45002.33841078704</v>
       </c>
       <c r="F28" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G28" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H28" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
@@ -2013,18 +2221,21 @@
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M28" s="2">
         <v>45013.11972222223</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C29">
         <v>38</v>
@@ -2036,13 +2247,13 @@
         <v>45005.24194612268</v>
       </c>
       <c r="F29" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G29" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H29" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I29" t="b">
         <v>1</v>
@@ -2054,36 +2265,39 @@
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="M29" s="2">
         <v>45006.08386574074</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C30">
         <v>39</v>
       </c>
       <c r="D30">
-        <v>776</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2">
         <v>45005.34290649305</v>
       </c>
       <c r="F30" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G30" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H30" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
@@ -2095,18 +2309,21 @@
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M30" s="2">
         <v>45013.11949074074</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C31">
         <v>40</v>
@@ -2118,13 +2335,13 @@
         <v>45007.37341414352</v>
       </c>
       <c r="F31" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G31" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H31" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
@@ -2136,36 +2353,39 @@
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M31" s="2">
         <v>45013.1190162037</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31">
+        <v>581.92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C32">
         <v>41</v>
       </c>
       <c r="D32">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2">
         <v>45008.30710563657</v>
       </c>
       <c r="F32" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G32" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H32" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I32" t="b">
         <v>1</v>
@@ -2177,36 +2397,39 @@
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M32" s="2">
         <v>45013.39726519676</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C33">
         <v>42</v>
       </c>
       <c r="D33">
-        <v>1790</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2">
         <v>45013.37752958333</v>
       </c>
       <c r="F33" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G33" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H33" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
@@ -2218,36 +2441,39 @@
         <v>1</v>
       </c>
       <c r="L33" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M33" s="2">
         <v>45023.08234953704</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C34">
         <v>43</v>
       </c>
       <c r="D34">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2">
         <v>45020.08620959491</v>
       </c>
       <c r="F34" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G34" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H34" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I34" t="b">
         <v>1</v>
@@ -2259,36 +2485,39 @@
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M34" s="2">
         <v>45023.10739583334</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C35">
         <v>44</v>
       </c>
       <c r="D35">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E35" s="2">
         <v>45020.3557540625</v>
       </c>
       <c r="F35" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G35" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H35" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I35" t="b">
         <v>1</v>
@@ -2300,18 +2529,21 @@
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="M35" s="2">
         <v>45023.08731481482</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C36">
         <v>45</v>
@@ -2323,13 +2555,13 @@
         <v>45020.36067335648</v>
       </c>
       <c r="F36" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G36" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H36" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I36" t="b">
         <v>1</v>
@@ -2341,36 +2573,39 @@
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M36" s="2">
         <v>45023.08780092592</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36">
+        <v>20.24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C37">
         <v>45</v>
       </c>
       <c r="D37">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E37" s="2">
         <v>45020.36067335648</v>
       </c>
       <c r="F37" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G37" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H37" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I37" t="b">
         <v>1</v>
@@ -2382,36 +2617,39 @@
         <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M37" s="2">
         <v>45023.08780092592</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C38">
         <v>46</v>
       </c>
       <c r="D38">
-        <v>1037</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2">
         <v>45022.16013651621</v>
       </c>
       <c r="F38" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G38" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H38" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I38" t="b">
         <v>1</v>
@@ -2423,36 +2661,39 @@
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M38" s="2">
         <v>45023.08810185185</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C39">
         <v>47</v>
       </c>
       <c r="D39">
-        <v>1320</v>
+        <v>0</v>
       </c>
       <c r="E39" s="2">
         <v>45023.31049271991</v>
       </c>
       <c r="F39" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G39" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H39" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I39" t="b">
         <v>1</v>
@@ -2464,36 +2705,39 @@
         <v>1</v>
       </c>
       <c r="L39" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M39" s="2">
         <v>45030.12488425926</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C40">
         <v>48</v>
       </c>
       <c r="D40">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="E40" s="2">
         <v>45026.10782059028</v>
       </c>
       <c r="F40" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G40" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H40" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
@@ -2505,36 +2749,39 @@
         <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="M40" s="2">
         <v>45026.27826388889</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C41">
         <v>49</v>
       </c>
       <c r="D41">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E41" s="2">
         <v>45026.10749625</v>
       </c>
       <c r="F41" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G41" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H41" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I41" t="b">
         <v>1</v>
@@ -2546,18 +2793,21 @@
         <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="M41" s="2">
         <v>45026.2780324074</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C42">
         <v>50</v>
@@ -2569,13 +2819,13 @@
         <v>45026.10379756944</v>
       </c>
       <c r="F42" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G42" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H42" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I42" t="b">
         <v>1</v>
@@ -2587,36 +2837,39 @@
         <v>1</v>
       </c>
       <c r="L42" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="M42" s="2">
         <v>45026.2777199074</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42">
+        <v>1031.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C43">
         <v>51</v>
       </c>
       <c r="D43">
-        <v>3667</v>
+        <v>0</v>
       </c>
       <c r="E43" s="2">
         <v>45028.09191259259</v>
       </c>
       <c r="F43" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G43" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H43" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I43" t="b">
         <v>1</v>
@@ -2628,36 +2881,39 @@
         <v>1</v>
       </c>
       <c r="L43" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M43" s="2">
         <v>45030.12530092592</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43">
+        <v>3667</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C44">
         <v>51</v>
       </c>
       <c r="D44">
-        <v>29080</v>
+        <v>0</v>
       </c>
       <c r="E44" s="2">
         <v>45028.09191259259</v>
       </c>
       <c r="F44" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G44" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H44" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I44" t="b">
         <v>1</v>
@@ -2669,36 +2925,39 @@
         <v>1</v>
       </c>
       <c r="L44" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M44" s="2">
         <v>45030.12530092592</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44">
+        <v>29080</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C45">
         <v>52</v>
       </c>
       <c r="D45">
-        <v>683</v>
+        <v>0</v>
       </c>
       <c r="E45" s="2">
         <v>45028.36057641204</v>
       </c>
       <c r="F45" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G45" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H45" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I45" t="b">
         <v>1</v>
@@ -2710,18 +2969,21 @@
         <v>1</v>
       </c>
       <c r="L45" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M45" s="2">
         <v>45030.12891203703</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C46">
         <v>52</v>
@@ -2733,13 +2995,13 @@
         <v>45028.36057641204</v>
       </c>
       <c r="F46" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G46" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H46" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I46" t="b">
         <v>1</v>
@@ -2751,18 +3013,21 @@
         <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M46" s="2">
         <v>45030.12891203703</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46">
+        <v>785.73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C47">
         <v>52</v>
@@ -2774,13 +3039,13 @@
         <v>45028.36057641204</v>
       </c>
       <c r="F47" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G47" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H47" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I47" t="b">
         <v>1</v>
@@ -2792,36 +3057,39 @@
         <v>1</v>
       </c>
       <c r="L47" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M47" s="2">
         <v>45030.12891203703</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47">
+        <v>3139.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C48">
         <v>52</v>
       </c>
       <c r="D48">
-        <v>13720</v>
+        <v>0</v>
       </c>
       <c r="E48" s="2">
         <v>45028.36057641204</v>
       </c>
       <c r="F48" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G48" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H48" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I48" t="b">
         <v>1</v>
@@ -2833,36 +3101,39 @@
         <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M48" s="2">
         <v>45030.12891203703</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48">
+        <v>13720</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C49">
         <v>52</v>
       </c>
       <c r="D49">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="E49" s="2">
         <v>45028.36057641204</v>
       </c>
       <c r="F49" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G49" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H49" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I49" t="b">
         <v>1</v>
@@ -2874,36 +3145,39 @@
         <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M49" s="2">
         <v>45030.12891203703</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C50">
         <v>52</v>
       </c>
       <c r="D50">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="E50" s="2">
         <v>45028.36057641204</v>
       </c>
       <c r="F50" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G50" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H50" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I50" t="b">
         <v>1</v>
@@ -2915,36 +3189,39 @@
         <v>1</v>
       </c>
       <c r="L50" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M50" s="2">
         <v>45030.12891203703</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C51">
         <v>52</v>
       </c>
       <c r="D51">
-        <v>514</v>
+        <v>0</v>
       </c>
       <c r="E51" s="2">
         <v>45028.36057641204</v>
       </c>
       <c r="F51" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G51" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H51" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I51" t="b">
         <v>1</v>
@@ -2956,36 +3233,39 @@
         <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M51" s="2">
         <v>45030.12891203703</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C52">
         <v>52</v>
       </c>
       <c r="D52">
-        <v>578</v>
+        <v>0</v>
       </c>
       <c r="E52" s="2">
         <v>45028.36057641204</v>
       </c>
       <c r="F52" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G52" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H52" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I52" t="b">
         <v>1</v>
@@ -2997,36 +3277,39 @@
         <v>1</v>
       </c>
       <c r="L52" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M52" s="2">
         <v>45030.12891203703</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C53">
         <v>52</v>
       </c>
       <c r="D53">
-        <v>616</v>
+        <v>0</v>
       </c>
       <c r="E53" s="2">
         <v>45028.36057641204</v>
       </c>
       <c r="F53" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G53" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H53" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I53" t="b">
         <v>1</v>
@@ -3038,36 +3321,39 @@
         <v>1</v>
       </c>
       <c r="L53" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M53" s="2">
         <v>45030.12891203703</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C54">
         <v>52</v>
       </c>
       <c r="D54">
-        <v>1756</v>
+        <v>0</v>
       </c>
       <c r="E54" s="2">
         <v>45028.36057641204</v>
       </c>
       <c r="F54" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G54" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H54" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I54" t="b">
         <v>1</v>
@@ -3079,36 +3365,39 @@
         <v>1</v>
       </c>
       <c r="L54" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M54" s="2">
         <v>45030.12891203703</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C55">
         <v>52</v>
       </c>
       <c r="D55">
-        <v>1714</v>
+        <v>0</v>
       </c>
       <c r="E55" s="2">
         <v>45028.36057641204</v>
       </c>
       <c r="F55" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G55" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H55" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I55" t="b">
         <v>1</v>
@@ -3120,18 +3409,21 @@
         <v>1</v>
       </c>
       <c r="L55" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M55" s="2">
         <v>45030.12891203703</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C56">
         <v>52</v>
@@ -3143,13 +3435,13 @@
         <v>45028.36057641204</v>
       </c>
       <c r="F56" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G56" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H56" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I56" t="b">
         <v>1</v>
@@ -3161,36 +3453,39 @@
         <v>1</v>
       </c>
       <c r="L56" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M56" s="2">
         <v>45030.12891203703</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56">
+        <v>275.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C57">
         <v>53</v>
       </c>
       <c r="D57">
-        <v>16240</v>
+        <v>0</v>
       </c>
       <c r="E57" s="2">
         <v>45029.08377679398</v>
       </c>
       <c r="F57" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G57" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H57" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I57" t="b">
         <v>1</v>
@@ -3202,36 +3497,39 @@
         <v>1</v>
       </c>
       <c r="L57" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="M57" s="2">
         <v>45029.30706018519</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57">
+        <v>16240</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C58">
         <v>54</v>
       </c>
       <c r="D58">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E58" s="2">
         <v>45029.13268450231</v>
       </c>
       <c r="F58" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G58" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H58" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I58" t="b">
         <v>1</v>
@@ -3243,18 +3541,21 @@
         <v>1</v>
       </c>
       <c r="L58" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M58" s="2">
         <v>45030.12561342592</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C59">
         <v>55</v>
@@ -3266,13 +3567,13 @@
         <v>45029.30678756945</v>
       </c>
       <c r="F59" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G59" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H59" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I59" t="b">
         <v>1</v>
@@ -3284,18 +3585,21 @@
         <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="M59" s="2">
         <v>45030.12925925926</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59">
+        <v>61.24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C60">
         <v>56</v>
@@ -3307,13 +3611,13 @@
         <v>45030.1025212963</v>
       </c>
       <c r="F60" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G60" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H60" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I60" t="b">
         <v>1</v>
@@ -3325,18 +3629,21 @@
         <v>1</v>
       </c>
       <c r="L60" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M60" s="2">
         <v>45041.17334490741</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="N60">
+        <v>1560.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C61">
         <v>57</v>
@@ -3348,13 +3655,13 @@
         <v>45030.12364082176</v>
       </c>
       <c r="F61" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G61" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H61" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I61" t="b">
         <v>1</v>
@@ -3366,36 +3673,39 @@
         <v>1</v>
       </c>
       <c r="L61" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M61" s="2">
         <v>45041.24361111111</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61">
+        <v>1327.68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C62">
         <v>58</v>
       </c>
       <c r="D62">
-        <v>2909</v>
+        <v>0</v>
       </c>
       <c r="E62" s="2">
         <v>45030.12616524305</v>
       </c>
       <c r="F62" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G62" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H62" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I62" t="b">
         <v>1</v>
@@ -3407,36 +3717,39 @@
         <v>1</v>
       </c>
       <c r="L62" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M62" s="2">
         <v>45041.24334490741</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C63">
         <v>59</v>
       </c>
       <c r="D63">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="E63" s="2">
         <v>45033.31081506945</v>
       </c>
       <c r="F63" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G63" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H63" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I63" t="b">
         <v>1</v>
@@ -3448,36 +3761,39 @@
         <v>1</v>
       </c>
       <c r="L63" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M63" s="2">
         <v>45041.10722222222</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C64">
         <v>61</v>
       </c>
       <c r="D64">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E64" s="2">
         <v>45034.09190111111</v>
       </c>
       <c r="F64" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G64" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H64" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I64" t="b">
         <v>1</v>
@@ -3489,36 +3805,39 @@
         <v>1</v>
       </c>
       <c r="L64" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M64" s="2">
         <v>45041.24263888889</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C65">
         <v>63</v>
       </c>
       <c r="D65">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E65" s="2">
         <v>45034.09657179398</v>
       </c>
       <c r="F65" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G65" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H65" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I65" t="b">
         <v>1</v>
@@ -3530,36 +3849,39 @@
         <v>1</v>
       </c>
       <c r="L65" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M65" s="2">
         <v>45041.24222222222</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C66">
         <v>64</v>
       </c>
       <c r="D66">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="E66" s="2">
         <v>45037.41429341435</v>
       </c>
       <c r="F66" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G66" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H66" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I66" t="b">
         <v>1</v>
@@ -3571,36 +3893,39 @@
         <v>1</v>
       </c>
       <c r="L66" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M66" s="2">
         <v>45041.24193287037</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="N66">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C67">
         <v>64</v>
       </c>
       <c r="D67">
-        <v>2166</v>
+        <v>0</v>
       </c>
       <c r="E67" s="2">
         <v>45037.41429341435</v>
       </c>
       <c r="F67" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G67" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H67" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I67" t="b">
         <v>1</v>
@@ -3612,36 +3937,39 @@
         <v>1</v>
       </c>
       <c r="L67" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M67" s="2">
         <v>45041.24193287037</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="N67">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C68">
         <v>65</v>
       </c>
       <c r="D68">
-        <v>381</v>
+        <v>0</v>
       </c>
       <c r="E68" s="2">
         <v>45041.25260020833</v>
       </c>
       <c r="F68" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G68" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H68" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I68" t="b">
         <v>1</v>
@@ -3653,36 +3981,39 @@
         <v>1</v>
       </c>
       <c r="L68" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M68" s="2">
         <v>45044.27577425926</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="N68">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C69">
         <v>65</v>
       </c>
       <c r="D69">
-        <v>9393</v>
+        <v>0</v>
       </c>
       <c r="E69" s="2">
         <v>45041.25260020833</v>
       </c>
       <c r="F69" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G69" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H69" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I69" t="b">
         <v>1</v>
@@ -3694,18 +4025,21 @@
         <v>1</v>
       </c>
       <c r="L69" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M69" s="2">
         <v>45044.27577425926</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69">
+        <v>9393</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C70">
         <v>66</v>
@@ -3717,13 +4051,13 @@
         <v>45041.08589238426</v>
       </c>
       <c r="F70" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G70" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H70" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I70" t="b">
         <v>1</v>
@@ -3735,36 +4069,39 @@
         <v>1</v>
       </c>
       <c r="L70" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="M70" s="2">
         <v>45041.25344907407</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="N70">
+        <v>104143.94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C71">
         <v>67</v>
       </c>
       <c r="D71">
-        <v>3713</v>
+        <v>0</v>
       </c>
       <c r="E71" s="2">
         <v>45041.14769905093</v>
       </c>
       <c r="F71" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G71" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H71" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I71" t="b">
         <v>1</v>
@@ -3776,36 +4113,39 @@
         <v>1</v>
       </c>
       <c r="L71" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M71" s="2">
         <v>45041.17435185185</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="N71">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C72">
         <v>69</v>
       </c>
       <c r="D72">
-        <v>2264</v>
+        <v>0</v>
       </c>
       <c r="E72" s="2">
         <v>45041.15481517361</v>
       </c>
       <c r="F72" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G72" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H72" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I72" t="b">
         <v>1</v>
@@ -3817,36 +4157,39 @@
         <v>1</v>
       </c>
       <c r="L72" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M72" s="2">
         <v>45041.17418981482</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="N72">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C73">
         <v>71</v>
       </c>
       <c r="D73">
-        <v>434</v>
+        <v>0</v>
       </c>
       <c r="E73" s="2">
         <v>45041.15605380787</v>
       </c>
       <c r="F73" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G73" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H73" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I73" t="b">
         <v>1</v>
@@ -3858,36 +4201,39 @@
         <v>1</v>
       </c>
       <c r="L73" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M73" s="2">
         <v>45041.17395833333</v>
       </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="N73">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C74">
         <v>73</v>
       </c>
       <c r="D74">
-        <v>1867</v>
+        <v>0</v>
       </c>
       <c r="E74" s="2">
         <v>45041.15853665509</v>
       </c>
       <c r="F74" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G74" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H74" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I74" t="b">
         <v>1</v>
@@ -3899,18 +4245,21 @@
         <v>1</v>
       </c>
       <c r="L74" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M74" s="2">
         <v>45041.17366898148</v>
       </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="N74">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -3922,13 +4271,13 @@
         <v>45041.26894695602</v>
       </c>
       <c r="F75" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G75" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H75" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I75" t="b">
         <v>1</v>
@@ -3940,18 +4289,21 @@
         <v>1</v>
       </c>
       <c r="L75" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="M75" s="2">
         <v>45041.33967592593</v>
       </c>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="N75">
+        <v>75863.66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C76">
         <v>76</v>
@@ -3963,13 +4315,13 @@
         <v>45041.32862275463</v>
       </c>
       <c r="F76" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G76" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H76" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I76" t="b">
         <v>1</v>
@@ -3981,36 +4333,39 @@
         <v>1</v>
       </c>
       <c r="L76" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="M76" s="2">
         <v>45009.2529050926</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="N76">
+        <v>75863.66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B77" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C77">
         <v>75</v>
       </c>
       <c r="D77">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E77" s="2">
         <v>45041.33003309028</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G77" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H77" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I77" t="b">
         <v>1</v>
@@ -4022,18 +4377,21 @@
         <v>1</v>
       </c>
       <c r="L77" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="M77" s="2">
         <v>45005.25146990741</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="N77">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C78">
         <v>78</v>
@@ -4045,13 +4403,13 @@
         <v>45041.33270197917</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G78" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H78" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I78" t="b">
         <v>1</v>
@@ -4063,36 +4421,39 @@
         <v>1</v>
       </c>
       <c r="L78" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="M78" s="2">
         <v>45009.25109953704</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="N78">
+        <v>105074.92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C79">
         <v>77</v>
       </c>
       <c r="D79">
-        <v>44007</v>
+        <v>0</v>
       </c>
       <c r="E79" s="2">
         <v>45041.33632064815</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G79" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H79" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I79" t="b">
         <v>1</v>
@@ -4104,18 +4465,21 @@
         <v>1</v>
       </c>
       <c r="L79" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="M79" s="2">
         <v>45036.25174768519</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="N79">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B80" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C80">
         <v>80</v>
@@ -4127,13 +4491,13 @@
         <v>45041.35235954861</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G80" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H80" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I80" t="b">
         <v>1</v>
@@ -4145,18 +4509,21 @@
         <v>1</v>
       </c>
       <c r="L80" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M80" s="2">
         <v>45044.08099537037</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="N80">
+        <v>48.98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B81" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -4168,13 +4535,13 @@
         <v>45041.35235954861</v>
       </c>
       <c r="F81" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G81" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H81" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I81" t="b">
         <v>1</v>
@@ -4186,18 +4553,21 @@
         <v>1</v>
       </c>
       <c r="L81" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M81" s="2">
         <v>45044.08099537037</v>
       </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="N81">
+        <v>123.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B82" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C82">
         <v>80</v>
@@ -4209,13 +4579,13 @@
         <v>45041.35235954861</v>
       </c>
       <c r="F82" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G82" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H82" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I82" t="b">
         <v>1</v>
@@ -4227,18 +4597,21 @@
         <v>1</v>
       </c>
       <c r="L82" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M82" s="2">
         <v>45044.08099537037</v>
       </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="N82">
+        <v>120.62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B83" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C83">
         <v>80</v>
@@ -4250,13 +4623,13 @@
         <v>45041.35235954861</v>
       </c>
       <c r="F83" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G83" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H83" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I83" t="b">
         <v>1</v>
@@ -4268,36 +4641,39 @@
         <v>1</v>
       </c>
       <c r="L83" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M83" s="2">
         <v>45044.08099537037</v>
       </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="N83">
+        <v>122.28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C84">
         <v>80</v>
       </c>
       <c r="D84">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E84" s="2">
         <v>45041.35235954861</v>
       </c>
       <c r="F84" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G84" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H84" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I84" t="b">
         <v>1</v>
@@ -4309,18 +4685,21 @@
         <v>1</v>
       </c>
       <c r="L84" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M84" s="2">
         <v>45044.08099537037</v>
       </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="N84">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C85">
         <v>81</v>
@@ -4332,13 +4711,13 @@
         <v>45041.40291591435</v>
       </c>
       <c r="F85" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G85" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H85" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I85" t="b">
         <v>1</v>
@@ -4350,18 +4729,21 @@
         <v>1</v>
       </c>
       <c r="L85" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M85" s="2">
         <v>45044.0803125</v>
       </c>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="N85">
+        <v>99908.99000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B86" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C86">
         <v>81</v>
@@ -4373,13 +4755,13 @@
         <v>45041.40291591435</v>
       </c>
       <c r="F86" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G86" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H86" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I86" t="b">
         <v>1</v>
@@ -4391,18 +4773,21 @@
         <v>1</v>
       </c>
       <c r="L86" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M86" s="2">
         <v>45044.0803125</v>
       </c>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="N86">
+        <v>13839.06</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B87" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C87">
         <v>81</v>
@@ -4414,13 +4799,13 @@
         <v>45041.40291591435</v>
       </c>
       <c r="F87" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G87" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H87" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I87" t="b">
         <v>1</v>
@@ -4432,36 +4817,39 @@
         <v>1</v>
       </c>
       <c r="L87" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M87" s="2">
         <v>45044.0803125</v>
       </c>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="N87">
+        <v>28161.71</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B88" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C88">
         <v>82</v>
       </c>
       <c r="D88">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E88" s="2">
         <v>45042.31861638889</v>
       </c>
       <c r="F88" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G88" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H88" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I88" t="b">
         <v>1</v>
@@ -4473,36 +4861,39 @@
         <v>1</v>
       </c>
       <c r="L88" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M88" s="2">
         <v>45044.07798611111</v>
       </c>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="N88">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C89">
         <v>82</v>
       </c>
       <c r="D89">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E89" s="2">
         <v>45042.31861638889</v>
       </c>
       <c r="F89" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G89" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H89" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I89" t="b">
         <v>1</v>
@@ -4514,36 +4905,39 @@
         <v>1</v>
       </c>
       <c r="L89" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M89" s="2">
         <v>45044.07798611111</v>
       </c>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="N89">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C90">
         <v>84</v>
       </c>
       <c r="D90">
-        <v>660</v>
+        <v>0</v>
       </c>
       <c r="E90" s="2">
         <v>45050.0959418287</v>
       </c>
       <c r="F90" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G90" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H90" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I90" t="b">
         <v>1</v>
@@ -4555,36 +4949,39 @@
         <v>1</v>
       </c>
       <c r="L90" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M90" s="2">
         <v>45079.39201362269</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="N90">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B91" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C91">
         <v>85</v>
       </c>
       <c r="D91">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="E91" s="2">
         <v>45050.27470650463</v>
       </c>
       <c r="F91" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G91" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H91" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I91" t="b">
         <v>1</v>
@@ -4596,36 +4993,39 @@
         <v>1</v>
       </c>
       <c r="L91" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M91" s="2">
         <v>45054.12731481482</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="N91">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B92" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C92">
         <v>85</v>
       </c>
       <c r="D92">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="E92" s="2">
         <v>45050.27470650463</v>
       </c>
       <c r="F92" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G92" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H92" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I92" t="b">
         <v>1</v>
@@ -4637,36 +5037,39 @@
         <v>1</v>
       </c>
       <c r="L92" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M92" s="2">
         <v>45054.12731481482</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="N92">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C93">
         <v>87</v>
       </c>
       <c r="D93">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="E93" s="2">
         <v>45051.29129493055</v>
       </c>
       <c r="F93" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G93" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H93" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I93" t="b">
         <v>1</v>
@@ -4678,36 +5081,39 @@
         <v>1</v>
       </c>
       <c r="L93" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M93" s="2">
         <v>45079.3917784375</v>
       </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="N93">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C94">
         <v>87</v>
       </c>
       <c r="D94">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="E94" s="2">
         <v>45051.29129493055</v>
       </c>
       <c r="F94" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G94" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H94" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I94" t="b">
         <v>1</v>
@@ -4719,36 +5125,39 @@
         <v>1</v>
       </c>
       <c r="L94" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M94" s="2">
         <v>45079.3917784375</v>
       </c>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="N94">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C95">
         <v>88</v>
       </c>
       <c r="D95">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E95" s="2">
         <v>45052.09060202546</v>
       </c>
       <c r="F95" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G95" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H95" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I95" t="b">
         <v>1</v>
@@ -4760,33 +5169,36 @@
         <v>1</v>
       </c>
       <c r="L95" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M95" s="2">
         <v>45065.39373842593</v>
       </c>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="N95">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C96">
         <v>90</v>
       </c>
       <c r="D96">
-        <v>894</v>
+        <v>0</v>
       </c>
       <c r="E96" s="2">
         <v>45052.30855538195</v>
       </c>
       <c r="G96" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H96" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I96" t="b">
         <v>0</v>
@@ -4797,13 +5209,16 @@
       <c r="K96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="N96">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C97">
         <v>90</v>
@@ -4815,10 +5230,10 @@
         <v>45052.30855538195</v>
       </c>
       <c r="G97" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H97" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I97" t="b">
         <v>0</v>
@@ -4829,28 +5244,31 @@
       <c r="K97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="N97">
+        <v>2357.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B98" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C98">
         <v>90</v>
       </c>
       <c r="D98">
-        <v>1220</v>
+        <v>0</v>
       </c>
       <c r="E98" s="2">
         <v>45052.30855538195</v>
       </c>
       <c r="G98" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H98" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I98" t="b">
         <v>0</v>
@@ -4861,28 +5279,31 @@
       <c r="K98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="N98">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C99">
         <v>89</v>
       </c>
       <c r="D99">
-        <v>894</v>
+        <v>0</v>
       </c>
       <c r="E99" s="2">
         <v>45052.31146744213</v>
       </c>
       <c r="G99" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H99" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I99" t="b">
         <v>0</v>
@@ -4893,13 +5314,16 @@
       <c r="K99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="N99">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C100">
         <v>89</v>
@@ -4911,10 +5335,10 @@
         <v>45052.31146744213</v>
       </c>
       <c r="G100" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H100" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I100" t="b">
         <v>0</v>
@@ -4925,28 +5349,31 @@
       <c r="K100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="N100">
+        <v>2357.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C101">
         <v>89</v>
       </c>
       <c r="D101">
-        <v>1220</v>
+        <v>0</v>
       </c>
       <c r="E101" s="2">
         <v>45052.31146744213</v>
       </c>
       <c r="G101" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H101" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I101" t="b">
         <v>0</v>
@@ -4957,31 +5384,34 @@
       <c r="K101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:13">
+      <c r="N101">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B102" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C102">
         <v>92</v>
       </c>
       <c r="D102">
-        <v>894</v>
+        <v>0</v>
       </c>
       <c r="E102" s="2">
         <v>45062.12186709491</v>
       </c>
       <c r="F102" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G102" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H102" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I102" t="b">
         <v>1</v>
@@ -4993,18 +5423,21 @@
         <v>1</v>
       </c>
       <c r="L102" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M102" s="2">
         <v>45065.39484953704</v>
       </c>
-    </row>
-    <row r="103" spans="1:13">
+      <c r="N102">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B103" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C103">
         <v>92</v>
@@ -5016,13 +5449,13 @@
         <v>45062.12186709491</v>
       </c>
       <c r="F103" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G103" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H103" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I103" t="b">
         <v>1</v>
@@ -5034,36 +5467,39 @@
         <v>1</v>
       </c>
       <c r="L103" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M103" s="2">
         <v>45065.39484953704</v>
       </c>
-    </row>
-    <row r="104" spans="1:13">
+      <c r="N103">
+        <v>2357.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C104">
         <v>92</v>
       </c>
       <c r="D104">
-        <v>1220</v>
+        <v>0</v>
       </c>
       <c r="E104" s="2">
         <v>45062.12186709491</v>
       </c>
       <c r="F104" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G104" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H104" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I104" t="b">
         <v>1</v>
@@ -5075,18 +5511,21 @@
         <v>1</v>
       </c>
       <c r="L104" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M104" s="2">
         <v>45065.39484953704</v>
       </c>
-    </row>
-    <row r="105" spans="1:13">
+      <c r="N104">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B105" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C105">
         <v>93</v>
@@ -5098,13 +5537,13 @@
         <v>45055.16018915509</v>
       </c>
       <c r="F105" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G105" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H105" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I105" t="b">
         <v>1</v>
@@ -5116,36 +5555,39 @@
         <v>1</v>
       </c>
       <c r="L105" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M105" s="2">
         <v>45065.39570601852</v>
       </c>
-    </row>
-    <row r="106" spans="1:13">
+      <c r="N105">
+        <v>365.18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B106" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C106">
         <v>94</v>
       </c>
       <c r="D106">
-        <v>127125</v>
+        <v>0</v>
       </c>
       <c r="E106" s="2">
         <v>45055.36672283565</v>
       </c>
       <c r="F106" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G106" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H106" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I106" t="b">
         <v>1</v>
@@ -5157,36 +5599,39 @@
         <v>1</v>
       </c>
       <c r="L106" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M106" s="2">
         <v>45056.33758101852</v>
       </c>
-    </row>
-    <row r="107" spans="1:13">
+      <c r="N106">
+        <v>127125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B107" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C107">
         <v>96</v>
       </c>
       <c r="D107">
-        <v>45000</v>
+        <v>0</v>
       </c>
       <c r="E107" s="2">
         <v>45056.37656032408</v>
       </c>
       <c r="F107" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G107" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H107" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I107" t="b">
         <v>1</v>
@@ -5198,36 +5643,39 @@
         <v>1</v>
       </c>
       <c r="L107" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="M107" s="2">
         <v>45057.11587962963</v>
       </c>
-    </row>
-    <row r="108" spans="1:13">
+      <c r="N107">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C108">
         <v>98</v>
       </c>
       <c r="D108">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="E108" s="2">
         <v>45056.34481953704</v>
       </c>
       <c r="F108" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G108" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H108" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I108" t="b">
         <v>1</v>
@@ -5239,18 +5687,21 @@
         <v>1</v>
       </c>
       <c r="L108" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="M108" s="2">
         <v>45057.11559027778</v>
       </c>
-    </row>
-    <row r="109" spans="1:13">
+      <c r="N108">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B109" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C109">
         <v>100</v>
@@ -5262,13 +5713,13 @@
         <v>45056.39550530093</v>
       </c>
       <c r="F109" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G109" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H109" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I109" t="b">
         <v>1</v>
@@ -5280,36 +5731,39 @@
         <v>1</v>
       </c>
       <c r="L109" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="M109" s="2">
         <v>45057.11523148148</v>
       </c>
-    </row>
-    <row r="110" spans="1:13">
+      <c r="N109">
+        <v>1826.11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B110" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C110">
         <v>101</v>
       </c>
       <c r="D110">
-        <v>7500000</v>
+        <v>0</v>
       </c>
       <c r="E110" s="2">
         <v>45057.09767015046</v>
       </c>
       <c r="F110" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G110" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H110" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I110" t="b">
         <v>1</v>
@@ -5321,36 +5775,39 @@
         <v>1</v>
       </c>
       <c r="L110" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="M110" s="2">
         <v>45057.11505787037</v>
       </c>
-    </row>
-    <row r="111" spans="1:13">
+      <c r="N110">
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B111" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C111">
         <v>101</v>
       </c>
       <c r="D111">
-        <v>181450</v>
+        <v>0</v>
       </c>
       <c r="E111" s="2">
         <v>45057.09767015046</v>
       </c>
       <c r="F111" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G111" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H111" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I111" t="b">
         <v>1</v>
@@ -5362,36 +5819,39 @@
         <v>1</v>
       </c>
       <c r="L111" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="M111" s="2">
         <v>45057.11505787037</v>
       </c>
-    </row>
-    <row r="112" spans="1:13">
+      <c r="N111">
+        <v>181450</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C112">
         <v>104</v>
       </c>
       <c r="D112">
-        <v>2261</v>
+        <v>0</v>
       </c>
       <c r="E112" s="2">
         <v>45062.28582356482</v>
       </c>
       <c r="F112" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G112" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H112" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I112" t="b">
         <v>1</v>
@@ -5403,36 +5863,39 @@
         <v>1</v>
       </c>
       <c r="L112" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M112" s="2">
         <v>45065.39608796296</v>
       </c>
-    </row>
-    <row r="113" spans="1:13">
+      <c r="N112">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C113">
         <v>106</v>
       </c>
       <c r="D113">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E113" s="2">
         <v>45061.26449304398</v>
       </c>
       <c r="F113" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G113" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H113" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I113" t="b">
         <v>1</v>
@@ -5444,36 +5907,39 @@
         <v>1</v>
       </c>
       <c r="L113" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="M113" s="2">
         <v>45061.3546412037</v>
       </c>
-    </row>
-    <row r="114" spans="1:13">
+      <c r="N113">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B114" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C114">
         <v>111</v>
       </c>
       <c r="D114">
-        <v>16240</v>
+        <v>0</v>
       </c>
       <c r="E114" s="2">
         <v>45062.09768309028</v>
       </c>
       <c r="F114" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G114" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H114" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I114" t="b">
         <v>1</v>
@@ -5485,18 +5951,21 @@
         <v>1</v>
       </c>
       <c r="L114" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="M114" s="2">
         <v>45062.15226851852</v>
       </c>
-    </row>
-    <row r="115" spans="1:13">
+      <c r="N114">
+        <v>16240</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B115" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C115">
         <v>115</v>
@@ -5508,13 +5977,13 @@
         <v>45062.10104034722</v>
       </c>
       <c r="F115" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G115" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H115" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I115" t="b">
         <v>1</v>
@@ -5526,36 +5995,39 @@
         <v>1</v>
       </c>
       <c r="L115" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="M115" s="2">
         <v>45062.15188657407</v>
       </c>
-    </row>
-    <row r="116" spans="1:13">
+      <c r="N115">
+        <v>44006.98</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B116" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C116">
         <v>117</v>
       </c>
       <c r="D116">
-        <v>3651</v>
+        <v>0</v>
       </c>
       <c r="E116" s="2">
         <v>45063.09152335648</v>
       </c>
       <c r="F116" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G116" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H116" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I116" t="b">
         <v>1</v>
@@ -5567,18 +6039,21 @@
         <v>1</v>
       </c>
       <c r="L116" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M116" s="2">
         <v>45065.39636574074</v>
       </c>
-    </row>
-    <row r="117" spans="1:13">
+      <c r="N116">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B117" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C117">
         <v>117</v>
@@ -5590,13 +6065,13 @@
         <v>45063.09152335648</v>
       </c>
       <c r="F117" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G117" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H117" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I117" t="b">
         <v>1</v>
@@ -5608,18 +6083,21 @@
         <v>1</v>
       </c>
       <c r="L117" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M117" s="2">
         <v>45065.39636574074</v>
       </c>
-    </row>
-    <row r="118" spans="1:13">
+      <c r="N117">
+        <v>66.83</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B118" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C118">
         <v>118</v>
@@ -5631,13 +6109,13 @@
         <v>45063.16619079861</v>
       </c>
       <c r="F118" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G118" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H118" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I118" t="b">
         <v>1</v>
@@ -5649,36 +6127,39 @@
         <v>1</v>
       </c>
       <c r="L118" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M118" s="2">
         <v>45065.39671296296</v>
       </c>
-    </row>
-    <row r="119" spans="1:13">
+      <c r="N118">
+        <v>1751.54</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B119" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C119">
         <v>118</v>
       </c>
       <c r="D119">
-        <v>5364</v>
+        <v>0</v>
       </c>
       <c r="E119" s="2">
         <v>45063.16619079861</v>
       </c>
       <c r="F119" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G119" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H119" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I119" t="b">
         <v>1</v>
@@ -5690,18 +6171,21 @@
         <v>1</v>
       </c>
       <c r="L119" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M119" s="2">
         <v>45065.39671296296</v>
       </c>
-    </row>
-    <row r="120" spans="1:13">
+      <c r="N119">
+        <v>5364</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B120" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C120">
         <v>118</v>
@@ -5713,13 +6197,13 @@
         <v>45063.16619079861</v>
       </c>
       <c r="F120" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G120" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H120" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I120" t="b">
         <v>1</v>
@@ -5731,36 +6215,39 @@
         <v>1</v>
       </c>
       <c r="L120" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M120" s="2">
         <v>45065.39671296296</v>
       </c>
-    </row>
-    <row r="121" spans="1:13">
+      <c r="N120">
+        <v>451.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B121" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C121">
         <v>118</v>
       </c>
       <c r="D121">
-        <v>5340</v>
+        <v>0</v>
       </c>
       <c r="E121" s="2">
         <v>45063.16619079861</v>
       </c>
       <c r="F121" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G121" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H121" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I121" t="b">
         <v>1</v>
@@ -5772,36 +6259,39 @@
         <v>1</v>
       </c>
       <c r="L121" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M121" s="2">
         <v>45065.39671296296</v>
       </c>
-    </row>
-    <row r="122" spans="1:13">
+      <c r="N121">
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B122" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C122">
         <v>120</v>
       </c>
       <c r="D122">
-        <v>1703</v>
+        <v>0</v>
       </c>
       <c r="E122" s="2">
         <v>45063.25902819444</v>
       </c>
       <c r="F122" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G122" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H122" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I122" t="b">
         <v>1</v>
@@ -5813,18 +6303,21 @@
         <v>1</v>
       </c>
       <c r="L122" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M122" s="2">
         <v>45065.39842592592</v>
       </c>
-    </row>
-    <row r="123" spans="1:13">
+      <c r="N122">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B123" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C123">
         <v>120</v>
@@ -5836,13 +6329,13 @@
         <v>45063.25902819444</v>
       </c>
       <c r="F123" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G123" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H123" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I123" t="b">
         <v>1</v>
@@ -5854,36 +6347,39 @@
         <v>1</v>
       </c>
       <c r="L123" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M123" s="2">
         <v>45065.39842592592</v>
       </c>
-    </row>
-    <row r="124" spans="1:13">
+      <c r="N123">
+        <v>1702.51</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B124" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C124">
         <v>122</v>
       </c>
       <c r="D124">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E124" s="2">
         <v>45064.113225625</v>
       </c>
       <c r="F124" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G124" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H124" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I124" t="b">
         <v>1</v>
@@ -5895,36 +6391,39 @@
         <v>1</v>
       </c>
       <c r="L124" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M124" s="2">
         <v>45065.33899305556</v>
       </c>
-    </row>
-    <row r="125" spans="1:13">
+      <c r="N124">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B125" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C125">
         <v>124</v>
       </c>
       <c r="D125">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E125" s="2">
         <v>45064.11419769676</v>
       </c>
       <c r="F125" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G125" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H125" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I125" t="b">
         <v>1</v>
@@ -5936,36 +6435,39 @@
         <v>1</v>
       </c>
       <c r="L125" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M125" s="2">
         <v>45065.33873842593</v>
       </c>
-    </row>
-    <row r="126" spans="1:13">
+      <c r="N125">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B126" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C126">
         <v>126</v>
       </c>
       <c r="D126">
-        <v>481</v>
+        <v>0</v>
       </c>
       <c r="E126" s="2">
         <v>45064.34021627315</v>
       </c>
       <c r="F126" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G126" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H126" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I126" t="b">
         <v>1</v>
@@ -5977,36 +6479,39 @@
         <v>1</v>
       </c>
       <c r="L126" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M126" s="2">
         <v>45065.39864583333</v>
       </c>
-    </row>
-    <row r="127" spans="1:13">
+      <c r="N126">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B127" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C127">
         <v>128</v>
       </c>
       <c r="D127">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="E127" s="2">
         <v>45064.34519577547</v>
       </c>
       <c r="F127" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G127" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H127" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I127" t="b">
         <v>1</v>
@@ -6018,36 +6523,39 @@
         <v>1</v>
       </c>
       <c r="L127" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M127" s="2">
         <v>45065.39938657408</v>
       </c>
-    </row>
-    <row r="128" spans="1:13">
+      <c r="N127">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B128" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C128">
         <v>130</v>
       </c>
       <c r="D128">
-        <v>716</v>
+        <v>0</v>
       </c>
       <c r="E128" s="2">
         <v>45070.30361276621</v>
       </c>
       <c r="F128" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G128" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H128" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I128" t="b">
         <v>1</v>
@@ -6059,18 +6567,21 @@
         <v>1</v>
       </c>
       <c r="L128" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M128" s="2">
         <v>45079.25689814815</v>
       </c>
-    </row>
-    <row r="129" spans="1:13">
+      <c r="N128">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
       <c r="A129" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B129" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C129">
         <v>132</v>
@@ -6082,13 +6593,13 @@
         <v>45072.2817774537</v>
       </c>
       <c r="F129" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G129" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H129" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I129" t="b">
         <v>1</v>
@@ -6100,18 +6611,21 @@
         <v>1</v>
       </c>
       <c r="L129" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="M129" s="2">
         <v>45071.29583333333</v>
       </c>
-    </row>
-    <row r="130" spans="1:13">
+      <c r="N129">
+        <v>98309.63</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
       <c r="A130" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B130" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C130">
         <v>134</v>
@@ -6123,13 +6637,13 @@
         <v>45071.0833384375</v>
       </c>
       <c r="F130" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G130" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H130" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="I130" t="b">
         <v>1</v>
@@ -6141,18 +6655,21 @@
         <v>1</v>
       </c>
       <c r="L130" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="M130" s="2">
         <v>45071.28740740741</v>
       </c>
-    </row>
-    <row r="131" spans="1:13">
+      <c r="N130">
+        <v>75863.59</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
       <c r="A131" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B131" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C131">
         <v>138</v>
@@ -6164,13 +6681,13 @@
         <v>45071.08490408565</v>
       </c>
       <c r="F131" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G131" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H131" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="I131" t="b">
         <v>1</v>
@@ -6182,18 +6699,21 @@
         <v>1</v>
       </c>
       <c r="L131" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="M131" s="2">
         <v>45071.28775017361</v>
       </c>
-    </row>
-    <row r="132" spans="1:13">
+      <c r="N131">
+        <v>75863.59</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
       <c r="A132" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B132" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C132">
         <v>140</v>
@@ -6205,13 +6725,13 @@
         <v>45072.3031109375</v>
       </c>
       <c r="F132" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G132" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H132" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I132" t="b">
         <v>1</v>
@@ -6223,18 +6743,21 @@
         <v>1</v>
       </c>
       <c r="L132" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M132" s="2">
         <v>45079.25763888889</v>
       </c>
-    </row>
-    <row r="133" spans="1:13">
+      <c r="N132">
+        <v>14.02</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
       <c r="A133" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B133" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C133">
         <v>140</v>
@@ -6246,13 +6769,13 @@
         <v>45072.3031109375</v>
       </c>
       <c r="F133" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G133" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H133" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I133" t="b">
         <v>1</v>
@@ -6264,36 +6787,39 @@
         <v>1</v>
       </c>
       <c r="L133" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M133" s="2">
         <v>45079.25763888889</v>
       </c>
-    </row>
-    <row r="134" spans="1:13">
+      <c r="N133">
+        <v>59.88</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
       <c r="A134" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B134" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C134">
         <v>140</v>
       </c>
       <c r="D134">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E134" s="2">
         <v>45072.3031109375</v>
       </c>
       <c r="F134" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G134" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H134" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I134" t="b">
         <v>1</v>
@@ -6305,18 +6831,21 @@
         <v>1</v>
       </c>
       <c r="L134" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M134" s="2">
         <v>45079.25763888889</v>
       </c>
-    </row>
-    <row r="135" spans="1:13">
+      <c r="N134">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
       <c r="A135" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B135" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C135">
         <v>140</v>
@@ -6328,13 +6857,13 @@
         <v>45072.3031109375</v>
       </c>
       <c r="F135" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G135" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H135" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I135" t="b">
         <v>1</v>
@@ -6346,18 +6875,21 @@
         <v>1</v>
       </c>
       <c r="L135" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M135" s="2">
         <v>45079.25763888889</v>
       </c>
-    </row>
-    <row r="136" spans="1:13">
+      <c r="N135">
+        <v>122.2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
       <c r="A136" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B136" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C136">
         <v>140</v>
@@ -6369,13 +6901,13 @@
         <v>45072.3031109375</v>
       </c>
       <c r="F136" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G136" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H136" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I136" t="b">
         <v>1</v>
@@ -6387,36 +6919,39 @@
         <v>1</v>
       </c>
       <c r="L136" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M136" s="2">
         <v>45079.25763888889</v>
       </c>
-    </row>
-    <row r="137" spans="1:13">
+      <c r="N136">
+        <v>62.09</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
       <c r="A137" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B137" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C137">
         <v>140</v>
       </c>
       <c r="D137">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E137" s="2">
         <v>45072.3031109375</v>
       </c>
       <c r="F137" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G137" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H137" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I137" t="b">
         <v>1</v>
@@ -6428,36 +6963,39 @@
         <v>1</v>
       </c>
       <c r="L137" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M137" s="2">
         <v>45079.25763888889</v>
       </c>
-    </row>
-    <row r="138" spans="1:13">
+      <c r="N137">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
       <c r="A138" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B138" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C138">
         <v>142</v>
       </c>
       <c r="D138">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="E138" s="2">
         <v>45075.34471542824</v>
       </c>
       <c r="F138" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G138" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H138" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I138" t="b">
         <v>1</v>
@@ -6469,36 +7007,39 @@
         <v>1</v>
       </c>
       <c r="L138" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M138" s="2">
         <v>45079.25842592592</v>
       </c>
-    </row>
-    <row r="139" spans="1:13">
+      <c r="N138">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
       <c r="A139" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B139" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C139">
         <v>142</v>
       </c>
       <c r="D139">
-        <v>868</v>
+        <v>0</v>
       </c>
       <c r="E139" s="2">
         <v>45075.34471542824</v>
       </c>
       <c r="F139" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G139" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H139" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I139" t="b">
         <v>1</v>
@@ -6510,36 +7051,39 @@
         <v>1</v>
       </c>
       <c r="L139" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M139" s="2">
         <v>45079.25842592592</v>
       </c>
-    </row>
-    <row r="140" spans="1:13">
+      <c r="N139">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
       <c r="A140" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B140" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C140">
         <v>142</v>
       </c>
       <c r="D140">
-        <v>735</v>
+        <v>0</v>
       </c>
       <c r="E140" s="2">
         <v>45075.34471542824</v>
       </c>
       <c r="F140" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G140" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H140" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I140" t="b">
         <v>1</v>
@@ -6551,36 +7095,39 @@
         <v>1</v>
       </c>
       <c r="L140" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M140" s="2">
         <v>45079.25842592592</v>
       </c>
-    </row>
-    <row r="141" spans="1:13">
+      <c r="N140">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
       <c r="A141" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B141" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C141">
         <v>142</v>
       </c>
       <c r="D141">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E141" s="2">
         <v>45075.34471542824</v>
       </c>
       <c r="F141" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G141" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H141" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I141" t="b">
         <v>1</v>
@@ -6592,36 +7139,39 @@
         <v>1</v>
       </c>
       <c r="L141" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M141" s="2">
         <v>45079.25842592592</v>
       </c>
-    </row>
-    <row r="142" spans="1:13">
+      <c r="N141">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
       <c r="A142" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B142" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C142">
         <v>142</v>
       </c>
       <c r="D142">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="E142" s="2">
         <v>45075.34471542824</v>
       </c>
       <c r="F142" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G142" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H142" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I142" t="b">
         <v>1</v>
@@ -6633,36 +7183,39 @@
         <v>1</v>
       </c>
       <c r="L142" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M142" s="2">
         <v>45079.25842592592</v>
       </c>
-    </row>
-    <row r="143" spans="1:13">
+      <c r="N142">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
       <c r="A143" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B143" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C143">
         <v>142</v>
       </c>
       <c r="D143">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E143" s="2">
         <v>45075.34471542824</v>
       </c>
       <c r="F143" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G143" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H143" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I143" t="b">
         <v>1</v>
@@ -6674,36 +7227,39 @@
         <v>1</v>
       </c>
       <c r="L143" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M143" s="2">
         <v>45079.25842592592</v>
       </c>
-    </row>
-    <row r="144" spans="1:13">
+      <c r="N143">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
       <c r="A144" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B144" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C144">
         <v>142</v>
       </c>
       <c r="D144">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E144" s="2">
         <v>45075.34471542824</v>
       </c>
       <c r="F144" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G144" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H144" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I144" t="b">
         <v>1</v>
@@ -6715,36 +7271,42 @@
         <v>1</v>
       </c>
       <c r="L144" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M144" s="2">
         <v>45079.25842592592</v>
       </c>
-    </row>
-    <row r="145" spans="1:11">
+      <c r="N144">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
       <c r="A145" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B145" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C145">
         <v>143</v>
       </c>
       <c r="D145">
-        <v>6275</v>
+        <v>0</v>
       </c>
       <c r="E145" s="2">
         <v>45082.13151047454</v>
       </c>
+      <c r="F145" t="s">
+        <v>193</v>
+      </c>
       <c r="G145" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H145" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="I145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -6752,37 +7314,1665 @@
       <c r="K145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:11">
+      <c r="L145" t="s">
+        <v>201</v>
+      </c>
+      <c r="M145" s="2">
+        <v>45093.10940972222</v>
+      </c>
+      <c r="N145">
+        <v>6275</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
       <c r="A146" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B146" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C146">
         <v>145</v>
       </c>
       <c r="D146">
-        <v>6275</v>
+        <v>0</v>
       </c>
       <c r="E146" s="2">
         <v>45082.13246663194</v>
       </c>
+      <c r="F146" t="s">
+        <v>193</v>
+      </c>
       <c r="G146" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H146" t="s">
+        <v>195</v>
+      </c>
+      <c r="I146" t="b">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146" t="s">
+        <v>201</v>
+      </c>
+      <c r="M146" s="2">
+        <v>45093.10913194445</v>
+      </c>
+      <c r="N146">
+        <v>6275</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="A147" t="s">
+        <v>15</v>
+      </c>
+      <c r="B147" t="s">
+        <v>157</v>
+      </c>
+      <c r="C147">
+        <v>147</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45082.32171037037</v>
+      </c>
+      <c r="F147" t="s">
+        <v>193</v>
+      </c>
+      <c r="G147" t="s">
+        <v>194</v>
+      </c>
+      <c r="H147" t="s">
+        <v>195</v>
+      </c>
+      <c r="I147" t="b">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147" t="s">
+        <v>201</v>
+      </c>
+      <c r="M147" s="2">
+        <v>45093.10975694445</v>
+      </c>
+      <c r="N147">
+        <v>6969</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148" t="s">
+        <v>15</v>
+      </c>
+      <c r="B148" t="s">
         <v>158</v>
       </c>
-      <c r="I146" t="b">
-        <v>0</v>
-      </c>
-      <c r="J146">
-        <v>0</v>
-      </c>
-      <c r="K146">
-        <v>1</v>
+      <c r="C148">
+        <v>147</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45082.32171037037</v>
+      </c>
+      <c r="F148" t="s">
+        <v>193</v>
+      </c>
+      <c r="G148" t="s">
+        <v>194</v>
+      </c>
+      <c r="H148" t="s">
+        <v>195</v>
+      </c>
+      <c r="I148" t="b">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148" t="s">
+        <v>201</v>
+      </c>
+      <c r="M148" s="2">
+        <v>45093.10975694445</v>
+      </c>
+      <c r="N148">
+        <v>9090</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="A149" t="s">
+        <v>26</v>
+      </c>
+      <c r="B149" t="s">
+        <v>159</v>
+      </c>
+      <c r="C149">
+        <v>150</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45085.39041666667</v>
+      </c>
+      <c r="G149" t="s">
+        <v>194</v>
+      </c>
+      <c r="H149" t="s">
+        <v>197</v>
+      </c>
+      <c r="I149" t="b">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="N149">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="A150" t="s">
+        <v>14</v>
+      </c>
+      <c r="B150" t="s">
+        <v>160</v>
+      </c>
+      <c r="C150">
+        <v>152</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45087.13839564815</v>
+      </c>
+      <c r="F150" t="s">
+        <v>193</v>
+      </c>
+      <c r="G150" t="s">
+        <v>194</v>
+      </c>
+      <c r="H150" t="s">
+        <v>195</v>
+      </c>
+      <c r="I150" t="b">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150" t="s">
+        <v>201</v>
+      </c>
+      <c r="M150" s="2">
+        <v>45093.10726851852</v>
+      </c>
+      <c r="N150">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="A151" t="s">
+        <v>23</v>
+      </c>
+      <c r="B151" t="s">
+        <v>161</v>
+      </c>
+      <c r="C151">
+        <v>157</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45089.09667667824</v>
+      </c>
+      <c r="F151" t="s">
+        <v>193</v>
+      </c>
+      <c r="G151" t="s">
+        <v>194</v>
+      </c>
+      <c r="H151" t="s">
+        <v>195</v>
+      </c>
+      <c r="I151" t="b">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151" t="s">
+        <v>202</v>
+      </c>
+      <c r="M151" s="2">
+        <v>45089.12399305555</v>
+      </c>
+      <c r="N151">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="A152" t="s">
+        <v>23</v>
+      </c>
+      <c r="B152" t="s">
+        <v>162</v>
+      </c>
+      <c r="C152">
+        <v>159</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45089.09461925926</v>
+      </c>
+      <c r="F152" t="s">
+        <v>193</v>
+      </c>
+      <c r="G152" t="s">
+        <v>194</v>
+      </c>
+      <c r="H152" t="s">
+        <v>195</v>
+      </c>
+      <c r="I152" t="b">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152" t="s">
+        <v>202</v>
+      </c>
+      <c r="M152" s="2">
+        <v>45089.12369212963</v>
+      </c>
+      <c r="N152">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153" t="s">
+        <v>21</v>
+      </c>
+      <c r="B153" t="s">
+        <v>163</v>
+      </c>
+      <c r="C153">
+        <v>161</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45089.09517393519</v>
+      </c>
+      <c r="F153" t="s">
+        <v>193</v>
+      </c>
+      <c r="G153" t="s">
+        <v>194</v>
+      </c>
+      <c r="H153" t="s">
+        <v>195</v>
+      </c>
+      <c r="I153" t="b">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153" t="s">
+        <v>203</v>
+      </c>
+      <c r="M153" s="2">
+        <v>45089.3234375</v>
+      </c>
+      <c r="N153">
+        <v>16240</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154" t="s">
+        <v>21</v>
+      </c>
+      <c r="B154" t="s">
+        <v>164</v>
+      </c>
+      <c r="C154">
+        <v>163</v>
+      </c>
+      <c r="D154">
+        <v>44006.98</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45090.08979396991</v>
+      </c>
+      <c r="F154" t="s">
+        <v>193</v>
+      </c>
+      <c r="G154" t="s">
+        <v>194</v>
+      </c>
+      <c r="H154" t="s">
+        <v>195</v>
+      </c>
+      <c r="I154" t="b">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154" t="s">
+        <v>204</v>
+      </c>
+      <c r="M154" s="2">
+        <v>45090.33952546296</v>
+      </c>
+      <c r="N154">
+        <v>44006.98</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="A155" t="s">
+        <v>27</v>
+      </c>
+      <c r="B155" t="s">
+        <v>165</v>
+      </c>
+      <c r="C155">
+        <v>165</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45089.34338780092</v>
+      </c>
+      <c r="F155" t="s">
+        <v>193</v>
+      </c>
+      <c r="G155" t="s">
+        <v>194</v>
+      </c>
+      <c r="H155" t="s">
+        <v>195</v>
+      </c>
+      <c r="I155" t="b">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155" t="s">
+        <v>201</v>
+      </c>
+      <c r="M155" s="2">
+        <v>45093.10851851852</v>
+      </c>
+      <c r="N155">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="A156" t="s">
+        <v>21</v>
+      </c>
+      <c r="B156" t="s">
+        <v>166</v>
+      </c>
+      <c r="C156">
+        <v>167</v>
+      </c>
+      <c r="D156">
+        <v>1826.18</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45090.09786038195</v>
+      </c>
+      <c r="F156" t="s">
+        <v>193</v>
+      </c>
+      <c r="G156" t="s">
+        <v>194</v>
+      </c>
+      <c r="H156" t="s">
+        <v>195</v>
+      </c>
+      <c r="I156" t="b">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156" t="s">
+        <v>202</v>
+      </c>
+      <c r="M156" s="2">
+        <v>45090.32322916666</v>
+      </c>
+      <c r="N156">
+        <v>1826.18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
+      <c r="A157" t="s">
+        <v>18</v>
+      </c>
+      <c r="B157" t="s">
+        <v>167</v>
+      </c>
+      <c r="C157">
+        <v>169</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45090.29229085648</v>
+      </c>
+      <c r="F157" t="s">
+        <v>193</v>
+      </c>
+      <c r="G157" t="s">
+        <v>194</v>
+      </c>
+      <c r="H157" t="s">
+        <v>195</v>
+      </c>
+      <c r="I157" t="b">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157" t="s">
+        <v>201</v>
+      </c>
+      <c r="M157" s="2">
+        <v>45093.10880787037</v>
+      </c>
+      <c r="N157">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
+      <c r="A158" t="s">
+        <v>27</v>
+      </c>
+      <c r="B158" t="s">
+        <v>168</v>
+      </c>
+      <c r="C158">
+        <v>171</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45100.37600694445</v>
+      </c>
+      <c r="G158" t="s">
+        <v>194</v>
+      </c>
+      <c r="H158" t="s">
+        <v>198</v>
+      </c>
+      <c r="I158" t="b">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>17361</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
+      <c r="A159" t="s">
+        <v>27</v>
+      </c>
+      <c r="B159" t="s">
+        <v>169</v>
+      </c>
+      <c r="C159">
+        <v>171</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45100.37600694445</v>
+      </c>
+      <c r="G159" t="s">
+        <v>194</v>
+      </c>
+      <c r="H159" t="s">
+        <v>198</v>
+      </c>
+      <c r="I159" t="b">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="N159">
+        <v>6898</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="A160" t="s">
+        <v>27</v>
+      </c>
+      <c r="B160" t="s">
+        <v>170</v>
+      </c>
+      <c r="C160">
+        <v>171</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45100.37600694445</v>
+      </c>
+      <c r="G160" t="s">
+        <v>194</v>
+      </c>
+      <c r="H160" t="s">
+        <v>198</v>
+      </c>
+      <c r="I160" t="b">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
+      <c r="A161" t="s">
+        <v>27</v>
+      </c>
+      <c r="B161" t="s">
+        <v>171</v>
+      </c>
+      <c r="C161">
+        <v>171</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45100.37600694445</v>
+      </c>
+      <c r="G161" t="s">
+        <v>194</v>
+      </c>
+      <c r="H161" t="s">
+        <v>198</v>
+      </c>
+      <c r="I161" t="b">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="N161">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
+      <c r="A162" t="s">
+        <v>27</v>
+      </c>
+      <c r="B162" t="s">
+        <v>172</v>
+      </c>
+      <c r="C162">
+        <v>171</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45100.37600694445</v>
+      </c>
+      <c r="G162" t="s">
+        <v>194</v>
+      </c>
+      <c r="H162" t="s">
+        <v>198</v>
+      </c>
+      <c r="I162" t="b">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>7720</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
+      <c r="A163" t="s">
+        <v>27</v>
+      </c>
+      <c r="B163" t="s">
+        <v>173</v>
+      </c>
+      <c r="C163">
+        <v>171</v>
+      </c>
+      <c r="D163">
+        <v>2015.19</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45100.37600694445</v>
+      </c>
+      <c r="G163" t="s">
+        <v>194</v>
+      </c>
+      <c r="H163" t="s">
+        <v>198</v>
+      </c>
+      <c r="I163" t="b">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>2015.19</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
+      <c r="A164" t="s">
+        <v>27</v>
+      </c>
+      <c r="B164" t="s">
+        <v>174</v>
+      </c>
+      <c r="C164">
+        <v>171</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45100.37600694445</v>
+      </c>
+      <c r="G164" t="s">
+        <v>194</v>
+      </c>
+      <c r="H164" t="s">
+        <v>198</v>
+      </c>
+      <c r="I164" t="b">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="N164">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
+      <c r="A165" t="s">
+        <v>27</v>
+      </c>
+      <c r="B165" t="s">
+        <v>175</v>
+      </c>
+      <c r="C165">
+        <v>171</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45100.37600694445</v>
+      </c>
+      <c r="G165" t="s">
+        <v>194</v>
+      </c>
+      <c r="H165" t="s">
+        <v>198</v>
+      </c>
+      <c r="I165" t="b">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
+      <c r="A166" t="s">
+        <v>18</v>
+      </c>
+      <c r="B166" t="s">
+        <v>176</v>
+      </c>
+      <c r="C166">
+        <v>173</v>
+      </c>
+      <c r="D166">
+        <v>299.42</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45100.38656390047</v>
+      </c>
+      <c r="F166" t="s">
+        <v>193</v>
+      </c>
+      <c r="G166" t="s">
+        <v>194</v>
+      </c>
+      <c r="H166" t="s">
+        <v>195</v>
+      </c>
+      <c r="I166" t="b">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166" t="s">
+        <v>201</v>
+      </c>
+      <c r="M166" s="2">
+        <v>45093.13473379629</v>
+      </c>
+      <c r="N166">
+        <v>299.42</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
+      <c r="A167" t="s">
+        <v>15</v>
+      </c>
+      <c r="B167" t="s">
+        <v>177</v>
+      </c>
+      <c r="C167">
+        <v>173</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45100.38656390047</v>
+      </c>
+      <c r="F167" t="s">
+        <v>193</v>
+      </c>
+      <c r="G167" t="s">
+        <v>194</v>
+      </c>
+      <c r="H167" t="s">
+        <v>195</v>
+      </c>
+      <c r="I167" t="b">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167" t="s">
+        <v>201</v>
+      </c>
+      <c r="M167" s="2">
+        <v>45093.13473379629</v>
+      </c>
+      <c r="N167">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
+      <c r="A168" t="s">
+        <v>27</v>
+      </c>
+      <c r="B168" t="s">
+        <v>178</v>
+      </c>
+      <c r="C168">
+        <v>174</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45093.41815972222</v>
+      </c>
+      <c r="F168" t="s">
+        <v>193</v>
+      </c>
+      <c r="G168" t="s">
+        <v>194</v>
+      </c>
+      <c r="H168" t="s">
+        <v>195</v>
+      </c>
+      <c r="I168" t="b">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168" t="s">
+        <v>201</v>
+      </c>
+      <c r="M168" s="2">
+        <v>45093.30967592593</v>
+      </c>
+      <c r="N168">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
+      <c r="A169" t="s">
+        <v>27</v>
+      </c>
+      <c r="B169" t="s">
+        <v>179</v>
+      </c>
+      <c r="C169">
+        <v>174</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45093.41815972222</v>
+      </c>
+      <c r="F169" t="s">
+        <v>193</v>
+      </c>
+      <c r="G169" t="s">
+        <v>194</v>
+      </c>
+      <c r="H169" t="s">
+        <v>195</v>
+      </c>
+      <c r="I169" t="b">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169" t="s">
+        <v>201</v>
+      </c>
+      <c r="M169" s="2">
+        <v>45093.30967592593</v>
+      </c>
+      <c r="N169">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
+      <c r="A170" t="s">
+        <v>27</v>
+      </c>
+      <c r="B170" t="s">
+        <v>180</v>
+      </c>
+      <c r="C170">
+        <v>174</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45093.41815972222</v>
+      </c>
+      <c r="F170" t="s">
+        <v>193</v>
+      </c>
+      <c r="G170" t="s">
+        <v>194</v>
+      </c>
+      <c r="H170" t="s">
+        <v>195</v>
+      </c>
+      <c r="I170" t="b">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170" t="s">
+        <v>201</v>
+      </c>
+      <c r="M170" s="2">
+        <v>45093.30967592593</v>
+      </c>
+      <c r="N170">
+        <v>12737</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
+      <c r="A171" t="s">
+        <v>27</v>
+      </c>
+      <c r="B171" t="s">
+        <v>53</v>
+      </c>
+      <c r="C171">
+        <v>174</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45093.41815972222</v>
+      </c>
+      <c r="F171" t="s">
+        <v>193</v>
+      </c>
+      <c r="G171" t="s">
+        <v>194</v>
+      </c>
+      <c r="H171" t="s">
+        <v>195</v>
+      </c>
+      <c r="I171" t="b">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171" t="s">
+        <v>201</v>
+      </c>
+      <c r="M171" s="2">
+        <v>45093.30967592593</v>
+      </c>
+      <c r="N171">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
+      <c r="A172" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172" t="s">
+        <v>181</v>
+      </c>
+      <c r="C172">
+        <v>176</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45091.12725432871</v>
+      </c>
+      <c r="F172" t="s">
+        <v>193</v>
+      </c>
+      <c r="G172" t="s">
+        <v>194</v>
+      </c>
+      <c r="H172" t="s">
+        <v>195</v>
+      </c>
+      <c r="I172" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172" t="s">
+        <v>201</v>
+      </c>
+      <c r="M172" s="2">
+        <v>45093.1325</v>
+      </c>
+      <c r="N172">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
+      <c r="A173" t="s">
+        <v>15</v>
+      </c>
+      <c r="B173" t="s">
+        <v>182</v>
+      </c>
+      <c r="C173">
+        <v>178</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45091.1426519676</v>
+      </c>
+      <c r="F173" t="s">
+        <v>193</v>
+      </c>
+      <c r="G173" t="s">
+        <v>194</v>
+      </c>
+      <c r="H173" t="s">
+        <v>195</v>
+      </c>
+      <c r="I173" t="b">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173" t="s">
+        <v>201</v>
+      </c>
+      <c r="M173" s="2">
+        <v>45093.13365740741</v>
+      </c>
+      <c r="N173">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
+      <c r="A174" t="s">
+        <v>27</v>
+      </c>
+      <c r="B174" t="s">
+        <v>183</v>
+      </c>
+      <c r="C174">
+        <v>180</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45107.34306712963</v>
+      </c>
+      <c r="G174" t="s">
+        <v>194</v>
+      </c>
+      <c r="H174" t="s">
+        <v>198</v>
+      </c>
+      <c r="I174" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
+      <c r="A175" t="s">
+        <v>27</v>
+      </c>
+      <c r="B175" t="s">
+        <v>92</v>
+      </c>
+      <c r="C175">
+        <v>182</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45106.40506944444</v>
+      </c>
+      <c r="G175" t="s">
+        <v>194</v>
+      </c>
+      <c r="H175" t="s">
+        <v>198</v>
+      </c>
+      <c r="I175" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
+      <c r="A176" t="s">
+        <v>27</v>
+      </c>
+      <c r="B176" t="s">
+        <v>92</v>
+      </c>
+      <c r="C176">
+        <v>182</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45106.40506944444</v>
+      </c>
+      <c r="G176" t="s">
+        <v>194</v>
+      </c>
+      <c r="H176" t="s">
+        <v>198</v>
+      </c>
+      <c r="I176" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14">
+      <c r="A177" t="s">
+        <v>27</v>
+      </c>
+      <c r="B177" t="s">
+        <v>184</v>
+      </c>
+      <c r="C177">
+        <v>182</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45106.40506944444</v>
+      </c>
+      <c r="G177" t="s">
+        <v>194</v>
+      </c>
+      <c r="H177" t="s">
+        <v>198</v>
+      </c>
+      <c r="I177" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="N177">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14">
+      <c r="A178" t="s">
+        <v>27</v>
+      </c>
+      <c r="B178" t="s">
+        <v>185</v>
+      </c>
+      <c r="C178">
+        <v>182</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45106.40506944444</v>
+      </c>
+      <c r="G178" t="s">
+        <v>194</v>
+      </c>
+      <c r="H178" t="s">
+        <v>198</v>
+      </c>
+      <c r="I178" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14">
+      <c r="A179" t="s">
+        <v>27</v>
+      </c>
+      <c r="B179" t="s">
+        <v>186</v>
+      </c>
+      <c r="C179">
+        <v>182</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45106.40506944444</v>
+      </c>
+      <c r="G179" t="s">
+        <v>194</v>
+      </c>
+      <c r="H179" t="s">
+        <v>198</v>
+      </c>
+      <c r="I179" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14">
+      <c r="A180" t="s">
+        <v>27</v>
+      </c>
+      <c r="B180" t="s">
+        <v>187</v>
+      </c>
+      <c r="C180">
+        <v>184</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45093.40869060185</v>
+      </c>
+      <c r="F180" t="s">
+        <v>193</v>
+      </c>
+      <c r="G180" t="s">
+        <v>194</v>
+      </c>
+      <c r="H180" t="s">
+        <v>195</v>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180" t="s">
+        <v>201</v>
+      </c>
+      <c r="M180" s="2">
+        <v>45093.10606481481</v>
+      </c>
+      <c r="N180">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14">
+      <c r="A181" t="s">
+        <v>27</v>
+      </c>
+      <c r="B181" t="s">
+        <v>188</v>
+      </c>
+      <c r="C181">
+        <v>184</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45093.40869060185</v>
+      </c>
+      <c r="F181" t="s">
+        <v>193</v>
+      </c>
+      <c r="G181" t="s">
+        <v>194</v>
+      </c>
+      <c r="H181" t="s">
+        <v>195</v>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181" t="s">
+        <v>201</v>
+      </c>
+      <c r="M181" s="2">
+        <v>45093.10606481481</v>
+      </c>
+      <c r="N181">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14">
+      <c r="A182" t="s">
+        <v>27</v>
+      </c>
+      <c r="B182" t="s">
+        <v>189</v>
+      </c>
+      <c r="C182">
+        <v>186</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45100.10488418982</v>
+      </c>
+      <c r="F182" t="s">
+        <v>193</v>
+      </c>
+      <c r="G182" t="s">
+        <v>194</v>
+      </c>
+      <c r="H182" t="s">
+        <v>195</v>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182" t="s">
+        <v>201</v>
+      </c>
+      <c r="M182" s="2">
+        <v>45093.10560185185</v>
+      </c>
+      <c r="N182">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14">
+      <c r="A183" t="s">
+        <v>27</v>
+      </c>
+      <c r="B183" t="s">
+        <v>190</v>
+      </c>
+      <c r="C183">
+        <v>188</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45100.13403832176</v>
+      </c>
+      <c r="F183" t="s">
+        <v>193</v>
+      </c>
+      <c r="G183" t="s">
+        <v>194</v>
+      </c>
+      <c r="H183" t="s">
+        <v>195</v>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183" t="s">
+        <v>201</v>
+      </c>
+      <c r="M183" s="2">
+        <v>45093.30501157408</v>
+      </c>
+      <c r="N183">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14">
+      <c r="A184" t="s">
+        <v>27</v>
+      </c>
+      <c r="B184" t="s">
+        <v>191</v>
+      </c>
+      <c r="C184">
+        <v>188</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45100.13403832176</v>
+      </c>
+      <c r="F184" t="s">
+        <v>193</v>
+      </c>
+      <c r="G184" t="s">
+        <v>194</v>
+      </c>
+      <c r="H184" t="s">
+        <v>195</v>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184" t="s">
+        <v>201</v>
+      </c>
+      <c r="M184" s="2">
+        <v>45093.30501157408</v>
+      </c>
+      <c r="N184">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14">
+      <c r="A185" t="s">
+        <v>27</v>
+      </c>
+      <c r="B185" t="s">
+        <v>53</v>
+      </c>
+      <c r="C185">
+        <v>190</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45097.08393040509</v>
+      </c>
+      <c r="G185" t="s">
+        <v>194</v>
+      </c>
+      <c r="H185" t="s">
+        <v>199</v>
+      </c>
+      <c r="I185" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14">
+      <c r="A186" t="s">
+        <v>18</v>
+      </c>
+      <c r="B186" t="s">
+        <v>192</v>
+      </c>
+      <c r="C186">
+        <v>192</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45097.14482143518</v>
+      </c>
+      <c r="G186" t="s">
+        <v>194</v>
+      </c>
+      <c r="H186" t="s">
+        <v>200</v>
+      </c>
+      <c r="I186" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>1800</v>
       </c>
     </row>
   </sheetData>

--- a/hans/df_expense_table_cells.xlsx
+++ b/hans/df_expense_table_cells.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="211">
   <si>
     <t>资金类别</t>
   </si>
@@ -49,6 +49,9 @@
     <t>单据汇率</t>
   </si>
   <si>
+    <t>voyagesName</t>
+  </si>
+  <si>
     <t>银行账号</t>
   </si>
   <si>
@@ -98,6 +101,9 @@
   </si>
   <si>
     <t>5502.14-员工费用</t>
+  </si>
+  <si>
+    <t>5502.10-薪资</t>
   </si>
   <si>
     <t>招待钢管客户及G2</t>
@@ -597,6 +603,27 @@
     <t>亚欧邮箱6年服务费</t>
   </si>
   <si>
+    <t>2023年6月12日凌晨虹桥机场至住地出租车费</t>
+  </si>
+  <si>
+    <t>宴请上港陈总，沪航柳总等六人</t>
+  </si>
+  <si>
+    <t>6.7-6.11贵州团建餐费</t>
+  </si>
+  <si>
+    <t>6.7-6.11贵州团建景区小吃</t>
+  </si>
+  <si>
+    <t>6.7-6.11贵州团建交通费</t>
+  </si>
+  <si>
+    <t>信智6月工资</t>
+  </si>
+  <si>
+    <t>沈翠翠5月6月工资划转至兴业银行账户</t>
+  </si>
+  <si>
     <t>RMB</t>
   </si>
   <si>
@@ -606,19 +633,10 @@
     <t>已关闭</t>
   </si>
   <si>
-    <t>出纳完成中</t>
+    <t>驳回中</t>
   </si>
   <si>
     <t>未送审</t>
-  </si>
-  <si>
-    <t>出纳审核中</t>
-  </si>
-  <si>
-    <t>财务经理审核中</t>
-  </si>
-  <si>
-    <t>公司批复中</t>
   </si>
   <si>
     <t>吴总股东往来/RMB</t>
@@ -992,13 +1010,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N186"/>
+  <dimension ref="A1:O193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1041,13 +1059,16 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>18</v>
@@ -1059,13 +1080,13 @@
         <v>44998.34665780092</v>
       </c>
       <c r="F2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -1076,22 +1097,25 @@
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
-        <v>201</v>
-      </c>
-      <c r="M2" s="2">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>207</v>
+      </c>
+      <c r="N2" s="2">
         <v>44995.10725694444</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>2782</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>19</v>
@@ -1103,13 +1127,13 @@
         <v>44998.35004600694</v>
       </c>
       <c r="F3" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G3" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H3" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -1120,22 +1144,25 @@
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
-        <v>201</v>
-      </c>
-      <c r="M3" s="2">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>207</v>
+      </c>
+      <c r="N3" s="2">
         <v>44995.10702546296</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>486.68</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -1147,13 +1174,13 @@
         <v>44998.35328634259</v>
       </c>
       <c r="F4" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G4" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H4" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -1164,22 +1191,25 @@
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4" t="s">
-        <v>201</v>
-      </c>
-      <c r="M4" s="2">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>207</v>
+      </c>
+      <c r="N4" s="2">
         <v>44995.10678240741</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1813</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -1191,13 +1221,13 @@
         <v>44998.35328634259</v>
       </c>
       <c r="F5" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G5" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H5" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -1208,22 +1238,25 @@
       <c r="K5">
         <v>1</v>
       </c>
-      <c r="L5" t="s">
-        <v>201</v>
-      </c>
-      <c r="M5" s="2">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>207</v>
+      </c>
+      <c r="N5" s="2">
         <v>44995.10678240741</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>3167</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>21</v>
@@ -1235,13 +1268,13 @@
         <v>44998.35491502315</v>
       </c>
       <c r="F6" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G6" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H6" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -1252,22 +1285,25 @@
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="L6" t="s">
-        <v>201</v>
-      </c>
-      <c r="M6" s="2">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>207</v>
+      </c>
+      <c r="N6" s="2">
         <v>45000.1064699074</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1399</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>22</v>
@@ -1279,13 +1315,13 @@
         <v>44998.35697050926</v>
       </c>
       <c r="F7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -1296,22 +1332,25 @@
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M7" s="2">
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>207</v>
+      </c>
+      <c r="N7" s="2">
         <v>44995.33467592593</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>494.9</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>22</v>
@@ -1323,13 +1362,13 @@
         <v>44998.35697050926</v>
       </c>
       <c r="F8" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G8" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H8" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -1340,22 +1379,25 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8" t="s">
-        <v>201</v>
-      </c>
-      <c r="M8" s="2">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>207</v>
+      </c>
+      <c r="N8" s="2">
         <v>44995.33467592593</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>22</v>
@@ -1367,13 +1409,13 @@
         <v>44998.35697050926</v>
       </c>
       <c r="F9" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G9" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H9" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -1384,22 +1426,25 @@
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" t="s">
-        <v>201</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>207</v>
+      </c>
+      <c r="N9" s="2">
         <v>44995.33467592593</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>3829</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>23</v>
@@ -1411,13 +1456,13 @@
         <v>44998.35608846065</v>
       </c>
       <c r="F10" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G10" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H10" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -1428,22 +1473,25 @@
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10" t="s">
-        <v>201</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>207</v>
+      </c>
+      <c r="N10" s="2">
         <v>44995.10621527778</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>15000</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>24</v>
@@ -1455,13 +1503,13 @@
         <v>44998.35801635417</v>
       </c>
       <c r="F11" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G11" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H11" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -1472,22 +1520,25 @@
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11" t="s">
-        <v>201</v>
-      </c>
-      <c r="M11" s="2">
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>207</v>
+      </c>
+      <c r="N11" s="2">
         <v>44995.10587962963</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>610</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <v>25</v>
@@ -1499,13 +1550,13 @@
         <v>44998.35955101852</v>
       </c>
       <c r="F12" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G12" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H12" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -1516,22 +1567,25 @@
       <c r="K12">
         <v>1</v>
       </c>
-      <c r="L12" t="s">
-        <v>201</v>
-      </c>
-      <c r="M12" s="2">
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>207</v>
+      </c>
+      <c r="N12" s="2">
         <v>44995.34130787037</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>1067</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>26</v>
@@ -1543,13 +1597,13 @@
         <v>44998.35966047454</v>
       </c>
       <c r="F13" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G13" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H13" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -1560,22 +1614,25 @@
       <c r="K13">
         <v>1</v>
       </c>
-      <c r="L13" t="s">
-        <v>201</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>207</v>
+      </c>
+      <c r="N13" s="2">
         <v>45002.28056712963</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C14">
         <v>27</v>
@@ -1587,13 +1644,13 @@
         <v>44998.36113280093</v>
       </c>
       <c r="F14" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G14" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H14" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -1604,22 +1661,25 @@
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="L14" t="s">
-        <v>201</v>
-      </c>
-      <c r="M14" s="2">
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>207</v>
+      </c>
+      <c r="N14" s="2">
         <v>45002.28086805555</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>405.01</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>28</v>
@@ -1631,13 +1691,13 @@
         <v>44998.36198395833</v>
       </c>
       <c r="F15" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G15" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H15" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -1648,22 +1708,25 @@
       <c r="K15">
         <v>1</v>
       </c>
-      <c r="L15" t="s">
-        <v>201</v>
-      </c>
-      <c r="M15" s="2">
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>207</v>
+      </c>
+      <c r="N15" s="2">
         <v>45002.28135416667</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>869</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <v>29</v>
@@ -1675,13 +1738,13 @@
         <v>44999.1429327662</v>
       </c>
       <c r="F16" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G16" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H16" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -1692,22 +1755,25 @@
       <c r="K16">
         <v>1</v>
       </c>
-      <c r="L16" t="s">
-        <v>201</v>
-      </c>
-      <c r="M16" s="2">
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>207</v>
+      </c>
+      <c r="N16" s="2">
         <v>45001.28188657408</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1572</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17">
         <v>29</v>
@@ -1719,13 +1785,13 @@
         <v>44999.1429327662</v>
       </c>
       <c r="F17" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G17" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H17" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -1736,22 +1802,25 @@
       <c r="K17">
         <v>1</v>
       </c>
-      <c r="L17" t="s">
-        <v>201</v>
-      </c>
-      <c r="M17" s="2">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>207</v>
+      </c>
+      <c r="N17" s="2">
         <v>45001.28188657408</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>17.13</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18">
         <v>30</v>
@@ -1763,13 +1832,13 @@
         <v>44999.14498083333</v>
       </c>
       <c r="F18" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G18" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H18" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -1780,22 +1849,25 @@
       <c r="K18">
         <v>1</v>
       </c>
-      <c r="L18" t="s">
-        <v>201</v>
-      </c>
-      <c r="M18" s="2">
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>207</v>
+      </c>
+      <c r="N18" s="2">
         <v>45002.28223379629</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19">
         <v>31</v>
@@ -1807,13 +1879,13 @@
         <v>44999.14929166667</v>
       </c>
       <c r="F19" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G19" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H19" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -1824,22 +1896,25 @@
       <c r="K19">
         <v>1</v>
       </c>
-      <c r="L19" t="s">
-        <v>201</v>
-      </c>
-      <c r="M19" s="2">
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>207</v>
+      </c>
+      <c r="N19" s="2">
         <v>45002.2827662037</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>3337</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20">
         <v>32</v>
@@ -1851,13 +1926,13 @@
         <v>44999.35608475695</v>
       </c>
       <c r="F20" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G20" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H20" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -1868,22 +1943,25 @@
       <c r="K20">
         <v>1</v>
       </c>
-      <c r="L20" t="s">
-        <v>201</v>
-      </c>
-      <c r="M20" s="2">
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>207</v>
+      </c>
+      <c r="N20" s="2">
         <v>45002.28305555556</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C21">
         <v>33</v>
@@ -1895,13 +1973,13 @@
         <v>44999.37286482639</v>
       </c>
       <c r="F21" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G21" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H21" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -1912,22 +1990,25 @@
       <c r="K21">
         <v>1</v>
       </c>
-      <c r="L21" t="s">
-        <v>201</v>
-      </c>
-      <c r="M21" s="2">
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>207</v>
+      </c>
+      <c r="N21" s="2">
         <v>45002.28333333333</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>1465</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C22">
         <v>34</v>
@@ -1939,13 +2020,13 @@
         <v>45000.30218704861</v>
       </c>
       <c r="F22" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H22" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
@@ -1956,22 +2037,25 @@
       <c r="K22">
         <v>1</v>
       </c>
-      <c r="L22" t="s">
-        <v>201</v>
-      </c>
-      <c r="M22" s="2">
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>207</v>
+      </c>
+      <c r="N22" s="2">
         <v>45002.28361111111</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>2114</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C23">
         <v>35</v>
@@ -1983,13 +2067,13 @@
         <v>45001.29345269676</v>
       </c>
       <c r="F23" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H23" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
@@ -2000,22 +2084,25 @@
       <c r="K23">
         <v>1</v>
       </c>
-      <c r="L23" t="s">
-        <v>201</v>
-      </c>
-      <c r="M23" s="2">
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>207</v>
+      </c>
+      <c r="N23" s="2">
         <v>45002.37799768519</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>2460</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C24">
         <v>35</v>
@@ -2027,13 +2114,13 @@
         <v>45001.29345269676</v>
       </c>
       <c r="F24" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G24" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H24" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I24" t="b">
         <v>1</v>
@@ -2044,22 +2131,25 @@
       <c r="K24">
         <v>1</v>
       </c>
-      <c r="L24" t="s">
-        <v>201</v>
-      </c>
-      <c r="M24" s="2">
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>207</v>
+      </c>
+      <c r="N24" s="2">
         <v>45002.37799768519</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25">
         <v>35</v>
@@ -2071,13 +2161,13 @@
         <v>45001.29345269676</v>
       </c>
       <c r="F25" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G25" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H25" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
@@ -2088,22 +2178,25 @@
       <c r="K25">
         <v>1</v>
       </c>
-      <c r="L25" t="s">
-        <v>201</v>
-      </c>
-      <c r="M25" s="2">
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>207</v>
+      </c>
+      <c r="N25" s="2">
         <v>45002.37799768519</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>60.99</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26">
         <v>35</v>
@@ -2115,13 +2208,13 @@
         <v>45001.29345269676</v>
       </c>
       <c r="F26" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G26" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H26" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I26" t="b">
         <v>1</v>
@@ -2132,22 +2225,25 @@
       <c r="K26">
         <v>1</v>
       </c>
-      <c r="L26" t="s">
-        <v>201</v>
-      </c>
-      <c r="M26" s="2">
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>207</v>
+      </c>
+      <c r="N26" s="2">
         <v>45002.37799768519</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>124.48</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>36</v>
@@ -2159,13 +2255,13 @@
         <v>45002.16524336806</v>
       </c>
       <c r="F27" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G27" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H27" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
@@ -2176,22 +2272,25 @@
       <c r="K27">
         <v>1</v>
       </c>
-      <c r="L27" t="s">
-        <v>201</v>
-      </c>
-      <c r="M27" s="2">
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>207</v>
+      </c>
+      <c r="N27" s="2">
         <v>45013.11997685185</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>153.2</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C28">
         <v>37</v>
@@ -2203,13 +2302,13 @@
         <v>45002.33841078704</v>
       </c>
       <c r="F28" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G28" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H28" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
@@ -2220,22 +2319,25 @@
       <c r="K28">
         <v>1</v>
       </c>
-      <c r="L28" t="s">
-        <v>201</v>
-      </c>
-      <c r="M28" s="2">
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>207</v>
+      </c>
+      <c r="N28" s="2">
         <v>45013.11972222223</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>550</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C29">
         <v>38</v>
@@ -2247,13 +2349,13 @@
         <v>45005.24194612268</v>
       </c>
       <c r="F29" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G29" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H29" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I29" t="b">
         <v>1</v>
@@ -2264,22 +2366,25 @@
       <c r="K29">
         <v>1</v>
       </c>
-      <c r="L29" t="s">
-        <v>202</v>
-      </c>
-      <c r="M29" s="2">
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>208</v>
+      </c>
+      <c r="N29" s="2">
         <v>45006.08386574074</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>0.65</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C30">
         <v>39</v>
@@ -2291,13 +2396,13 @@
         <v>45005.34290649305</v>
       </c>
       <c r="F30" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G30" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H30" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
@@ -2308,22 +2413,25 @@
       <c r="K30">
         <v>1</v>
       </c>
-      <c r="L30" t="s">
-        <v>201</v>
-      </c>
-      <c r="M30" s="2">
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
+        <v>207</v>
+      </c>
+      <c r="N30" s="2">
         <v>45013.11949074074</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>776</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C31">
         <v>40</v>
@@ -2335,13 +2443,13 @@
         <v>45007.37341414352</v>
       </c>
       <c r="F31" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G31" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H31" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
@@ -2352,22 +2460,25 @@
       <c r="K31">
         <v>1</v>
       </c>
-      <c r="L31" t="s">
-        <v>201</v>
-      </c>
-      <c r="M31" s="2">
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
+        <v>207</v>
+      </c>
+      <c r="N31" s="2">
         <v>45013.1190162037</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>581.92</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C32">
         <v>41</v>
@@ -2379,13 +2490,13 @@
         <v>45008.30710563657</v>
       </c>
       <c r="F32" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G32" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H32" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I32" t="b">
         <v>1</v>
@@ -2396,22 +2507,25 @@
       <c r="K32">
         <v>1</v>
       </c>
-      <c r="L32" t="s">
-        <v>201</v>
-      </c>
-      <c r="M32" s="2">
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>207</v>
+      </c>
+      <c r="N32" s="2">
         <v>45013.39726519676</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>483</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C33">
         <v>42</v>
@@ -2423,13 +2537,13 @@
         <v>45013.37752958333</v>
       </c>
       <c r="F33" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G33" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H33" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
@@ -2440,22 +2554,25 @@
       <c r="K33">
         <v>1</v>
       </c>
-      <c r="L33" t="s">
-        <v>201</v>
-      </c>
-      <c r="M33" s="2">
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33" t="s">
+        <v>207</v>
+      </c>
+      <c r="N33" s="2">
         <v>45023.08234953704</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>1790</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C34">
         <v>43</v>
@@ -2467,13 +2584,13 @@
         <v>45020.08620959491</v>
       </c>
       <c r="F34" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G34" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H34" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I34" t="b">
         <v>1</v>
@@ -2484,22 +2601,25 @@
       <c r="K34">
         <v>1</v>
       </c>
-      <c r="L34" t="s">
-        <v>201</v>
-      </c>
-      <c r="M34" s="2">
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34" t="s">
+        <v>207</v>
+      </c>
+      <c r="N34" s="2">
         <v>45023.10739583334</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>1200</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C35">
         <v>44</v>
@@ -2511,13 +2631,13 @@
         <v>45020.3557540625</v>
       </c>
       <c r="F35" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G35" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H35" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I35" t="b">
         <v>1</v>
@@ -2528,22 +2648,25 @@
       <c r="K35">
         <v>1</v>
       </c>
-      <c r="L35" t="s">
-        <v>202</v>
-      </c>
-      <c r="M35" s="2">
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>208</v>
+      </c>
+      <c r="N35" s="2">
         <v>45023.08731481482</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C36">
         <v>45</v>
@@ -2555,13 +2678,13 @@
         <v>45020.36067335648</v>
       </c>
       <c r="F36" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G36" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H36" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I36" t="b">
         <v>1</v>
@@ -2572,22 +2695,25 @@
       <c r="K36">
         <v>1</v>
       </c>
-      <c r="L36" t="s">
-        <v>201</v>
-      </c>
-      <c r="M36" s="2">
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36" t="s">
+        <v>207</v>
+      </c>
+      <c r="N36" s="2">
         <v>45023.08780092592</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>20.24</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C37">
         <v>45</v>
@@ -2599,13 +2725,13 @@
         <v>45020.36067335648</v>
       </c>
       <c r="F37" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G37" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H37" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I37" t="b">
         <v>1</v>
@@ -2616,22 +2742,25 @@
       <c r="K37">
         <v>1</v>
       </c>
-      <c r="L37" t="s">
-        <v>201</v>
-      </c>
-      <c r="M37" s="2">
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37" t="s">
+        <v>207</v>
+      </c>
+      <c r="N37" s="2">
         <v>45023.08780092592</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C38">
         <v>46</v>
@@ -2643,13 +2772,13 @@
         <v>45022.16013651621</v>
       </c>
       <c r="F38" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G38" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H38" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I38" t="b">
         <v>1</v>
@@ -2660,22 +2789,25 @@
       <c r="K38">
         <v>1</v>
       </c>
-      <c r="L38" t="s">
-        <v>201</v>
-      </c>
-      <c r="M38" s="2">
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38" t="s">
+        <v>207</v>
+      </c>
+      <c r="N38" s="2">
         <v>45023.08810185185</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>1037</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C39">
         <v>47</v>
@@ -2687,13 +2819,13 @@
         <v>45023.31049271991</v>
       </c>
       <c r="F39" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G39" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H39" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I39" t="b">
         <v>1</v>
@@ -2704,22 +2836,25 @@
       <c r="K39">
         <v>1</v>
       </c>
-      <c r="L39" t="s">
-        <v>201</v>
-      </c>
-      <c r="M39" s="2">
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
+        <v>207</v>
+      </c>
+      <c r="N39" s="2">
         <v>45030.12488425926</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>1320</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C40">
         <v>48</v>
@@ -2731,13 +2866,13 @@
         <v>45026.10782059028</v>
       </c>
       <c r="F40" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G40" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H40" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
@@ -2748,22 +2883,25 @@
       <c r="K40">
         <v>1</v>
       </c>
-      <c r="L40" t="s">
-        <v>202</v>
-      </c>
-      <c r="M40" s="2">
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
+        <v>208</v>
+      </c>
+      <c r="N40" s="2">
         <v>45026.27826388889</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>30000</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C41">
         <v>49</v>
@@ -2775,13 +2913,13 @@
         <v>45026.10749625</v>
       </c>
       <c r="F41" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G41" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H41" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I41" t="b">
         <v>1</v>
@@ -2792,22 +2930,25 @@
       <c r="K41">
         <v>1</v>
       </c>
-      <c r="L41" t="s">
-        <v>202</v>
-      </c>
-      <c r="M41" s="2">
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
+        <v>208</v>
+      </c>
+      <c r="N41" s="2">
         <v>45026.2780324074</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>20000</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C42">
         <v>50</v>
@@ -2819,13 +2960,13 @@
         <v>45026.10379756944</v>
       </c>
       <c r="F42" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G42" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H42" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I42" t="b">
         <v>1</v>
@@ -2836,22 +2977,25 @@
       <c r="K42">
         <v>1</v>
       </c>
-      <c r="L42" t="s">
-        <v>202</v>
-      </c>
-      <c r="M42" s="2">
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
+        <v>208</v>
+      </c>
+      <c r="N42" s="2">
         <v>45026.2777199074</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>1031.7</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C43">
         <v>51</v>
@@ -2863,13 +3007,13 @@
         <v>45028.09191259259</v>
       </c>
       <c r="F43" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G43" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H43" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I43" t="b">
         <v>1</v>
@@ -2880,22 +3024,25 @@
       <c r="K43">
         <v>1</v>
       </c>
-      <c r="L43" t="s">
-        <v>201</v>
-      </c>
-      <c r="M43" s="2">
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>207</v>
+      </c>
+      <c r="N43" s="2">
         <v>45030.12530092592</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>3667</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C44">
         <v>51</v>
@@ -2907,13 +3054,13 @@
         <v>45028.09191259259</v>
       </c>
       <c r="F44" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G44" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H44" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I44" t="b">
         <v>1</v>
@@ -2924,22 +3071,25 @@
       <c r="K44">
         <v>1</v>
       </c>
-      <c r="L44" t="s">
-        <v>201</v>
-      </c>
-      <c r="M44" s="2">
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s">
+        <v>207</v>
+      </c>
+      <c r="N44" s="2">
         <v>45030.12530092592</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>29080</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C45">
         <v>52</v>
@@ -2951,13 +3101,13 @@
         <v>45028.36057641204</v>
       </c>
       <c r="F45" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G45" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H45" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I45" t="b">
         <v>1</v>
@@ -2968,22 +3118,25 @@
       <c r="K45">
         <v>1</v>
       </c>
-      <c r="L45" t="s">
-        <v>201</v>
-      </c>
-      <c r="M45" s="2">
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45" t="s">
+        <v>207</v>
+      </c>
+      <c r="N45" s="2">
         <v>45030.12891203703</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>683</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C46">
         <v>52</v>
@@ -2995,13 +3148,13 @@
         <v>45028.36057641204</v>
       </c>
       <c r="F46" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G46" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H46" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I46" t="b">
         <v>1</v>
@@ -3012,22 +3165,25 @@
       <c r="K46">
         <v>1</v>
       </c>
-      <c r="L46" t="s">
-        <v>201</v>
-      </c>
-      <c r="M46" s="2">
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46" t="s">
+        <v>207</v>
+      </c>
+      <c r="N46" s="2">
         <v>45030.12891203703</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>785.73</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C47">
         <v>52</v>
@@ -3039,13 +3195,13 @@
         <v>45028.36057641204</v>
       </c>
       <c r="F47" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G47" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H47" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I47" t="b">
         <v>1</v>
@@ -3056,22 +3212,25 @@
       <c r="K47">
         <v>1</v>
       </c>
-      <c r="L47" t="s">
-        <v>201</v>
-      </c>
-      <c r="M47" s="2">
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47" t="s">
+        <v>207</v>
+      </c>
+      <c r="N47" s="2">
         <v>45030.12891203703</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>3139.8</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C48">
         <v>52</v>
@@ -3083,13 +3242,13 @@
         <v>45028.36057641204</v>
       </c>
       <c r="F48" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G48" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H48" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I48" t="b">
         <v>1</v>
@@ -3100,22 +3259,25 @@
       <c r="K48">
         <v>1</v>
       </c>
-      <c r="L48" t="s">
-        <v>201</v>
-      </c>
-      <c r="M48" s="2">
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48" t="s">
+        <v>207</v>
+      </c>
+      <c r="N48" s="2">
         <v>45030.12891203703</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>13720</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C49">
         <v>52</v>
@@ -3127,13 +3289,13 @@
         <v>45028.36057641204</v>
       </c>
       <c r="F49" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G49" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H49" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I49" t="b">
         <v>1</v>
@@ -3144,22 +3306,25 @@
       <c r="K49">
         <v>1</v>
       </c>
-      <c r="L49" t="s">
-        <v>201</v>
-      </c>
-      <c r="M49" s="2">
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49" t="s">
+        <v>207</v>
+      </c>
+      <c r="N49" s="2">
         <v>45030.12891203703</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>256</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C50">
         <v>52</v>
@@ -3171,13 +3336,13 @@
         <v>45028.36057641204</v>
       </c>
       <c r="F50" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G50" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H50" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I50" t="b">
         <v>1</v>
@@ -3188,22 +3353,25 @@
       <c r="K50">
         <v>1</v>
       </c>
-      <c r="L50" t="s">
-        <v>201</v>
-      </c>
-      <c r="M50" s="2">
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50" t="s">
+        <v>207</v>
+      </c>
+      <c r="N50" s="2">
         <v>45030.12891203703</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>396</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C51">
         <v>52</v>
@@ -3215,13 +3383,13 @@
         <v>45028.36057641204</v>
       </c>
       <c r="F51" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G51" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H51" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I51" t="b">
         <v>1</v>
@@ -3232,22 +3400,25 @@
       <c r="K51">
         <v>1</v>
       </c>
-      <c r="L51" t="s">
-        <v>201</v>
-      </c>
-      <c r="M51" s="2">
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51" t="s">
+        <v>207</v>
+      </c>
+      <c r="N51" s="2">
         <v>45030.12891203703</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>514</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C52">
         <v>52</v>
@@ -3259,13 +3430,13 @@
         <v>45028.36057641204</v>
       </c>
       <c r="F52" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G52" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H52" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I52" t="b">
         <v>1</v>
@@ -3276,22 +3447,25 @@
       <c r="K52">
         <v>1</v>
       </c>
-      <c r="L52" t="s">
-        <v>201</v>
-      </c>
-      <c r="M52" s="2">
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52" t="s">
+        <v>207</v>
+      </c>
+      <c r="N52" s="2">
         <v>45030.12891203703</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>578</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -3303,13 +3477,13 @@
         <v>45028.36057641204</v>
       </c>
       <c r="F53" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G53" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H53" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I53" t="b">
         <v>1</v>
@@ -3320,22 +3494,25 @@
       <c r="K53">
         <v>1</v>
       </c>
-      <c r="L53" t="s">
-        <v>201</v>
-      </c>
-      <c r="M53" s="2">
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53" t="s">
+        <v>207</v>
+      </c>
+      <c r="N53" s="2">
         <v>45030.12891203703</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>616</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C54">
         <v>52</v>
@@ -3347,13 +3524,13 @@
         <v>45028.36057641204</v>
       </c>
       <c r="F54" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G54" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H54" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I54" t="b">
         <v>1</v>
@@ -3364,22 +3541,25 @@
       <c r="K54">
         <v>1</v>
       </c>
-      <c r="L54" t="s">
-        <v>201</v>
-      </c>
-      <c r="M54" s="2">
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54" t="s">
+        <v>207</v>
+      </c>
+      <c r="N54" s="2">
         <v>45030.12891203703</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>1756</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C55">
         <v>52</v>
@@ -3391,13 +3571,13 @@
         <v>45028.36057641204</v>
       </c>
       <c r="F55" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G55" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H55" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I55" t="b">
         <v>1</v>
@@ -3408,22 +3588,25 @@
       <c r="K55">
         <v>1</v>
       </c>
-      <c r="L55" t="s">
-        <v>201</v>
-      </c>
-      <c r="M55" s="2">
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55" t="s">
+        <v>207</v>
+      </c>
+      <c r="N55" s="2">
         <v>45030.12891203703</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>1714</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C56">
         <v>52</v>
@@ -3435,13 +3618,13 @@
         <v>45028.36057641204</v>
       </c>
       <c r="F56" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G56" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H56" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I56" t="b">
         <v>1</v>
@@ -3452,22 +3635,25 @@
       <c r="K56">
         <v>1</v>
       </c>
-      <c r="L56" t="s">
-        <v>201</v>
-      </c>
-      <c r="M56" s="2">
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56" t="s">
+        <v>207</v>
+      </c>
+      <c r="N56" s="2">
         <v>45030.12891203703</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>275.9</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C57">
         <v>53</v>
@@ -3479,13 +3665,13 @@
         <v>45029.08377679398</v>
       </c>
       <c r="F57" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G57" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H57" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I57" t="b">
         <v>1</v>
@@ -3496,22 +3682,25 @@
       <c r="K57">
         <v>1</v>
       </c>
-      <c r="L57" t="s">
-        <v>203</v>
-      </c>
-      <c r="M57" s="2">
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57" t="s">
+        <v>209</v>
+      </c>
+      <c r="N57" s="2">
         <v>45029.30706018519</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>16240</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C58">
         <v>54</v>
@@ -3523,13 +3712,13 @@
         <v>45029.13268450231</v>
       </c>
       <c r="F58" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G58" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H58" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I58" t="b">
         <v>1</v>
@@ -3540,22 +3729,25 @@
       <c r="K58">
         <v>1</v>
       </c>
-      <c r="L58" t="s">
-        <v>201</v>
-      </c>
-      <c r="M58" s="2">
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58" t="s">
+        <v>207</v>
+      </c>
+      <c r="N58" s="2">
         <v>45030.12561342592</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C59">
         <v>55</v>
@@ -3567,13 +3759,13 @@
         <v>45029.30678756945</v>
       </c>
       <c r="F59" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G59" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H59" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I59" t="b">
         <v>1</v>
@@ -3584,22 +3776,25 @@
       <c r="K59">
         <v>1</v>
       </c>
-      <c r="L59" t="s">
-        <v>202</v>
-      </c>
-      <c r="M59" s="2">
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59" t="s">
+        <v>208</v>
+      </c>
+      <c r="N59" s="2">
         <v>45030.12925925926</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>61.24</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C60">
         <v>56</v>
@@ -3611,13 +3806,13 @@
         <v>45030.1025212963</v>
       </c>
       <c r="F60" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G60" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H60" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I60" t="b">
         <v>1</v>
@@ -3628,22 +3823,25 @@
       <c r="K60">
         <v>1</v>
       </c>
-      <c r="L60" t="s">
-        <v>201</v>
-      </c>
-      <c r="M60" s="2">
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60" t="s">
+        <v>207</v>
+      </c>
+      <c r="N60" s="2">
         <v>45041.17334490741</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>1560.4</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C61">
         <v>57</v>
@@ -3655,13 +3853,13 @@
         <v>45030.12364082176</v>
       </c>
       <c r="F61" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G61" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H61" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I61" t="b">
         <v>1</v>
@@ -3672,22 +3870,25 @@
       <c r="K61">
         <v>1</v>
       </c>
-      <c r="L61" t="s">
-        <v>201</v>
-      </c>
-      <c r="M61" s="2">
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61" t="s">
+        <v>207</v>
+      </c>
+      <c r="N61" s="2">
         <v>45041.24361111111</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>1327.68</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C62">
         <v>58</v>
@@ -3699,13 +3900,13 @@
         <v>45030.12616524305</v>
       </c>
       <c r="F62" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G62" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H62" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I62" t="b">
         <v>1</v>
@@ -3716,22 +3917,25 @@
       <c r="K62">
         <v>1</v>
       </c>
-      <c r="L62" t="s">
-        <v>201</v>
-      </c>
-      <c r="M62" s="2">
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62" t="s">
+        <v>207</v>
+      </c>
+      <c r="N62" s="2">
         <v>45041.24334490741</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>2909</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:15">
       <c r="A63" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C63">
         <v>59</v>
@@ -3743,13 +3947,13 @@
         <v>45033.31081506945</v>
       </c>
       <c r="F63" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G63" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H63" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I63" t="b">
         <v>1</v>
@@ -3760,22 +3964,25 @@
       <c r="K63">
         <v>1</v>
       </c>
-      <c r="L63" t="s">
-        <v>201</v>
-      </c>
-      <c r="M63" s="2">
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63" t="s">
+        <v>207</v>
+      </c>
+      <c r="N63" s="2">
         <v>45041.10722222222</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>50000</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C64">
         <v>61</v>
@@ -3787,13 +3994,13 @@
         <v>45034.09190111111</v>
       </c>
       <c r="F64" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G64" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H64" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I64" t="b">
         <v>1</v>
@@ -3804,22 +4011,25 @@
       <c r="K64">
         <v>1</v>
       </c>
-      <c r="L64" t="s">
-        <v>201</v>
-      </c>
-      <c r="M64" s="2">
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64" t="s">
+        <v>207</v>
+      </c>
+      <c r="N64" s="2">
         <v>45041.24263888889</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>550</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C65">
         <v>63</v>
@@ -3831,13 +4041,13 @@
         <v>45034.09657179398</v>
       </c>
       <c r="F65" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G65" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H65" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I65" t="b">
         <v>1</v>
@@ -3848,22 +4058,25 @@
       <c r="K65">
         <v>1</v>
       </c>
-      <c r="L65" t="s">
-        <v>201</v>
-      </c>
-      <c r="M65" s="2">
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65" t="s">
+        <v>207</v>
+      </c>
+      <c r="N65" s="2">
         <v>45041.24222222222</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>1000</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C66">
         <v>64</v>
@@ -3875,39 +4088,42 @@
         <v>45037.41429341435</v>
       </c>
       <c r="F66" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G66" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H66" t="s">
+        <v>204</v>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66" t="s">
+        <v>207</v>
+      </c>
+      <c r="N66" s="2">
+        <v>45041.24193287037</v>
+      </c>
+      <c r="O66">
         <v>195</v>
       </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-      <c r="L66" t="s">
-        <v>201</v>
-      </c>
-      <c r="M66" s="2">
-        <v>45041.24193287037</v>
-      </c>
-      <c r="N66">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C67">
         <v>64</v>
@@ -3919,13 +4135,13 @@
         <v>45037.41429341435</v>
       </c>
       <c r="F67" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G67" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H67" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I67" t="b">
         <v>1</v>
@@ -3936,22 +4152,25 @@
       <c r="K67">
         <v>1</v>
       </c>
-      <c r="L67" t="s">
-        <v>201</v>
-      </c>
-      <c r="M67" s="2">
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67" t="s">
+        <v>207</v>
+      </c>
+      <c r="N67" s="2">
         <v>45041.24193287037</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>2166</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C68">
         <v>65</v>
@@ -3963,13 +4182,13 @@
         <v>45041.25260020833</v>
       </c>
       <c r="F68" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G68" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H68" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I68" t="b">
         <v>1</v>
@@ -3980,22 +4199,25 @@
       <c r="K68">
         <v>1</v>
       </c>
-      <c r="L68" t="s">
-        <v>201</v>
-      </c>
-      <c r="M68" s="2">
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68" t="s">
+        <v>207</v>
+      </c>
+      <c r="N68" s="2">
         <v>45044.27577425926</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>381</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C69">
         <v>65</v>
@@ -4007,13 +4229,13 @@
         <v>45041.25260020833</v>
       </c>
       <c r="F69" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G69" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H69" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I69" t="b">
         <v>1</v>
@@ -4024,22 +4246,25 @@
       <c r="K69">
         <v>1</v>
       </c>
-      <c r="L69" t="s">
-        <v>201</v>
-      </c>
-      <c r="M69" s="2">
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69" t="s">
+        <v>207</v>
+      </c>
+      <c r="N69" s="2">
         <v>45044.27577425926</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>9393</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C70">
         <v>66</v>
@@ -4051,13 +4276,13 @@
         <v>45041.08589238426</v>
       </c>
       <c r="F70" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G70" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H70" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I70" t="b">
         <v>1</v>
@@ -4068,22 +4293,25 @@
       <c r="K70">
         <v>1</v>
       </c>
-      <c r="L70" t="s">
-        <v>202</v>
-      </c>
-      <c r="M70" s="2">
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70" t="s">
+        <v>208</v>
+      </c>
+      <c r="N70" s="2">
         <v>45041.25344907407</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>104143.94</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C71">
         <v>67</v>
@@ -4095,13 +4323,13 @@
         <v>45041.14769905093</v>
       </c>
       <c r="F71" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G71" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H71" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I71" t="b">
         <v>1</v>
@@ -4112,22 +4340,25 @@
       <c r="K71">
         <v>1</v>
       </c>
-      <c r="L71" t="s">
-        <v>201</v>
-      </c>
-      <c r="M71" s="2">
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71" t="s">
+        <v>207</v>
+      </c>
+      <c r="N71" s="2">
         <v>45041.17435185185</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>3713</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C72">
         <v>69</v>
@@ -4139,13 +4370,13 @@
         <v>45041.15481517361</v>
       </c>
       <c r="F72" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G72" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H72" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I72" t="b">
         <v>1</v>
@@ -4156,22 +4387,25 @@
       <c r="K72">
         <v>1</v>
       </c>
-      <c r="L72" t="s">
-        <v>201</v>
-      </c>
-      <c r="M72" s="2">
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72" t="s">
+        <v>207</v>
+      </c>
+      <c r="N72" s="2">
         <v>45041.17418981482</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>2264</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C73">
         <v>71</v>
@@ -4183,13 +4417,13 @@
         <v>45041.15605380787</v>
       </c>
       <c r="F73" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G73" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H73" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I73" t="b">
         <v>1</v>
@@ -4200,22 +4434,25 @@
       <c r="K73">
         <v>1</v>
       </c>
-      <c r="L73" t="s">
-        <v>201</v>
-      </c>
-      <c r="M73" s="2">
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73" t="s">
+        <v>207</v>
+      </c>
+      <c r="N73" s="2">
         <v>45041.17395833333</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>434</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -4227,13 +4464,13 @@
         <v>45041.15853665509</v>
       </c>
       <c r="F74" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G74" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H74" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I74" t="b">
         <v>1</v>
@@ -4244,22 +4481,25 @@
       <c r="K74">
         <v>1</v>
       </c>
-      <c r="L74" t="s">
-        <v>201</v>
-      </c>
-      <c r="M74" s="2">
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74" t="s">
+        <v>207</v>
+      </c>
+      <c r="N74" s="2">
         <v>45041.17366898148</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>1867</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -4271,13 +4511,13 @@
         <v>45041.26894695602</v>
       </c>
       <c r="F75" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G75" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H75" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I75" t="b">
         <v>1</v>
@@ -4288,22 +4528,25 @@
       <c r="K75">
         <v>1</v>
       </c>
-      <c r="L75" t="s">
-        <v>203</v>
-      </c>
-      <c r="M75" s="2">
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75" t="s">
+        <v>209</v>
+      </c>
+      <c r="N75" s="2">
         <v>45041.33967592593</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>75863.66</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B76" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C76">
         <v>76</v>
@@ -4315,13 +4558,13 @@
         <v>45041.32862275463</v>
       </c>
       <c r="F76" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G76" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H76" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I76" t="b">
         <v>1</v>
@@ -4332,22 +4575,25 @@
       <c r="K76">
         <v>1</v>
       </c>
-      <c r="L76" t="s">
-        <v>203</v>
-      </c>
-      <c r="M76" s="2">
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76" t="s">
+        <v>209</v>
+      </c>
+      <c r="N76" s="2">
         <v>45009.2529050926</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>75863.66</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B77" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C77">
         <v>75</v>
@@ -4359,13 +4605,13 @@
         <v>45041.33003309028</v>
       </c>
       <c r="F77" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G77" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H77" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I77" t="b">
         <v>1</v>
@@ -4376,22 +4622,25 @@
       <c r="K77">
         <v>1</v>
       </c>
-      <c r="L77" t="s">
-        <v>202</v>
-      </c>
-      <c r="M77" s="2">
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77" t="s">
+        <v>208</v>
+      </c>
+      <c r="N77" s="2">
         <v>45005.25146990741</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>1000</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C78">
         <v>78</v>
@@ -4403,13 +4652,13 @@
         <v>45041.33270197917</v>
       </c>
       <c r="F78" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G78" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H78" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I78" t="b">
         <v>1</v>
@@ -4420,22 +4669,25 @@
       <c r="K78">
         <v>1</v>
       </c>
-      <c r="L78" t="s">
-        <v>202</v>
-      </c>
-      <c r="M78" s="2">
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78" t="s">
+        <v>208</v>
+      </c>
+      <c r="N78" s="2">
         <v>45009.25109953704</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>105074.92</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C79">
         <v>77</v>
@@ -4447,13 +4699,13 @@
         <v>45041.33632064815</v>
       </c>
       <c r="F79" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G79" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H79" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I79" t="b">
         <v>1</v>
@@ -4464,22 +4716,25 @@
       <c r="K79">
         <v>1</v>
       </c>
-      <c r="L79" t="s">
-        <v>204</v>
-      </c>
-      <c r="M79" s="2">
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79" t="s">
+        <v>210</v>
+      </c>
+      <c r="N79" s="2">
         <v>45036.25174768519</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>44007</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:15">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B80" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C80">
         <v>80</v>
@@ -4491,13 +4746,13 @@
         <v>45041.35235954861</v>
       </c>
       <c r="F80" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G80" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H80" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I80" t="b">
         <v>1</v>
@@ -4508,22 +4763,25 @@
       <c r="K80">
         <v>1</v>
       </c>
-      <c r="L80" t="s">
-        <v>201</v>
-      </c>
-      <c r="M80" s="2">
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80" t="s">
+        <v>207</v>
+      </c>
+      <c r="N80" s="2">
         <v>45044.08099537037</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <v>48.98</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:15">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B81" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -4535,13 +4793,13 @@
         <v>45041.35235954861</v>
       </c>
       <c r="F81" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G81" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H81" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I81" t="b">
         <v>1</v>
@@ -4552,22 +4810,25 @@
       <c r="K81">
         <v>1</v>
       </c>
-      <c r="L81" t="s">
-        <v>201</v>
-      </c>
-      <c r="M81" s="2">
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81" t="s">
+        <v>207</v>
+      </c>
+      <c r="N81" s="2">
         <v>45044.08099537037</v>
       </c>
-      <c r="N81">
+      <c r="O81">
         <v>123.8</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:15">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B82" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C82">
         <v>80</v>
@@ -4579,13 +4840,13 @@
         <v>45041.35235954861</v>
       </c>
       <c r="F82" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G82" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H82" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I82" t="b">
         <v>1</v>
@@ -4596,22 +4857,25 @@
       <c r="K82">
         <v>1</v>
       </c>
-      <c r="L82" t="s">
-        <v>201</v>
-      </c>
-      <c r="M82" s="2">
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82" t="s">
+        <v>207</v>
+      </c>
+      <c r="N82" s="2">
         <v>45044.08099537037</v>
       </c>
-      <c r="N82">
+      <c r="O82">
         <v>120.62</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:15">
       <c r="A83" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C83">
         <v>80</v>
@@ -4623,13 +4887,13 @@
         <v>45041.35235954861</v>
       </c>
       <c r="F83" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G83" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H83" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I83" t="b">
         <v>1</v>
@@ -4640,22 +4904,25 @@
       <c r="K83">
         <v>1</v>
       </c>
-      <c r="L83" t="s">
-        <v>201</v>
-      </c>
-      <c r="M83" s="2">
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83" t="s">
+        <v>207</v>
+      </c>
+      <c r="N83" s="2">
         <v>45044.08099537037</v>
       </c>
-      <c r="N83">
+      <c r="O83">
         <v>122.28</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:15">
       <c r="A84" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C84">
         <v>80</v>
@@ -4667,13 +4934,13 @@
         <v>45041.35235954861</v>
       </c>
       <c r="F84" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G84" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H84" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I84" t="b">
         <v>1</v>
@@ -4684,22 +4951,25 @@
       <c r="K84">
         <v>1</v>
       </c>
-      <c r="L84" t="s">
-        <v>201</v>
-      </c>
-      <c r="M84" s="2">
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84" t="s">
+        <v>207</v>
+      </c>
+      <c r="N84" s="2">
         <v>45044.08099537037</v>
       </c>
-      <c r="N84">
+      <c r="O84">
         <v>500</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:15">
       <c r="A85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C85">
         <v>81</v>
@@ -4711,13 +4981,13 @@
         <v>45041.40291591435</v>
       </c>
       <c r="F85" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G85" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H85" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I85" t="b">
         <v>1</v>
@@ -4728,22 +4998,25 @@
       <c r="K85">
         <v>1</v>
       </c>
-      <c r="L85" t="s">
-        <v>201</v>
-      </c>
-      <c r="M85" s="2">
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85" t="s">
+        <v>207</v>
+      </c>
+      <c r="N85" s="2">
         <v>45044.0803125</v>
       </c>
-      <c r="N85">
+      <c r="O85">
         <v>99908.99000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:15">
       <c r="A86" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C86">
         <v>81</v>
@@ -4755,13 +5028,13 @@
         <v>45041.40291591435</v>
       </c>
       <c r="F86" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G86" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H86" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I86" t="b">
         <v>1</v>
@@ -4772,22 +5045,25 @@
       <c r="K86">
         <v>1</v>
       </c>
-      <c r="L86" t="s">
-        <v>201</v>
-      </c>
-      <c r="M86" s="2">
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86" t="s">
+        <v>207</v>
+      </c>
+      <c r="N86" s="2">
         <v>45044.0803125</v>
       </c>
-      <c r="N86">
+      <c r="O86">
         <v>13839.06</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:15">
       <c r="A87" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C87">
         <v>81</v>
@@ -4799,13 +5075,13 @@
         <v>45041.40291591435</v>
       </c>
       <c r="F87" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G87" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H87" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I87" t="b">
         <v>1</v>
@@ -4816,22 +5092,25 @@
       <c r="K87">
         <v>1</v>
       </c>
-      <c r="L87" t="s">
-        <v>201</v>
-      </c>
-      <c r="M87" s="2">
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87" t="s">
+        <v>207</v>
+      </c>
+      <c r="N87" s="2">
         <v>45044.0803125</v>
       </c>
-      <c r="N87">
+      <c r="O87">
         <v>28161.71</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:15">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B88" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C88">
         <v>82</v>
@@ -4843,13 +5122,13 @@
         <v>45042.31861638889</v>
       </c>
       <c r="F88" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G88" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H88" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I88" t="b">
         <v>1</v>
@@ -4860,22 +5139,25 @@
       <c r="K88">
         <v>1</v>
       </c>
-      <c r="L88" t="s">
-        <v>201</v>
-      </c>
-      <c r="M88" s="2">
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88" t="s">
+        <v>207</v>
+      </c>
+      <c r="N88" s="2">
         <v>45044.07798611111</v>
       </c>
-      <c r="N88">
+      <c r="O88">
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:15">
       <c r="A89" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C89">
         <v>82</v>
@@ -4887,13 +5169,13 @@
         <v>45042.31861638889</v>
       </c>
       <c r="F89" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G89" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H89" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I89" t="b">
         <v>1</v>
@@ -4904,22 +5186,25 @@
       <c r="K89">
         <v>1</v>
       </c>
-      <c r="L89" t="s">
-        <v>201</v>
-      </c>
-      <c r="M89" s="2">
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89" t="s">
+        <v>207</v>
+      </c>
+      <c r="N89" s="2">
         <v>45044.07798611111</v>
       </c>
-      <c r="N89">
+      <c r="O89">
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:15">
       <c r="A90" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C90">
         <v>84</v>
@@ -4931,13 +5216,13 @@
         <v>45050.0959418287</v>
       </c>
       <c r="F90" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G90" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H90" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I90" t="b">
         <v>1</v>
@@ -4948,22 +5233,25 @@
       <c r="K90">
         <v>1</v>
       </c>
-      <c r="L90" t="s">
-        <v>201</v>
-      </c>
-      <c r="M90" s="2">
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90" t="s">
+        <v>207</v>
+      </c>
+      <c r="N90" s="2">
         <v>45079.39201362269</v>
       </c>
-      <c r="N90">
+      <c r="O90">
         <v>660</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:15">
       <c r="A91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C91">
         <v>85</v>
@@ -4975,13 +5263,13 @@
         <v>45050.27470650463</v>
       </c>
       <c r="F91" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G91" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H91" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I91" t="b">
         <v>1</v>
@@ -4992,22 +5280,25 @@
       <c r="K91">
         <v>1</v>
       </c>
-      <c r="L91" t="s">
-        <v>201</v>
-      </c>
-      <c r="M91" s="2">
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91" t="s">
+        <v>207</v>
+      </c>
+      <c r="N91" s="2">
         <v>45054.12731481482</v>
       </c>
-      <c r="N91">
+      <c r="O91">
         <v>4500</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:15">
       <c r="A92" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C92">
         <v>85</v>
@@ -5019,13 +5310,13 @@
         <v>45050.27470650463</v>
       </c>
       <c r="F92" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G92" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H92" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I92" t="b">
         <v>1</v>
@@ -5036,22 +5327,25 @@
       <c r="K92">
         <v>1</v>
       </c>
-      <c r="L92" t="s">
-        <v>201</v>
-      </c>
-      <c r="M92" s="2">
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92" t="s">
+        <v>207</v>
+      </c>
+      <c r="N92" s="2">
         <v>45054.12731481482</v>
       </c>
-      <c r="N92">
+      <c r="O92">
         <v>3900</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:15">
       <c r="A93" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C93">
         <v>87</v>
@@ -5063,13 +5357,13 @@
         <v>45051.29129493055</v>
       </c>
       <c r="F93" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G93" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H93" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I93" t="b">
         <v>1</v>
@@ -5080,22 +5374,25 @@
       <c r="K93">
         <v>1</v>
       </c>
-      <c r="L93" t="s">
-        <v>201</v>
-      </c>
-      <c r="M93" s="2">
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93" t="s">
+        <v>207</v>
+      </c>
+      <c r="N93" s="2">
         <v>45079.3917784375</v>
       </c>
-      <c r="N93">
+      <c r="O93">
         <v>299</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:15">
       <c r="A94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C94">
         <v>87</v>
@@ -5107,13 +5404,13 @@
         <v>45051.29129493055</v>
       </c>
       <c r="F94" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G94" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H94" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I94" t="b">
         <v>1</v>
@@ -5124,22 +5421,25 @@
       <c r="K94">
         <v>1</v>
       </c>
-      <c r="L94" t="s">
-        <v>201</v>
-      </c>
-      <c r="M94" s="2">
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94" t="s">
+        <v>207</v>
+      </c>
+      <c r="N94" s="2">
         <v>45079.3917784375</v>
       </c>
-      <c r="N94">
+      <c r="O94">
         <v>179</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:15">
       <c r="A95" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B95" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C95">
         <v>88</v>
@@ -5151,13 +5451,13 @@
         <v>45052.09060202546</v>
       </c>
       <c r="F95" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G95" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H95" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I95" t="b">
         <v>1</v>
@@ -5168,22 +5468,25 @@
       <c r="K95">
         <v>1</v>
       </c>
-      <c r="L95" t="s">
-        <v>201</v>
-      </c>
-      <c r="M95" s="2">
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95" t="s">
+        <v>207</v>
+      </c>
+      <c r="N95" s="2">
         <v>45065.39373842593</v>
       </c>
-      <c r="N95">
+      <c r="O95">
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:15">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C96">
         <v>90</v>
@@ -5195,10 +5498,10 @@
         <v>45052.30855538195</v>
       </c>
       <c r="G96" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H96" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I96" t="b">
         <v>0</v>
@@ -5209,16 +5512,19 @@
       <c r="K96">
         <v>1</v>
       </c>
-      <c r="N96">
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="O96">
         <v>894</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:15">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B97" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C97">
         <v>90</v>
@@ -5230,10 +5536,10 @@
         <v>45052.30855538195</v>
       </c>
       <c r="G97" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H97" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I97" t="b">
         <v>0</v>
@@ -5244,16 +5550,19 @@
       <c r="K97">
         <v>1</v>
       </c>
-      <c r="N97">
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="O97">
         <v>2357.5</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:15">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C98">
         <v>90</v>
@@ -5265,10 +5574,10 @@
         <v>45052.30855538195</v>
       </c>
       <c r="G98" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H98" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I98" t="b">
         <v>0</v>
@@ -5279,16 +5588,19 @@
       <c r="K98">
         <v>1</v>
       </c>
-      <c r="N98">
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="O98">
         <v>1220</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:15">
       <c r="A99" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B99" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C99">
         <v>89</v>
@@ -5300,10 +5612,10 @@
         <v>45052.31146744213</v>
       </c>
       <c r="G99" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H99" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I99" t="b">
         <v>0</v>
@@ -5314,16 +5626,19 @@
       <c r="K99">
         <v>1</v>
       </c>
-      <c r="N99">
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="O99">
         <v>894</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:15">
       <c r="A100" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C100">
         <v>89</v>
@@ -5335,10 +5650,10 @@
         <v>45052.31146744213</v>
       </c>
       <c r="G100" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H100" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I100" t="b">
         <v>0</v>
@@ -5349,16 +5664,19 @@
       <c r="K100">
         <v>1</v>
       </c>
-      <c r="N100">
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="O100">
         <v>2357.5</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:15">
       <c r="A101" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C101">
         <v>89</v>
@@ -5370,10 +5688,10 @@
         <v>45052.31146744213</v>
       </c>
       <c r="G101" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H101" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I101" t="b">
         <v>0</v>
@@ -5384,16 +5702,19 @@
       <c r="K101">
         <v>1</v>
       </c>
-      <c r="N101">
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="O101">
         <v>1220</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:15">
       <c r="A102" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C102">
         <v>92</v>
@@ -5405,13 +5726,13 @@
         <v>45062.12186709491</v>
       </c>
       <c r="F102" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G102" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H102" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I102" t="b">
         <v>1</v>
@@ -5422,22 +5743,25 @@
       <c r="K102">
         <v>1</v>
       </c>
-      <c r="L102" t="s">
-        <v>201</v>
-      </c>
-      <c r="M102" s="2">
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102" t="s">
+        <v>207</v>
+      </c>
+      <c r="N102" s="2">
         <v>45065.39484953704</v>
       </c>
-      <c r="N102">
+      <c r="O102">
         <v>894</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:15">
       <c r="A103" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B103" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C103">
         <v>92</v>
@@ -5449,13 +5773,13 @@
         <v>45062.12186709491</v>
       </c>
       <c r="F103" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G103" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H103" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I103" t="b">
         <v>1</v>
@@ -5466,22 +5790,25 @@
       <c r="K103">
         <v>1</v>
       </c>
-      <c r="L103" t="s">
-        <v>201</v>
-      </c>
-      <c r="M103" s="2">
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103" t="s">
+        <v>207</v>
+      </c>
+      <c r="N103" s="2">
         <v>45065.39484953704</v>
       </c>
-      <c r="N103">
+      <c r="O103">
         <v>2357.5</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:15">
       <c r="A104" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B104" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C104">
         <v>92</v>
@@ -5493,13 +5820,13 @@
         <v>45062.12186709491</v>
       </c>
       <c r="F104" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G104" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H104" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I104" t="b">
         <v>1</v>
@@ -5510,22 +5837,25 @@
       <c r="K104">
         <v>1</v>
       </c>
-      <c r="L104" t="s">
-        <v>201</v>
-      </c>
-      <c r="M104" s="2">
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104" t="s">
+        <v>207</v>
+      </c>
+      <c r="N104" s="2">
         <v>45065.39484953704</v>
       </c>
-      <c r="N104">
+      <c r="O104">
         <v>1220</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:15">
       <c r="A105" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B105" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C105">
         <v>93</v>
@@ -5537,13 +5867,13 @@
         <v>45055.16018915509</v>
       </c>
       <c r="F105" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G105" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H105" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I105" t="b">
         <v>1</v>
@@ -5554,22 +5884,25 @@
       <c r="K105">
         <v>1</v>
       </c>
-      <c r="L105" t="s">
-        <v>201</v>
-      </c>
-      <c r="M105" s="2">
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105" t="s">
+        <v>207</v>
+      </c>
+      <c r="N105" s="2">
         <v>45065.39570601852</v>
       </c>
-      <c r="N105">
+      <c r="O105">
         <v>365.18</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:15">
       <c r="A106" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B106" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C106">
         <v>94</v>
@@ -5581,13 +5914,13 @@
         <v>45055.36672283565</v>
       </c>
       <c r="F106" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G106" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H106" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I106" t="b">
         <v>1</v>
@@ -5598,22 +5931,25 @@
       <c r="K106">
         <v>1</v>
       </c>
-      <c r="L106" t="s">
-        <v>201</v>
-      </c>
-      <c r="M106" s="2">
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106" t="s">
+        <v>207</v>
+      </c>
+      <c r="N106" s="2">
         <v>45056.33758101852</v>
       </c>
-      <c r="N106">
+      <c r="O106">
         <v>127125</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:15">
       <c r="A107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B107" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C107">
         <v>96</v>
@@ -5625,13 +5961,13 @@
         <v>45056.37656032408</v>
       </c>
       <c r="F107" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G107" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H107" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I107" t="b">
         <v>1</v>
@@ -5642,22 +5978,25 @@
       <c r="K107">
         <v>1</v>
       </c>
-      <c r="L107" t="s">
-        <v>202</v>
-      </c>
-      <c r="M107" s="2">
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107" t="s">
+        <v>208</v>
+      </c>
+      <c r="N107" s="2">
         <v>45057.11587962963</v>
       </c>
-      <c r="N107">
+      <c r="O107">
         <v>45000</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:15">
       <c r="A108" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B108" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C108">
         <v>98</v>
@@ -5669,13 +6008,13 @@
         <v>45056.34481953704</v>
       </c>
       <c r="F108" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G108" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H108" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I108" t="b">
         <v>1</v>
@@ -5686,22 +6025,25 @@
       <c r="K108">
         <v>1</v>
       </c>
-      <c r="L108" t="s">
-        <v>202</v>
-      </c>
-      <c r="M108" s="2">
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108" t="s">
+        <v>208</v>
+      </c>
+      <c r="N108" s="2">
         <v>45057.11559027778</v>
       </c>
-      <c r="N108">
+      <c r="O108">
         <v>16000</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:15">
       <c r="A109" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B109" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C109">
         <v>100</v>
@@ -5713,13 +6055,13 @@
         <v>45056.39550530093</v>
       </c>
       <c r="F109" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G109" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H109" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I109" t="b">
         <v>1</v>
@@ -5730,22 +6072,25 @@
       <c r="K109">
         <v>1</v>
       </c>
-      <c r="L109" t="s">
-        <v>202</v>
-      </c>
-      <c r="M109" s="2">
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109" t="s">
+        <v>208</v>
+      </c>
+      <c r="N109" s="2">
         <v>45057.11523148148</v>
       </c>
-      <c r="N109">
+      <c r="O109">
         <v>1826.11</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:15">
       <c r="A110" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B110" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C110">
         <v>101</v>
@@ -5757,13 +6102,13 @@
         <v>45057.09767015046</v>
       </c>
       <c r="F110" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G110" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H110" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I110" t="b">
         <v>1</v>
@@ -5774,22 +6119,25 @@
       <c r="K110">
         <v>1</v>
       </c>
-      <c r="L110" t="s">
-        <v>202</v>
-      </c>
-      <c r="M110" s="2">
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110" t="s">
+        <v>208</v>
+      </c>
+      <c r="N110" s="2">
         <v>45057.11505787037</v>
       </c>
-      <c r="N110">
+      <c r="O110">
         <v>7500000</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:15">
       <c r="A111" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B111" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C111">
         <v>101</v>
@@ -5801,13 +6149,13 @@
         <v>45057.09767015046</v>
       </c>
       <c r="F111" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G111" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H111" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I111" t="b">
         <v>1</v>
@@ -5818,22 +6166,25 @@
       <c r="K111">
         <v>1</v>
       </c>
-      <c r="L111" t="s">
-        <v>202</v>
-      </c>
-      <c r="M111" s="2">
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111" t="s">
+        <v>208</v>
+      </c>
+      <c r="N111" s="2">
         <v>45057.11505787037</v>
       </c>
-      <c r="N111">
+      <c r="O111">
         <v>181450</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:15">
       <c r="A112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B112" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C112">
         <v>104</v>
@@ -5845,13 +6196,13 @@
         <v>45062.28582356482</v>
       </c>
       <c r="F112" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G112" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H112" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I112" t="b">
         <v>1</v>
@@ -5862,22 +6213,25 @@
       <c r="K112">
         <v>1</v>
       </c>
-      <c r="L112" t="s">
-        <v>201</v>
-      </c>
-      <c r="M112" s="2">
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112" t="s">
+        <v>207</v>
+      </c>
+      <c r="N112" s="2">
         <v>45065.39608796296</v>
       </c>
-      <c r="N112">
+      <c r="O112">
         <v>2261</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:15">
       <c r="A113" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B113" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C113">
         <v>106</v>
@@ -5889,13 +6243,13 @@
         <v>45061.26449304398</v>
       </c>
       <c r="F113" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G113" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H113" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I113" t="b">
         <v>1</v>
@@ -5906,22 +6260,25 @@
       <c r="K113">
         <v>1</v>
       </c>
-      <c r="L113" t="s">
-        <v>202</v>
-      </c>
-      <c r="M113" s="2">
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113" t="s">
+        <v>208</v>
+      </c>
+      <c r="N113" s="2">
         <v>45061.3546412037</v>
       </c>
-      <c r="N113">
+      <c r="O113">
         <v>1000</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:15">
       <c r="A114" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B114" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C114">
         <v>111</v>
@@ -5933,13 +6290,13 @@
         <v>45062.09768309028</v>
       </c>
       <c r="F114" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G114" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H114" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I114" t="b">
         <v>1</v>
@@ -5950,22 +6307,25 @@
       <c r="K114">
         <v>1</v>
       </c>
-      <c r="L114" t="s">
-        <v>203</v>
-      </c>
-      <c r="M114" s="2">
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114" t="s">
+        <v>209</v>
+      </c>
+      <c r="N114" s="2">
         <v>45062.15226851852</v>
       </c>
-      <c r="N114">
+      <c r="O114">
         <v>16240</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:15">
       <c r="A115" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B115" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C115">
         <v>115</v>
@@ -5977,13 +6337,13 @@
         <v>45062.10104034722</v>
       </c>
       <c r="F115" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G115" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H115" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I115" t="b">
         <v>1</v>
@@ -5994,22 +6354,25 @@
       <c r="K115">
         <v>1</v>
       </c>
-      <c r="L115" t="s">
-        <v>204</v>
-      </c>
-      <c r="M115" s="2">
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115" t="s">
+        <v>210</v>
+      </c>
+      <c r="N115" s="2">
         <v>45062.15188657407</v>
       </c>
-      <c r="N115">
+      <c r="O115">
         <v>44006.98</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:15">
       <c r="A116" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B116" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C116">
         <v>117</v>
@@ -6021,13 +6384,13 @@
         <v>45063.09152335648</v>
       </c>
       <c r="F116" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G116" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H116" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I116" t="b">
         <v>1</v>
@@ -6038,22 +6401,25 @@
       <c r="K116">
         <v>1</v>
       </c>
-      <c r="L116" t="s">
-        <v>201</v>
-      </c>
-      <c r="M116" s="2">
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116" t="s">
+        <v>207</v>
+      </c>
+      <c r="N116" s="2">
         <v>45065.39636574074</v>
       </c>
-      <c r="N116">
+      <c r="O116">
         <v>3651</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:15">
       <c r="A117" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C117">
         <v>117</v>
@@ -6065,13 +6431,13 @@
         <v>45063.09152335648</v>
       </c>
       <c r="F117" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G117" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H117" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I117" t="b">
         <v>1</v>
@@ -6082,22 +6448,25 @@
       <c r="K117">
         <v>1</v>
       </c>
-      <c r="L117" t="s">
-        <v>201</v>
-      </c>
-      <c r="M117" s="2">
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117" t="s">
+        <v>207</v>
+      </c>
+      <c r="N117" s="2">
         <v>45065.39636574074</v>
       </c>
-      <c r="N117">
+      <c r="O117">
         <v>66.83</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:15">
       <c r="A118" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B118" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C118">
         <v>118</v>
@@ -6109,13 +6478,13 @@
         <v>45063.16619079861</v>
       </c>
       <c r="F118" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G118" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H118" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I118" t="b">
         <v>1</v>
@@ -6126,22 +6495,25 @@
       <c r="K118">
         <v>1</v>
       </c>
-      <c r="L118" t="s">
-        <v>201</v>
-      </c>
-      <c r="M118" s="2">
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118" t="s">
+        <v>207</v>
+      </c>
+      <c r="N118" s="2">
         <v>45065.39671296296</v>
       </c>
-      <c r="N118">
+      <c r="O118">
         <v>1751.54</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:15">
       <c r="A119" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B119" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C119">
         <v>118</v>
@@ -6153,13 +6525,13 @@
         <v>45063.16619079861</v>
       </c>
       <c r="F119" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G119" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H119" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I119" t="b">
         <v>1</v>
@@ -6170,22 +6542,25 @@
       <c r="K119">
         <v>1</v>
       </c>
-      <c r="L119" t="s">
-        <v>201</v>
-      </c>
-      <c r="M119" s="2">
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119" t="s">
+        <v>207</v>
+      </c>
+      <c r="N119" s="2">
         <v>45065.39671296296</v>
       </c>
-      <c r="N119">
+      <c r="O119">
         <v>5364</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:15">
       <c r="A120" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B120" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C120">
         <v>118</v>
@@ -6197,13 +6572,13 @@
         <v>45063.16619079861</v>
       </c>
       <c r="F120" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G120" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H120" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I120" t="b">
         <v>1</v>
@@ -6214,22 +6589,25 @@
       <c r="K120">
         <v>1</v>
       </c>
-      <c r="L120" t="s">
-        <v>201</v>
-      </c>
-      <c r="M120" s="2">
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120" t="s">
+        <v>207</v>
+      </c>
+      <c r="N120" s="2">
         <v>45065.39671296296</v>
       </c>
-      <c r="N120">
+      <c r="O120">
         <v>451.7</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:15">
       <c r="A121" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B121" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C121">
         <v>118</v>
@@ -6241,13 +6619,13 @@
         <v>45063.16619079861</v>
       </c>
       <c r="F121" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G121" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H121" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I121" t="b">
         <v>1</v>
@@ -6258,22 +6636,25 @@
       <c r="K121">
         <v>1</v>
       </c>
-      <c r="L121" t="s">
-        <v>201</v>
-      </c>
-      <c r="M121" s="2">
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121" t="s">
+        <v>207</v>
+      </c>
+      <c r="N121" s="2">
         <v>45065.39671296296</v>
       </c>
-      <c r="N121">
+      <c r="O121">
         <v>5340</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:15">
       <c r="A122" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B122" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C122">
         <v>120</v>
@@ -6285,13 +6666,13 @@
         <v>45063.25902819444</v>
       </c>
       <c r="F122" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G122" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H122" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I122" t="b">
         <v>1</v>
@@ -6302,22 +6683,25 @@
       <c r="K122">
         <v>1</v>
       </c>
-      <c r="L122" t="s">
-        <v>201</v>
-      </c>
-      <c r="M122" s="2">
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122" t="s">
+        <v>207</v>
+      </c>
+      <c r="N122" s="2">
         <v>45065.39842592592</v>
       </c>
-      <c r="N122">
+      <c r="O122">
         <v>1703</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:15">
       <c r="A123" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B123" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C123">
         <v>120</v>
@@ -6329,13 +6713,13 @@
         <v>45063.25902819444</v>
       </c>
       <c r="F123" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G123" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H123" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I123" t="b">
         <v>1</v>
@@ -6346,22 +6730,25 @@
       <c r="K123">
         <v>1</v>
       </c>
-      <c r="L123" t="s">
-        <v>201</v>
-      </c>
-      <c r="M123" s="2">
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123" t="s">
+        <v>207</v>
+      </c>
+      <c r="N123" s="2">
         <v>45065.39842592592</v>
       </c>
-      <c r="N123">
+      <c r="O123">
         <v>1702.51</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:15">
       <c r="A124" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C124">
         <v>122</v>
@@ -6373,13 +6760,13 @@
         <v>45064.113225625</v>
       </c>
       <c r="F124" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G124" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H124" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I124" t="b">
         <v>1</v>
@@ -6390,22 +6777,25 @@
       <c r="K124">
         <v>1</v>
       </c>
-      <c r="L124" t="s">
-        <v>201</v>
-      </c>
-      <c r="M124" s="2">
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124" t="s">
+        <v>207</v>
+      </c>
+      <c r="N124" s="2">
         <v>45065.33899305556</v>
       </c>
-      <c r="N124">
+      <c r="O124">
         <v>550</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:15">
       <c r="A125" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B125" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C125">
         <v>124</v>
@@ -6417,13 +6807,13 @@
         <v>45064.11419769676</v>
       </c>
       <c r="F125" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G125" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H125" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I125" t="b">
         <v>1</v>
@@ -6434,22 +6824,25 @@
       <c r="K125">
         <v>1</v>
       </c>
-      <c r="L125" t="s">
-        <v>201</v>
-      </c>
-      <c r="M125" s="2">
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125" t="s">
+        <v>207</v>
+      </c>
+      <c r="N125" s="2">
         <v>45065.33873842593</v>
       </c>
-      <c r="N125">
+      <c r="O125">
         <v>1000</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:15">
       <c r="A126" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C126">
         <v>126</v>
@@ -6461,13 +6854,13 @@
         <v>45064.34021627315</v>
       </c>
       <c r="F126" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G126" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H126" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I126" t="b">
         <v>1</v>
@@ -6478,22 +6871,25 @@
       <c r="K126">
         <v>1</v>
       </c>
-      <c r="L126" t="s">
-        <v>201</v>
-      </c>
-      <c r="M126" s="2">
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126" t="s">
+        <v>207</v>
+      </c>
+      <c r="N126" s="2">
         <v>45065.39864583333</v>
       </c>
-      <c r="N126">
+      <c r="O126">
         <v>481</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:15">
       <c r="A127" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B127" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C127">
         <v>128</v>
@@ -6505,13 +6901,13 @@
         <v>45064.34519577547</v>
       </c>
       <c r="F127" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G127" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H127" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I127" t="b">
         <v>1</v>
@@ -6522,22 +6918,25 @@
       <c r="K127">
         <v>1</v>
       </c>
-      <c r="L127" t="s">
-        <v>201</v>
-      </c>
-      <c r="M127" s="2">
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127" t="s">
+        <v>207</v>
+      </c>
+      <c r="N127" s="2">
         <v>45065.39938657408</v>
       </c>
-      <c r="N127">
+      <c r="O127">
         <v>83</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:15">
       <c r="A128" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B128" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C128">
         <v>130</v>
@@ -6549,13 +6948,13 @@
         <v>45070.30361276621</v>
       </c>
       <c r="F128" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G128" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H128" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I128" t="b">
         <v>1</v>
@@ -6566,22 +6965,25 @@
       <c r="K128">
         <v>1</v>
       </c>
-      <c r="L128" t="s">
-        <v>201</v>
-      </c>
-      <c r="M128" s="2">
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128" t="s">
+        <v>207</v>
+      </c>
+      <c r="N128" s="2">
         <v>45079.25689814815</v>
       </c>
-      <c r="N128">
+      <c r="O128">
         <v>716</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:15">
       <c r="A129" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C129">
         <v>132</v>
@@ -6593,13 +6995,13 @@
         <v>45072.2817774537</v>
       </c>
       <c r="F129" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G129" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H129" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I129" t="b">
         <v>1</v>
@@ -6610,22 +7012,25 @@
       <c r="K129">
         <v>1</v>
       </c>
-      <c r="L129" t="s">
-        <v>202</v>
-      </c>
-      <c r="M129" s="2">
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129" t="s">
+        <v>208</v>
+      </c>
+      <c r="N129" s="2">
         <v>45071.29583333333</v>
       </c>
-      <c r="N129">
+      <c r="O129">
         <v>98309.63</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:15">
       <c r="A130" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B130" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C130">
         <v>134</v>
@@ -6637,13 +7042,13 @@
         <v>45071.0833384375</v>
       </c>
       <c r="F130" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G130" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H130" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="I130" t="b">
         <v>1</v>
@@ -6654,22 +7059,25 @@
       <c r="K130">
         <v>1</v>
       </c>
-      <c r="L130" t="s">
-        <v>202</v>
-      </c>
-      <c r="M130" s="2">
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130" t="s">
+        <v>208</v>
+      </c>
+      <c r="N130" s="2">
         <v>45071.28740740741</v>
       </c>
-      <c r="N130">
+      <c r="O130">
         <v>75863.59</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:15">
       <c r="A131" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B131" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C131">
         <v>138</v>
@@ -6681,13 +7089,13 @@
         <v>45071.08490408565</v>
       </c>
       <c r="F131" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G131" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H131" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="I131" t="b">
         <v>1</v>
@@ -6698,22 +7106,25 @@
       <c r="K131">
         <v>1</v>
       </c>
-      <c r="L131" t="s">
-        <v>203</v>
-      </c>
-      <c r="M131" s="2">
-        <v>45071.28775017361</v>
-      </c>
-      <c r="N131">
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131" t="s">
+        <v>209</v>
+      </c>
+      <c r="N131" s="2">
+        <v>45071.28774305555</v>
+      </c>
+      <c r="O131">
         <v>75863.59</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:15">
       <c r="A132" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B132" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C132">
         <v>140</v>
@@ -6725,13 +7136,13 @@
         <v>45072.3031109375</v>
       </c>
       <c r="F132" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G132" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H132" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I132" t="b">
         <v>1</v>
@@ -6742,22 +7153,25 @@
       <c r="K132">
         <v>1</v>
       </c>
-      <c r="L132" t="s">
-        <v>201</v>
-      </c>
-      <c r="M132" s="2">
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132" t="s">
+        <v>207</v>
+      </c>
+      <c r="N132" s="2">
         <v>45079.25763888889</v>
       </c>
-      <c r="N132">
+      <c r="O132">
         <v>14.02</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:15">
       <c r="A133" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B133" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C133">
         <v>140</v>
@@ -6769,13 +7183,13 @@
         <v>45072.3031109375</v>
       </c>
       <c r="F133" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G133" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H133" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I133" t="b">
         <v>1</v>
@@ -6786,22 +7200,25 @@
       <c r="K133">
         <v>1</v>
       </c>
-      <c r="L133" t="s">
-        <v>201</v>
-      </c>
-      <c r="M133" s="2">
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133" t="s">
+        <v>207</v>
+      </c>
+      <c r="N133" s="2">
         <v>45079.25763888889</v>
       </c>
-      <c r="N133">
+      <c r="O133">
         <v>59.88</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:15">
       <c r="A134" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B134" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C134">
         <v>140</v>
@@ -6813,13 +7230,13 @@
         <v>45072.3031109375</v>
       </c>
       <c r="F134" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G134" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H134" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I134" t="b">
         <v>1</v>
@@ -6830,22 +7247,25 @@
       <c r="K134">
         <v>1</v>
       </c>
-      <c r="L134" t="s">
-        <v>201</v>
-      </c>
-      <c r="M134" s="2">
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134" t="s">
+        <v>207</v>
+      </c>
+      <c r="N134" s="2">
         <v>45079.25763888889</v>
       </c>
-      <c r="N134">
+      <c r="O134">
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:15">
       <c r="A135" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B135" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C135">
         <v>140</v>
@@ -6857,13 +7277,13 @@
         <v>45072.3031109375</v>
       </c>
       <c r="F135" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G135" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H135" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I135" t="b">
         <v>1</v>
@@ -6874,22 +7294,25 @@
       <c r="K135">
         <v>1</v>
       </c>
-      <c r="L135" t="s">
-        <v>201</v>
-      </c>
-      <c r="M135" s="2">
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135" t="s">
+        <v>207</v>
+      </c>
+      <c r="N135" s="2">
         <v>45079.25763888889</v>
       </c>
-      <c r="N135">
+      <c r="O135">
         <v>122.2</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:15">
       <c r="A136" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B136" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C136">
         <v>140</v>
@@ -6901,13 +7324,13 @@
         <v>45072.3031109375</v>
       </c>
       <c r="F136" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G136" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H136" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I136" t="b">
         <v>1</v>
@@ -6918,22 +7341,25 @@
       <c r="K136">
         <v>1</v>
       </c>
-      <c r="L136" t="s">
-        <v>201</v>
-      </c>
-      <c r="M136" s="2">
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136" t="s">
+        <v>207</v>
+      </c>
+      <c r="N136" s="2">
         <v>45079.25763888889</v>
       </c>
-      <c r="N136">
+      <c r="O136">
         <v>62.09</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:15">
       <c r="A137" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B137" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C137">
         <v>140</v>
@@ -6945,13 +7371,13 @@
         <v>45072.3031109375</v>
       </c>
       <c r="F137" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G137" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H137" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I137" t="b">
         <v>1</v>
@@ -6962,22 +7388,25 @@
       <c r="K137">
         <v>1</v>
       </c>
-      <c r="L137" t="s">
-        <v>201</v>
-      </c>
-      <c r="M137" s="2">
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137" t="s">
+        <v>207</v>
+      </c>
+      <c r="N137" s="2">
         <v>45079.25763888889</v>
       </c>
-      <c r="N137">
+      <c r="O137">
         <v>500</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:15">
       <c r="A138" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B138" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C138">
         <v>142</v>
@@ -6989,13 +7418,13 @@
         <v>45075.34471542824</v>
       </c>
       <c r="F138" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G138" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H138" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I138" t="b">
         <v>1</v>
@@ -7006,22 +7435,25 @@
       <c r="K138">
         <v>1</v>
       </c>
-      <c r="L138" t="s">
-        <v>201</v>
-      </c>
-      <c r="M138" s="2">
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138" t="s">
+        <v>207</v>
+      </c>
+      <c r="N138" s="2">
         <v>45079.25842592592</v>
       </c>
-      <c r="N138">
+      <c r="O138">
         <v>229</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:15">
       <c r="A139" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B139" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C139">
         <v>142</v>
@@ -7033,13 +7465,13 @@
         <v>45075.34471542824</v>
       </c>
       <c r="F139" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G139" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H139" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I139" t="b">
         <v>1</v>
@@ -7050,22 +7482,25 @@
       <c r="K139">
         <v>1</v>
       </c>
-      <c r="L139" t="s">
-        <v>201</v>
-      </c>
-      <c r="M139" s="2">
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139" t="s">
+        <v>207</v>
+      </c>
+      <c r="N139" s="2">
         <v>45079.25842592592</v>
       </c>
-      <c r="N139">
+      <c r="O139">
         <v>868</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:15">
       <c r="A140" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B140" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C140">
         <v>142</v>
@@ -7077,13 +7512,13 @@
         <v>45075.34471542824</v>
       </c>
       <c r="F140" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G140" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H140" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I140" t="b">
         <v>1</v>
@@ -7094,22 +7529,25 @@
       <c r="K140">
         <v>1</v>
       </c>
-      <c r="L140" t="s">
-        <v>201</v>
-      </c>
-      <c r="M140" s="2">
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140" t="s">
+        <v>207</v>
+      </c>
+      <c r="N140" s="2">
         <v>45079.25842592592</v>
       </c>
-      <c r="N140">
+      <c r="O140">
         <v>735</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:15">
       <c r="A141" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B141" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C141">
         <v>142</v>
@@ -7121,13 +7559,13 @@
         <v>45075.34471542824</v>
       </c>
       <c r="F141" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G141" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H141" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I141" t="b">
         <v>1</v>
@@ -7138,22 +7576,25 @@
       <c r="K141">
         <v>1</v>
       </c>
-      <c r="L141" t="s">
-        <v>201</v>
-      </c>
-      <c r="M141" s="2">
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141" t="s">
+        <v>207</v>
+      </c>
+      <c r="N141" s="2">
         <v>45079.25842592592</v>
       </c>
-      <c r="N141">
+      <c r="O141">
         <v>40</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:15">
       <c r="A142" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B142" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C142">
         <v>142</v>
@@ -7165,13 +7606,13 @@
         <v>45075.34471542824</v>
       </c>
       <c r="F142" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G142" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H142" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I142" t="b">
         <v>1</v>
@@ -7182,22 +7623,25 @@
       <c r="K142">
         <v>1</v>
       </c>
-      <c r="L142" t="s">
-        <v>201</v>
-      </c>
-      <c r="M142" s="2">
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142" t="s">
+        <v>207</v>
+      </c>
+      <c r="N142" s="2">
         <v>45079.25842592592</v>
       </c>
-      <c r="N142">
+      <c r="O142">
         <v>340</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:15">
       <c r="A143" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B143" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C143">
         <v>142</v>
@@ -7209,13 +7653,13 @@
         <v>45075.34471542824</v>
       </c>
       <c r="F143" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G143" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H143" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I143" t="b">
         <v>1</v>
@@ -7226,22 +7670,25 @@
       <c r="K143">
         <v>1</v>
       </c>
-      <c r="L143" t="s">
-        <v>201</v>
-      </c>
-      <c r="M143" s="2">
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143" t="s">
+        <v>207</v>
+      </c>
+      <c r="N143" s="2">
         <v>45079.25842592592</v>
       </c>
-      <c r="N143">
+      <c r="O143">
         <v>200</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:15">
       <c r="A144" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B144" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C144">
         <v>142</v>
@@ -7253,13 +7700,13 @@
         <v>45075.34471542824</v>
       </c>
       <c r="F144" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G144" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H144" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I144" t="b">
         <v>1</v>
@@ -7270,22 +7717,25 @@
       <c r="K144">
         <v>1</v>
       </c>
-      <c r="L144" t="s">
-        <v>201</v>
-      </c>
-      <c r="M144" s="2">
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144" t="s">
+        <v>207</v>
+      </c>
+      <c r="N144" s="2">
         <v>45079.25842592592</v>
       </c>
-      <c r="N144">
+      <c r="O144">
         <v>50</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:15">
       <c r="A145" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B145" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C145">
         <v>143</v>
@@ -7297,13 +7747,13 @@
         <v>45082.13151047454</v>
       </c>
       <c r="F145" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G145" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H145" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I145" t="b">
         <v>1</v>
@@ -7314,22 +7764,25 @@
       <c r="K145">
         <v>1</v>
       </c>
-      <c r="L145" t="s">
-        <v>201</v>
-      </c>
-      <c r="M145" s="2">
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145" t="s">
+        <v>207</v>
+      </c>
+      <c r="N145" s="2">
         <v>45093.10940972222</v>
       </c>
-      <c r="N145">
+      <c r="O145">
         <v>6275</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:15">
       <c r="A146" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B146" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C146">
         <v>145</v>
@@ -7341,13 +7794,13 @@
         <v>45082.13246663194</v>
       </c>
       <c r="F146" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G146" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H146" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I146" t="b">
         <v>1</v>
@@ -7358,22 +7811,25 @@
       <c r="K146">
         <v>1</v>
       </c>
-      <c r="L146" t="s">
-        <v>201</v>
-      </c>
-      <c r="M146" s="2">
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146" t="s">
+        <v>207</v>
+      </c>
+      <c r="N146" s="2">
         <v>45093.10913194445</v>
       </c>
-      <c r="N146">
+      <c r="O146">
         <v>6275</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:15">
       <c r="A147" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B147" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C147">
         <v>147</v>
@@ -7385,13 +7841,13 @@
         <v>45082.32171037037</v>
       </c>
       <c r="F147" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G147" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H147" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I147" t="b">
         <v>1</v>
@@ -7402,22 +7858,25 @@
       <c r="K147">
         <v>1</v>
       </c>
-      <c r="L147" t="s">
-        <v>201</v>
-      </c>
-      <c r="M147" s="2">
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147" t="s">
+        <v>207</v>
+      </c>
+      <c r="N147" s="2">
         <v>45093.10975694445</v>
       </c>
-      <c r="N147">
+      <c r="O147">
         <v>6969</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:15">
       <c r="A148" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B148" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C148">
         <v>147</v>
@@ -7429,13 +7888,13 @@
         <v>45082.32171037037</v>
       </c>
       <c r="F148" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G148" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H148" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I148" t="b">
         <v>1</v>
@@ -7446,22 +7905,25 @@
       <c r="K148">
         <v>1</v>
       </c>
-      <c r="L148" t="s">
-        <v>201</v>
-      </c>
-      <c r="M148" s="2">
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148" t="s">
+        <v>207</v>
+      </c>
+      <c r="N148" s="2">
         <v>45093.10975694445</v>
       </c>
-      <c r="N148">
+      <c r="O148">
         <v>9090</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:15">
       <c r="A149" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B149" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C149">
         <v>150</v>
@@ -7473,10 +7935,10 @@
         <v>45085.39041666667</v>
       </c>
       <c r="G149" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H149" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="I149" t="b">
         <v>0</v>
@@ -7487,16 +7949,19 @@
       <c r="K149">
         <v>1</v>
       </c>
-      <c r="N149">
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="O149">
         <v>132</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:15">
       <c r="A150" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B150" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C150">
         <v>152</v>
@@ -7508,13 +7973,13 @@
         <v>45087.13839564815</v>
       </c>
       <c r="F150" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G150" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H150" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I150" t="b">
         <v>1</v>
@@ -7525,22 +7990,25 @@
       <c r="K150">
         <v>1</v>
       </c>
-      <c r="L150" t="s">
-        <v>201</v>
-      </c>
-      <c r="M150" s="2">
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150" t="s">
+        <v>207</v>
+      </c>
+      <c r="N150" s="2">
         <v>45093.10726851852</v>
       </c>
-      <c r="N150">
+      <c r="O150">
         <v>450</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:15">
       <c r="A151" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B151" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C151">
         <v>157</v>
@@ -7552,13 +8020,13 @@
         <v>45089.09667667824</v>
       </c>
       <c r="F151" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G151" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H151" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I151" t="b">
         <v>1</v>
@@ -7569,22 +8037,25 @@
       <c r="K151">
         <v>1</v>
       </c>
-      <c r="L151" t="s">
-        <v>202</v>
-      </c>
-      <c r="M151" s="2">
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151" t="s">
+        <v>208</v>
+      </c>
+      <c r="N151" s="2">
         <v>45089.12399305555</v>
       </c>
-      <c r="N151">
+      <c r="O151">
         <v>16000</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:15">
       <c r="A152" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B152" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C152">
         <v>159</v>
@@ -7596,13 +8067,13 @@
         <v>45089.09461925926</v>
       </c>
       <c r="F152" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G152" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H152" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I152" t="b">
         <v>1</v>
@@ -7613,22 +8084,25 @@
       <c r="K152">
         <v>1</v>
       </c>
-      <c r="L152" t="s">
-        <v>202</v>
-      </c>
-      <c r="M152" s="2">
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152" t="s">
+        <v>208</v>
+      </c>
+      <c r="N152" s="2">
         <v>45089.12369212963</v>
       </c>
-      <c r="N152">
+      <c r="O152">
         <v>44000</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:15">
       <c r="A153" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B153" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C153">
         <v>161</v>
@@ -7640,13 +8114,13 @@
         <v>45089.09517393519</v>
       </c>
       <c r="F153" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G153" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H153" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I153" t="b">
         <v>1</v>
@@ -7657,22 +8131,25 @@
       <c r="K153">
         <v>1</v>
       </c>
-      <c r="L153" t="s">
-        <v>203</v>
-      </c>
-      <c r="M153" s="2">
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153" t="s">
+        <v>209</v>
+      </c>
+      <c r="N153" s="2">
         <v>45089.3234375</v>
       </c>
-      <c r="N153">
+      <c r="O153">
         <v>16240</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:15">
       <c r="A154" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B154" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C154">
         <v>163</v>
@@ -7684,13 +8161,13 @@
         <v>45090.08979396991</v>
       </c>
       <c r="F154" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G154" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H154" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I154" t="b">
         <v>1</v>
@@ -7701,22 +8178,25 @@
       <c r="K154">
         <v>1</v>
       </c>
-      <c r="L154" t="s">
-        <v>204</v>
-      </c>
-      <c r="M154" s="2">
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154" t="s">
+        <v>210</v>
+      </c>
+      <c r="N154" s="2">
         <v>45090.33952546296</v>
       </c>
-      <c r="N154">
+      <c r="O154">
         <v>44006.98</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:15">
       <c r="A155" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B155" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C155">
         <v>165</v>
@@ -7728,13 +8208,13 @@
         <v>45089.34338780092</v>
       </c>
       <c r="F155" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G155" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H155" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I155" t="b">
         <v>1</v>
@@ -7745,22 +8225,25 @@
       <c r="K155">
         <v>1</v>
       </c>
-      <c r="L155" t="s">
-        <v>201</v>
-      </c>
-      <c r="M155" s="2">
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155" t="s">
+        <v>207</v>
+      </c>
+      <c r="N155" s="2">
         <v>45093.10851851852</v>
       </c>
-      <c r="N155">
+      <c r="O155">
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:15">
       <c r="A156" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B156" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C156">
         <v>167</v>
@@ -7772,13 +8255,13 @@
         <v>45090.09786038195</v>
       </c>
       <c r="F156" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G156" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H156" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I156" t="b">
         <v>1</v>
@@ -7789,22 +8272,25 @@
       <c r="K156">
         <v>1</v>
       </c>
-      <c r="L156" t="s">
-        <v>202</v>
-      </c>
-      <c r="M156" s="2">
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156" t="s">
+        <v>208</v>
+      </c>
+      <c r="N156" s="2">
         <v>45090.32322916666</v>
       </c>
-      <c r="N156">
+      <c r="O156">
         <v>1826.18</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:15">
       <c r="A157" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B157" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C157">
         <v>169</v>
@@ -7816,13 +8302,13 @@
         <v>45090.29229085648</v>
       </c>
       <c r="F157" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G157" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H157" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I157" t="b">
         <v>1</v>
@@ -7833,22 +8319,25 @@
       <c r="K157">
         <v>1</v>
       </c>
-      <c r="L157" t="s">
-        <v>201</v>
-      </c>
-      <c r="M157" s="2">
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157" t="s">
+        <v>207</v>
+      </c>
+      <c r="N157" s="2">
         <v>45093.10880787037</v>
       </c>
-      <c r="N157">
+      <c r="O157">
         <v>1000</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:15">
       <c r="A158" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C158">
         <v>171</v>
@@ -7859,14 +8348,17 @@
       <c r="E158" s="2">
         <v>45100.37600694445</v>
       </c>
+      <c r="F158" t="s">
+        <v>202</v>
+      </c>
       <c r="G158" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H158" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -7874,16 +8366,25 @@
       <c r="K158">
         <v>1</v>
       </c>
-      <c r="N158">
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158" t="s">
+        <v>207</v>
+      </c>
+      <c r="N158" s="2">
+        <v>45107.10050925926</v>
+      </c>
+      <c r="O158">
         <v>17361</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:15">
       <c r="A159" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B159" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C159">
         <v>171</v>
@@ -7894,14 +8395,17 @@
       <c r="E159" s="2">
         <v>45100.37600694445</v>
       </c>
+      <c r="F159" t="s">
+        <v>202</v>
+      </c>
       <c r="G159" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H159" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159">
         <v>0</v>
@@ -7909,16 +8413,25 @@
       <c r="K159">
         <v>1</v>
       </c>
-      <c r="N159">
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159" t="s">
+        <v>207</v>
+      </c>
+      <c r="N159" s="2">
+        <v>45107.10050925926</v>
+      </c>
+      <c r="O159">
         <v>6898</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:15">
       <c r="A160" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B160" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C160">
         <v>171</v>
@@ -7929,14 +8442,17 @@
       <c r="E160" s="2">
         <v>45100.37600694445</v>
       </c>
+      <c r="F160" t="s">
+        <v>202</v>
+      </c>
       <c r="G160" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H160" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -7944,16 +8460,25 @@
       <c r="K160">
         <v>1</v>
       </c>
-      <c r="N160">
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160" t="s">
+        <v>207</v>
+      </c>
+      <c r="N160" s="2">
+        <v>45107.10050925926</v>
+      </c>
+      <c r="O160">
         <v>3211</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:15">
       <c r="A161" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B161" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C161">
         <v>171</v>
@@ -7964,14 +8489,17 @@
       <c r="E161" s="2">
         <v>45100.37600694445</v>
       </c>
+      <c r="F161" t="s">
+        <v>202</v>
+      </c>
       <c r="G161" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H161" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161">
         <v>0</v>
@@ -7979,16 +8507,25 @@
       <c r="K161">
         <v>1</v>
       </c>
-      <c r="N161">
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161" t="s">
+        <v>207</v>
+      </c>
+      <c r="N161" s="2">
+        <v>45107.10050925926</v>
+      </c>
+      <c r="O161">
         <v>1612</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:15">
       <c r="A162" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B162" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C162">
         <v>171</v>
@@ -7999,14 +8536,17 @@
       <c r="E162" s="2">
         <v>45100.37600694445</v>
       </c>
+      <c r="F162" t="s">
+        <v>202</v>
+      </c>
       <c r="G162" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H162" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -8014,16 +8554,25 @@
       <c r="K162">
         <v>1</v>
       </c>
-      <c r="N162">
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162" t="s">
+        <v>207</v>
+      </c>
+      <c r="N162" s="2">
+        <v>45107.10050925926</v>
+      </c>
+      <c r="O162">
         <v>7720</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:15">
       <c r="A163" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B163" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C163">
         <v>171</v>
@@ -8034,14 +8583,17 @@
       <c r="E163" s="2">
         <v>45100.37600694445</v>
       </c>
+      <c r="F163" t="s">
+        <v>202</v>
+      </c>
       <c r="G163" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H163" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163">
         <v>0</v>
@@ -8049,16 +8601,25 @@
       <c r="K163">
         <v>1</v>
       </c>
-      <c r="N163">
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163" t="s">
+        <v>207</v>
+      </c>
+      <c r="N163" s="2">
+        <v>45107.10050925926</v>
+      </c>
+      <c r="O163">
         <v>2015.19</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:15">
       <c r="A164" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B164" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C164">
         <v>171</v>
@@ -8069,14 +8630,17 @@
       <c r="E164" s="2">
         <v>45100.37600694445</v>
       </c>
+      <c r="F164" t="s">
+        <v>202</v>
+      </c>
       <c r="G164" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H164" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -8084,16 +8648,25 @@
       <c r="K164">
         <v>1</v>
       </c>
-      <c r="N164">
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164" t="s">
+        <v>207</v>
+      </c>
+      <c r="N164" s="2">
+        <v>45107.10050925926</v>
+      </c>
+      <c r="O164">
         <v>1410</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:15">
       <c r="A165" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B165" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C165">
         <v>171</v>
@@ -8104,14 +8677,17 @@
       <c r="E165" s="2">
         <v>45100.37600694445</v>
       </c>
+      <c r="F165" t="s">
+        <v>202</v>
+      </c>
       <c r="G165" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H165" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165">
         <v>0</v>
@@ -8119,16 +8695,25 @@
       <c r="K165">
         <v>1</v>
       </c>
-      <c r="N165">
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165" t="s">
+        <v>207</v>
+      </c>
+      <c r="N165" s="2">
+        <v>45107.10050925926</v>
+      </c>
+      <c r="O165">
         <v>181</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:15">
       <c r="A166" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B166" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C166">
         <v>173</v>
@@ -8140,13 +8725,13 @@
         <v>45100.38656390047</v>
       </c>
       <c r="F166" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G166" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H166" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I166" t="b">
         <v>1</v>
@@ -8157,22 +8742,25 @@
       <c r="K166">
         <v>1</v>
       </c>
-      <c r="L166" t="s">
-        <v>201</v>
-      </c>
-      <c r="M166" s="2">
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166" t="s">
+        <v>207</v>
+      </c>
+      <c r="N166" s="2">
         <v>45093.13473379629</v>
       </c>
-      <c r="N166">
+      <c r="O166">
         <v>299.42</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:15">
       <c r="A167" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B167" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C167">
         <v>173</v>
@@ -8184,13 +8772,13 @@
         <v>45100.38656390047</v>
       </c>
       <c r="F167" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G167" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H167" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I167" t="b">
         <v>1</v>
@@ -8201,22 +8789,25 @@
       <c r="K167">
         <v>1</v>
       </c>
-      <c r="L167" t="s">
-        <v>201</v>
-      </c>
-      <c r="M167" s="2">
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167" t="s">
+        <v>207</v>
+      </c>
+      <c r="N167" s="2">
         <v>45093.13473379629</v>
       </c>
-      <c r="N167">
+      <c r="O167">
         <v>660</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:15">
       <c r="A168" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B168" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C168">
         <v>174</v>
@@ -8228,13 +8819,13 @@
         <v>45093.41815972222</v>
       </c>
       <c r="F168" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G168" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H168" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I168" t="b">
         <v>1</v>
@@ -8245,22 +8836,25 @@
       <c r="K168">
         <v>1</v>
       </c>
-      <c r="L168" t="s">
-        <v>201</v>
-      </c>
-      <c r="M168" s="2">
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168" t="s">
+        <v>207</v>
+      </c>
+      <c r="N168" s="2">
         <v>45093.30967592593</v>
       </c>
-      <c r="N168">
+      <c r="O168">
         <v>3964</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:15">
       <c r="A169" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B169" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C169">
         <v>174</v>
@@ -8272,13 +8866,13 @@
         <v>45093.41815972222</v>
       </c>
       <c r="F169" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G169" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H169" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I169" t="b">
         <v>1</v>
@@ -8289,22 +8883,25 @@
       <c r="K169">
         <v>1</v>
       </c>
-      <c r="L169" t="s">
-        <v>201</v>
-      </c>
-      <c r="M169" s="2">
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169" t="s">
+        <v>207</v>
+      </c>
+      <c r="N169" s="2">
         <v>45093.30967592593</v>
       </c>
-      <c r="N169">
+      <c r="O169">
         <v>1330</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:15">
       <c r="A170" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B170" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C170">
         <v>174</v>
@@ -8316,13 +8913,13 @@
         <v>45093.41815972222</v>
       </c>
       <c r="F170" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G170" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H170" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I170" t="b">
         <v>1</v>
@@ -8333,22 +8930,25 @@
       <c r="K170">
         <v>1</v>
       </c>
-      <c r="L170" t="s">
-        <v>201</v>
-      </c>
-      <c r="M170" s="2">
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170" t="s">
+        <v>207</v>
+      </c>
+      <c r="N170" s="2">
         <v>45093.30967592593</v>
       </c>
-      <c r="N170">
+      <c r="O170">
         <v>12737</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:15">
       <c r="A171" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B171" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C171">
         <v>174</v>
@@ -8360,13 +8960,13 @@
         <v>45093.41815972222</v>
       </c>
       <c r="F171" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G171" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H171" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I171" t="b">
         <v>1</v>
@@ -8377,22 +8977,25 @@
       <c r="K171">
         <v>1</v>
       </c>
-      <c r="L171" t="s">
-        <v>201</v>
-      </c>
-      <c r="M171" s="2">
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171" t="s">
+        <v>207</v>
+      </c>
+      <c r="N171" s="2">
         <v>45093.30967592593</v>
       </c>
-      <c r="N171">
+      <c r="O171">
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:15">
       <c r="A172" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B172" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C172">
         <v>176</v>
@@ -8404,13 +9007,13 @@
         <v>45091.12725432871</v>
       </c>
       <c r="F172" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G172" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H172" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I172" t="b">
         <v>1</v>
@@ -8421,22 +9024,25 @@
       <c r="K172">
         <v>1</v>
       </c>
-      <c r="L172" t="s">
-        <v>201</v>
-      </c>
-      <c r="M172" s="2">
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172" t="s">
+        <v>207</v>
+      </c>
+      <c r="N172" s="2">
         <v>45093.1325</v>
       </c>
-      <c r="N172">
+      <c r="O172">
         <v>10800</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:15">
       <c r="A173" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B173" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C173">
         <v>178</v>
@@ -8448,13 +9054,13 @@
         <v>45091.1426519676</v>
       </c>
       <c r="F173" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G173" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H173" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I173" t="b">
         <v>1</v>
@@ -8465,22 +9071,25 @@
       <c r="K173">
         <v>1</v>
       </c>
-      <c r="L173" t="s">
-        <v>201</v>
-      </c>
-      <c r="M173" s="2">
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173" t="s">
+        <v>207</v>
+      </c>
+      <c r="N173" s="2">
         <v>45093.13365740741</v>
       </c>
-      <c r="N173">
+      <c r="O173">
         <v>692</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:15">
       <c r="A174" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B174" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C174">
         <v>180</v>
@@ -8491,14 +9100,17 @@
       <c r="E174" s="2">
         <v>45107.34306712963</v>
       </c>
+      <c r="F174" t="s">
+        <v>202</v>
+      </c>
       <c r="G174" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H174" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174">
         <v>0</v>
@@ -8506,16 +9118,25 @@
       <c r="K174">
         <v>1</v>
       </c>
-      <c r="N174">
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174" t="s">
+        <v>207</v>
+      </c>
+      <c r="N174" s="2">
+        <v>45107.09496527778</v>
+      </c>
+      <c r="O174">
         <v>148</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:15">
       <c r="A175" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B175" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C175">
         <v>182</v>
@@ -8526,14 +9147,17 @@
       <c r="E175" s="2">
         <v>45106.40506944444</v>
       </c>
+      <c r="F175" t="s">
+        <v>202</v>
+      </c>
       <c r="G175" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H175" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175">
         <v>0</v>
@@ -8541,16 +9165,25 @@
       <c r="K175">
         <v>1</v>
       </c>
-      <c r="N175">
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175" t="s">
+        <v>207</v>
+      </c>
+      <c r="N175" s="2">
+        <v>45107.09472222222</v>
+      </c>
+      <c r="O175">
         <v>52</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:15">
       <c r="A176" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B176" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C176">
         <v>182</v>
@@ -8561,14 +9194,17 @@
       <c r="E176" s="2">
         <v>45106.40506944444</v>
       </c>
+      <c r="F176" t="s">
+        <v>202</v>
+      </c>
       <c r="G176" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H176" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -8576,16 +9212,25 @@
       <c r="K176">
         <v>1</v>
       </c>
-      <c r="N176">
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176" t="s">
+        <v>207</v>
+      </c>
+      <c r="N176" s="2">
+        <v>45107.09472222222</v>
+      </c>
+      <c r="O176">
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:15">
       <c r="A177" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B177" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C177">
         <v>182</v>
@@ -8596,14 +9241,17 @@
       <c r="E177" s="2">
         <v>45106.40506944444</v>
       </c>
+      <c r="F177" t="s">
+        <v>202</v>
+      </c>
       <c r="G177" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H177" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -8611,16 +9259,25 @@
       <c r="K177">
         <v>1</v>
       </c>
-      <c r="N177">
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177" t="s">
+        <v>207</v>
+      </c>
+      <c r="N177" s="2">
+        <v>45107.09472222222</v>
+      </c>
+      <c r="O177">
         <v>1898</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:15">
       <c r="A178" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B178" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C178">
         <v>182</v>
@@ -8631,14 +9288,17 @@
       <c r="E178" s="2">
         <v>45106.40506944444</v>
       </c>
+      <c r="F178" t="s">
+        <v>202</v>
+      </c>
       <c r="G178" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H178" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -8646,16 +9306,25 @@
       <c r="K178">
         <v>1</v>
       </c>
-      <c r="N178">
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178" t="s">
+        <v>207</v>
+      </c>
+      <c r="N178" s="2">
+        <v>45107.09472222222</v>
+      </c>
+      <c r="O178">
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:15">
       <c r="A179" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B179" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C179">
         <v>182</v>
@@ -8666,14 +9335,17 @@
       <c r="E179" s="2">
         <v>45106.40506944444</v>
       </c>
+      <c r="F179" t="s">
+        <v>202</v>
+      </c>
       <c r="G179" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H179" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179">
         <v>0</v>
@@ -8681,16 +9353,25 @@
       <c r="K179">
         <v>1</v>
       </c>
-      <c r="N179">
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179" t="s">
+        <v>207</v>
+      </c>
+      <c r="N179" s="2">
+        <v>45107.09472222222</v>
+      </c>
+      <c r="O179">
         <v>291</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:15">
       <c r="A180" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B180" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C180">
         <v>184</v>
@@ -8702,13 +9383,13 @@
         <v>45093.40869060185</v>
       </c>
       <c r="F180" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G180" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H180" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I180" t="b">
         <v>1</v>
@@ -8719,22 +9400,25 @@
       <c r="K180">
         <v>1</v>
       </c>
-      <c r="L180" t="s">
-        <v>201</v>
-      </c>
-      <c r="M180" s="2">
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180" t="s">
+        <v>207</v>
+      </c>
+      <c r="N180" s="2">
         <v>45093.10606481481</v>
       </c>
-      <c r="N180">
+      <c r="O180">
         <v>2000</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:15">
       <c r="A181" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B181" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C181">
         <v>184</v>
@@ -8746,13 +9430,13 @@
         <v>45093.40869060185</v>
       </c>
       <c r="F181" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G181" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H181" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I181" t="b">
         <v>1</v>
@@ -8763,22 +9447,25 @@
       <c r="K181">
         <v>1</v>
       </c>
-      <c r="L181" t="s">
-        <v>201</v>
-      </c>
-      <c r="M181" s="2">
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181" t="s">
+        <v>207</v>
+      </c>
+      <c r="N181" s="2">
         <v>45093.10606481481</v>
       </c>
-      <c r="N181">
+      <c r="O181">
         <v>500</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:15">
       <c r="A182" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B182" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C182">
         <v>186</v>
@@ -8790,13 +9477,13 @@
         <v>45100.10488418982</v>
       </c>
       <c r="F182" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G182" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H182" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I182" t="b">
         <v>1</v>
@@ -8807,22 +9494,25 @@
       <c r="K182">
         <v>1</v>
       </c>
-      <c r="L182" t="s">
-        <v>201</v>
-      </c>
-      <c r="M182" s="2">
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182" t="s">
+        <v>207</v>
+      </c>
+      <c r="N182" s="2">
         <v>45093.10560185185</v>
       </c>
-      <c r="N182">
+      <c r="O182">
         <v>2000</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:15">
       <c r="A183" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B183" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C183">
         <v>188</v>
@@ -8834,39 +9524,42 @@
         <v>45100.13403832176</v>
       </c>
       <c r="F183" t="s">
+        <v>202</v>
+      </c>
+      <c r="G183" t="s">
+        <v>203</v>
+      </c>
+      <c r="H183" t="s">
+        <v>204</v>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183" t="s">
+        <v>207</v>
+      </c>
+      <c r="N183" s="2">
+        <v>45093.30501157408</v>
+      </c>
+      <c r="O183">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15">
+      <c r="A184" t="s">
+        <v>28</v>
+      </c>
+      <c r="B184" t="s">
         <v>193</v>
-      </c>
-      <c r="G183" t="s">
-        <v>194</v>
-      </c>
-      <c r="H183" t="s">
-        <v>195</v>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183">
-        <v>0</v>
-      </c>
-      <c r="K183">
-        <v>1</v>
-      </c>
-      <c r="L183" t="s">
-        <v>201</v>
-      </c>
-      <c r="M183" s="2">
-        <v>45093.30501157408</v>
-      </c>
-      <c r="N183">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14">
-      <c r="A184" t="s">
-        <v>27</v>
-      </c>
-      <c r="B184" t="s">
-        <v>191</v>
       </c>
       <c r="C184">
         <v>188</v>
@@ -8878,13 +9571,13 @@
         <v>45100.13403832176</v>
       </c>
       <c r="F184" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G184" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H184" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I184" t="b">
         <v>1</v>
@@ -8895,22 +9588,25 @@
       <c r="K184">
         <v>1</v>
       </c>
-      <c r="L184" t="s">
-        <v>201</v>
-      </c>
-      <c r="M184" s="2">
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184" t="s">
+        <v>207</v>
+      </c>
+      <c r="N184" s="2">
         <v>45093.30501157408</v>
       </c>
-      <c r="N184">
+      <c r="O184">
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:15">
       <c r="A185" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B185" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C185">
         <v>190</v>
@@ -8921,31 +9617,43 @@
       <c r="E185" s="2">
         <v>45097.08393040509</v>
       </c>
+      <c r="F185" t="s">
+        <v>202</v>
+      </c>
       <c r="G185" t="s">
+        <v>203</v>
+      </c>
+      <c r="H185" t="s">
+        <v>204</v>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185" t="s">
+        <v>207</v>
+      </c>
+      <c r="N185" s="2">
+        <v>45107.0943287037</v>
+      </c>
+      <c r="O185">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15">
+      <c r="A186" t="s">
+        <v>19</v>
+      </c>
+      <c r="B186" t="s">
         <v>194</v>
-      </c>
-      <c r="H185" t="s">
-        <v>199</v>
-      </c>
-      <c r="I185" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185">
-        <v>0</v>
-      </c>
-      <c r="K185">
-        <v>1</v>
-      </c>
-      <c r="N185">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14">
-      <c r="A186" t="s">
-        <v>18</v>
-      </c>
-      <c r="B186" t="s">
-        <v>192</v>
       </c>
       <c r="C186">
         <v>192</v>
@@ -8956,23 +9664,346 @@
       <c r="E186" s="2">
         <v>45097.14482143518</v>
       </c>
+      <c r="F186" t="s">
+        <v>202</v>
+      </c>
       <c r="G186" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H186" t="s">
+        <v>204</v>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186" t="s">
+        <v>207</v>
+      </c>
+      <c r="N186" s="2">
+        <v>45107.09385416667</v>
+      </c>
+      <c r="O186">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15">
+      <c r="A187" t="s">
+        <v>28</v>
+      </c>
+      <c r="B187" t="s">
+        <v>195</v>
+      </c>
+      <c r="C187">
         <v>200</v>
       </c>
-      <c r="I186" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186">
-        <v>0</v>
-      </c>
-      <c r="K186">
-        <v>1</v>
-      </c>
-      <c r="N186">
-        <v>1800</v>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45107.09554225695</v>
+      </c>
+      <c r="F187" t="s">
+        <v>202</v>
+      </c>
+      <c r="G187" t="s">
+        <v>203</v>
+      </c>
+      <c r="H187" t="s">
+        <v>204</v>
+      </c>
+      <c r="I187" t="b">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187" t="s">
+        <v>207</v>
+      </c>
+      <c r="N187" s="2">
+        <v>45107.09355324074</v>
+      </c>
+      <c r="O187">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15">
+      <c r="A188" t="s">
+        <v>16</v>
+      </c>
+      <c r="B188" t="s">
+        <v>196</v>
+      </c>
+      <c r="C188">
+        <v>203</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45103.14640929398</v>
+      </c>
+      <c r="F188" t="s">
+        <v>202</v>
+      </c>
+      <c r="G188" t="s">
+        <v>203</v>
+      </c>
+      <c r="H188" t="s">
+        <v>204</v>
+      </c>
+      <c r="I188" t="b">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188" t="s">
+        <v>207</v>
+      </c>
+      <c r="N188" s="2">
+        <v>45107.09313657408</v>
+      </c>
+      <c r="O188">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15">
+      <c r="A189" t="s">
+        <v>28</v>
+      </c>
+      <c r="B189" t="s">
+        <v>197</v>
+      </c>
+      <c r="C189">
+        <v>205</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45103.34721108797</v>
+      </c>
+      <c r="F189" t="s">
+        <v>202</v>
+      </c>
+      <c r="G189" t="s">
+        <v>203</v>
+      </c>
+      <c r="H189" t="s">
+        <v>204</v>
+      </c>
+      <c r="I189" t="b">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189" t="s">
+        <v>207</v>
+      </c>
+      <c r="N189" s="2">
+        <v>45107.09269675926</v>
+      </c>
+      <c r="O189">
+        <v>5664</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15">
+      <c r="A190" t="s">
+        <v>28</v>
+      </c>
+      <c r="B190" t="s">
+        <v>198</v>
+      </c>
+      <c r="C190">
+        <v>205</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45103.34721108797</v>
+      </c>
+      <c r="F190" t="s">
+        <v>202</v>
+      </c>
+      <c r="G190" t="s">
+        <v>203</v>
+      </c>
+      <c r="H190" t="s">
+        <v>204</v>
+      </c>
+      <c r="I190" t="b">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190" t="s">
+        <v>207</v>
+      </c>
+      <c r="N190" s="2">
+        <v>45107.09269675926</v>
+      </c>
+      <c r="O190">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15">
+      <c r="A191" t="s">
+        <v>28</v>
+      </c>
+      <c r="B191" t="s">
+        <v>199</v>
+      </c>
+      <c r="C191">
+        <v>205</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45103.34721108797</v>
+      </c>
+      <c r="F191" t="s">
+        <v>202</v>
+      </c>
+      <c r="G191" t="s">
+        <v>203</v>
+      </c>
+      <c r="H191" t="s">
+        <v>204</v>
+      </c>
+      <c r="I191" t="b">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191" t="s">
+        <v>207</v>
+      </c>
+      <c r="N191" s="2">
+        <v>45107.09269675926</v>
+      </c>
+      <c r="O191">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15">
+      <c r="A192" t="s">
+        <v>29</v>
+      </c>
+      <c r="B192" t="s">
+        <v>200</v>
+      </c>
+      <c r="C192">
+        <v>207</v>
+      </c>
+      <c r="D192">
+        <v>98309.7</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45103.40414153935</v>
+      </c>
+      <c r="G192" t="s">
+        <v>203</v>
+      </c>
+      <c r="H192" t="s">
+        <v>206</v>
+      </c>
+      <c r="I192" t="b">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="O192">
+        <v>98309.7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15">
+      <c r="A193" t="s">
+        <v>24</v>
+      </c>
+      <c r="B193" t="s">
+        <v>201</v>
+      </c>
+      <c r="C193">
+        <v>207</v>
+      </c>
+      <c r="D193">
+        <v>11804.98</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45103.40414153935</v>
+      </c>
+      <c r="G193" t="s">
+        <v>203</v>
+      </c>
+      <c r="H193" t="s">
+        <v>206</v>
+      </c>
+      <c r="I193" t="b">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="O193">
+        <v>11804.98</v>
       </c>
     </row>
   </sheetData>
